--- a/DB and Documents/tblQuestion_day2.xlsx
+++ b/DB and Documents/tblQuestion_day2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="411">
   <si>
     <t>Qdesceng</t>
   </si>
@@ -419,18 +419,6 @@
     <t>2.3 (ch©‡eÿY) ejwU †Kv_vq (¯’vb) cvIqv wMqv‡Q?</t>
   </si>
   <si>
-    <r>
-      <t>Outside: on dirt floor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Vrinda"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>Outside: on concrete/cement/wood</t>
   </si>
   <si>
@@ -450,18 +438,6 @@
   </si>
   <si>
     <r>
-      <t>Inside: on dirt floor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Vrinda"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Inside: on concrete/cement/wood floor</t>
     </r>
     <r>
@@ -491,15 +467,9 @@
     </r>
   </si>
   <si>
-    <t>N‡ii evB‡i:KswµU/ cvKvu/Kv‡Vi Dci ivLv</t>
-  </si>
-  <si>
     <t>N‡ii evB‡i: ‡Kvb cv‡Îig‡a¨ ivLv</t>
   </si>
   <si>
-    <t>N‡ii wfZ‡i: KswµU/ cvKvu/Kv‡Vi †d¬vi ev gvwU‡Z ivLv</t>
-  </si>
-  <si>
     <t>N‡ii wfZ‡it gvwU ev cvÎ Qvov Ab¨ †Kvb wKQzi g‡a¨ ivLv (‡hgb-†Uwej, weQvbv BZ¨vw`)</t>
   </si>
   <si>
@@ -560,28 +530,10 @@
     <t>q2_5a</t>
   </si>
   <si>
-    <t>2.5.a (ask) In your opinion, how much did any of the other children in the household or bari play with the toy ball in the past 24 hours? (read each choice)</t>
-  </si>
-  <si>
-    <t>2.5.K (cÖkœ Kiæb) Avcbvi g‡Z, MZ 24N›Uvq KZevi Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)</t>
-  </si>
-  <si>
     <t>q2_5b</t>
   </si>
   <si>
-    <t>2.5.b In your opinion, how much time total did other children in the household or bari spend playing with the toy ball over the past 24 hours?</t>
-  </si>
-  <si>
-    <t>2.5.L Avcbvi g‡Z, MZ 24 N›Uvq me©‡gvU KZUzKz mgq Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (99=Rvwb bv)</t>
-  </si>
-  <si>
     <t>q2_6</t>
-  </si>
-  <si>
-    <t>2.6 (ask) Did children from other baris play with the toy ball in the past 24 hours? (read each choice)</t>
-  </si>
-  <si>
-    <t>2.6 (cÖkœ Kiæb) MZ 24N›Uvq (Avcbvi Lvbv ev evwo e¨ZxZ) Ab¨ evwoi wkïiv GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q wK? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)</t>
   </si>
   <si>
     <t>They played with it within this bari</t>
@@ -947,18 +899,6 @@
     <t>cwigv‡b †ewk (&gt;10)</t>
   </si>
   <si>
-    <t>3.2 Was the fly tape hung under a roof (protected from rain)?</t>
-  </si>
-  <si>
-    <t>3.2 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)</t>
-  </si>
-  <si>
-    <t>3.3 Is the food prep area inside or outside?</t>
-  </si>
-  <si>
-    <t>3.3 Lvevi ˆZwii GB ¯’vbwU wK wfZ‡i bv evwn‡i?</t>
-  </si>
-  <si>
     <t>Walls and roof</t>
   </si>
   <si>
@@ -980,18 +920,9 @@
     <t>q3_4</t>
   </si>
   <si>
-    <t>3.4 (record) How many steps are the strips hung from the food preparation area?</t>
-  </si>
-  <si>
-    <t>3.4 (wjLyb) Lvevi ˆZwii ¯’vb †_‡K KZ K`g `y‡i (cv‡qi avc Mbbv Kiæb) d¬vB‡Uc evav n‡qwQj?</t>
-  </si>
-  <si>
     <t>q3_5</t>
   </si>
   <si>
-    <t>3.5 (obs) Was the fly tape in the food preparation area tampered with or did it fall down?</t>
-  </si>
-  <si>
     <t>3.6 (record) What is the total number of flies counted on all strips?</t>
   </si>
   <si>
@@ -1071,21 +1002,6 @@
   </si>
   <si>
     <t>High (&gt;10)</t>
-  </si>
-  <si>
-    <t>3.10 Was the fly tape hung under a roof (protected from rain)?</t>
-  </si>
-  <si>
-    <t>3.10 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)</t>
-  </si>
-  <si>
-    <t>3.11 (record) How many steps are the strips hung from the latrine area?</t>
-  </si>
-  <si>
-    <t>3.12 (obs) Was the fly tape in the latrine area tampered with or did it fall down?</t>
-  </si>
-  <si>
-    <t>3.11 (wjwce× Kiæb) Uq‡jU †_‡K KZ K`g `y‡i (cv‡qi avc MbYv Kiæb) d¬vB‡Uc evavu wQj?</t>
   </si>
   <si>
     <t>3.13 (record) What is the total number of flies counted on all strips?</t>
@@ -1256,9 +1172,6 @@
     <t>q3_14Other</t>
   </si>
   <si>
-    <t>N‡ii evB‡i: gqjvhy³ (gvwU) ‡g‡S‡Z ivLv</t>
-  </si>
-  <si>
     <t>2.4.K (cÖkœ Kiæb) Avcbvi g‡Z, Avcbvi ev”Pv (Uv‡M©U wkïi bvg ejyb) MZ24 N›Uvq KZ evi Avgv‡`i †`qv GB †Ljbv ej w`‡q ‡Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e)</t>
   </si>
   <si>
@@ -1274,9 +1187,6 @@
     </r>
   </si>
   <si>
-    <t>N‡ii wfZ‡i: gqjvhy³ ‡g‡S‡Z ivLv</t>
-  </si>
-  <si>
     <t>N‡ii evB‡i: Ab¨ †Kvb N‡i ivLv</t>
   </si>
   <si>
@@ -1307,17 +1217,137 @@
     <t>Qv` Av‡Q wKšZz ‡`qvj bvB</t>
   </si>
   <si>
-    <t>3.5 (ch©‡eÿY) (Lvevi ˆZwii ¯’v‡b evavu  d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?</t>
-  </si>
-  <si>
-    <t>3.12 (ch©‡eÿY) Uq‡j‡Ui Av‡kcv‡k evavu d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?</t>
+    <r>
+      <t>Outside: on soil floor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Vrinda"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>N‡ii evB‡i:  (gvwUi) ‡g‡S‡Z ivLv</t>
+  </si>
+  <si>
+    <t>N‡ii evB‡i:KswµU/ cvKvu/Kv‡Vi †g‡S‡Z ivLv</t>
+  </si>
+  <si>
+    <t>N‡ii wfZ‡i: (gvwUi) ‡g‡S‡Z ivLv</t>
+  </si>
+  <si>
+    <r>
+      <t>Inside: on soil floor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Vrinda"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>N‡ii wfZ‡i: KswµU/ cvKvu/Kv‡Vi ‡g‡S‡Z ivLv</t>
+  </si>
+  <si>
+    <t>2.5.b In your opinion, how much time total did other children/people  in the household or bari spend playing with the toy ball over the past 24 hours?</t>
+  </si>
+  <si>
+    <t>2.5.K (cÖkœ Kiæb) Avcbvi g‡Z, MZ 24N›Uvq KZevi Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï ev ‡h †KD †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)</t>
+  </si>
+  <si>
+    <t>2.5.L Avcbvi g‡Z, MZ 24 N›Uvq me©‡gvU KZUzKz mgq Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï ev ‡h †KD GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (99=Rvwb bv)</t>
+  </si>
+  <si>
+    <t>2.6 (cÖkœ Kiæb) MZ 24N›Uvq (Avcbvi Lvbv ev evwo e¨ZxZ) Ab¨ evwoi wkïiv ev †h †KD GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q wK? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)</t>
+  </si>
+  <si>
+    <t>GB evwo‡Z Ges GB evwoi evB‡i Dfq ¯’v‡bB †Ljv K‡i‡Q</t>
+  </si>
+  <si>
+    <t>Both within this bari and outside this bari</t>
+  </si>
+  <si>
+    <t>3.2 Lvevi ˆZwii GB ¯’vbwU wK wfZ‡i bv evwn‡i?</t>
+  </si>
+  <si>
+    <t>3.2 Is the food prep area inside or outside?</t>
+  </si>
+  <si>
+    <t>3.3 (ch©‡eÿY) (Lvevi ˆZwii ¯’v‡b evavu  d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?</t>
+  </si>
+  <si>
+    <t>3.3 (obs) Was the fly tape in the food preparation area tampered with or did it fall down?</t>
+  </si>
+  <si>
+    <t>3.4 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)</t>
+  </si>
+  <si>
+    <t>3.4 Was the fly tape hung under a roof (protected from rain)?</t>
+  </si>
+  <si>
+    <t>3.5 (wjLyb) Lvevi ˆZwii ¯’vb †_‡K KZ K`g `y‡i (cv‡qi avc Mbbv Kiæb) d¬vB‡Uc evav n‡qwQj?</t>
+  </si>
+  <si>
+    <t>3.5 (record) How many steps are the strips hung from the food preparation area?</t>
+  </si>
+  <si>
+    <t>3.11 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)</t>
+  </si>
+  <si>
+    <t>3.11 Was the fly tape hung under a roof (protected from rain)?</t>
+  </si>
+  <si>
+    <t>3.12 (wjwce× Kiæb) Uq‡jU †_‡K KZ K`g `y‡i (cv‡qi avc MbYv Kiæb) d¬vB‡Uc evavu wQj?</t>
+  </si>
+  <si>
+    <t>3.12 (record) How many steps are the strips hung from the latrine area?</t>
+  </si>
+  <si>
+    <t>3.10 (ch©‡eÿY) Uq‡j‡Ui Av‡kcv‡k evavu d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?</t>
+  </si>
+  <si>
+    <t>3.10 (obs) Was the fly tape in the latrine area tampered with or did it fall down?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intact </t>
+  </si>
+  <si>
+    <t>A¶Z Av‡Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampered/fell down but present </t>
+  </si>
+  <si>
+    <t>ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wKšZz Av‡Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing </t>
+  </si>
+  <si>
+    <t>nvwi‡q †M‡Q</t>
+  </si>
+  <si>
+    <t>Uq‡jU bvB/ †Lvjv cvqLvbv</t>
+  </si>
+  <si>
+    <t>Household does not have latrine</t>
+  </si>
+  <si>
+    <t>2.5.a (ask) In your opinion, how much did any of the other children/ people  in the household or bari play with the toy ball in the past 24 hours? (read each choice)</t>
+  </si>
+  <si>
+    <t>2.6 (ask) Did children/people from other baris play with the toy ball in the past 24 hours? (read each choice)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1506,8 +1536,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SutonnyMJ"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SutonnyMJ"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,6 +1562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1757,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1955,6 +2006,37 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="126" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2410,8 +2492,8 @@
   <dimension ref="A1:DK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3022,9 +3104,8 @@
         <v>107</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q2_0</v>
+      <c r="H9" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="66"/>
@@ -3046,7 +3127,7 @@
       </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'm20','frmmessage', '','‡bvUt GB †mKmb Ges cieZx© †mKmbwU BÛjvB‡b BB mve‡m‡U Gb‡ivjK„Z mKj Lvbvq c~iY Ki‡Z n‡e|','NOTE: This section and the next section will be filled out for all households enrolled in the endline EE subset.','','q2_0','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'm20','frmmessage', '','‡bvUt GB †mKmb Ges cieZx© †mKmbwU BÛjvB‡b BB mve‡m‡U Gb‡ivjK„Z mKj Lvbvq c~iY Ki‡Z n‡e|','NOTE: This section and the next section will be filled out for all households enrolled in the endline EE subset.','','q2_1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V9" s="75"/>
       <c r="W9" s="75"/>
@@ -3143,146 +3224,146 @@
       <c r="DJ9" s="75"/>
       <c r="DK9" s="75"/>
     </row>
-    <row r="10" spans="1:115" ht="19.5">
-      <c r="A10" s="60">
+    <row r="10" spans="1:115" s="117" customFormat="1" ht="19.5">
+      <c r="A10" s="108">
         <v>9</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="19" t="str">
+      <c r="G10" s="112"/>
+      <c r="H10" s="113" t="str">
         <f t="shared" si="0"/>
         <v>q2_1</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="66" t="s">
+      <c r="I10" s="109"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="66" t="s">
+      <c r="S10" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="66" t="s">
+      <c r="T10" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="U10" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q2_0','frmsinglechoice', 'tblMainQues','2.0 Avcwb wK GB Lvbvq †Ljbv ej †mKmb wU c~iY Ki‡Z Pvb?','2.0 Will you be filing out the sentinel toy sampling and fly density sections in this household?','','q2_1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
-      <c r="BP10" s="75"/>
-      <c r="BQ10" s="75"/>
-      <c r="BR10" s="75"/>
-      <c r="BS10" s="75"/>
-      <c r="BT10" s="75"/>
-      <c r="BU10" s="75"/>
-      <c r="BV10" s="75"/>
-      <c r="BW10" s="75"/>
-      <c r="BX10" s="75"/>
-      <c r="BY10" s="75"/>
-      <c r="BZ10" s="75"/>
-      <c r="CA10" s="75"/>
-      <c r="CB10" s="75"/>
-      <c r="CC10" s="75"/>
-      <c r="CD10" s="75"/>
-      <c r="CE10" s="75"/>
-      <c r="CF10" s="75"/>
-      <c r="CG10" s="75"/>
-      <c r="CH10" s="75"/>
-      <c r="CI10" s="75"/>
-      <c r="CJ10" s="75"/>
-      <c r="CK10" s="75"/>
-      <c r="CL10" s="75"/>
-      <c r="CM10" s="75"/>
-      <c r="CN10" s="75"/>
-      <c r="CO10" s="75"/>
-      <c r="CP10" s="75"/>
-      <c r="CQ10" s="75"/>
-      <c r="CR10" s="75"/>
-      <c r="CS10" s="75"/>
-      <c r="CT10" s="75"/>
-      <c r="CU10" s="75"/>
-      <c r="CV10" s="75"/>
-      <c r="CW10" s="75"/>
-      <c r="CX10" s="75"/>
-      <c r="CY10" s="75"/>
-      <c r="CZ10" s="75"/>
-      <c r="DA10" s="75"/>
-      <c r="DB10" s="75"/>
-      <c r="DC10" s="75"/>
-      <c r="DD10" s="75"/>
-      <c r="DE10" s="75"/>
-      <c r="DF10" s="75"/>
-      <c r="DG10" s="75"/>
-      <c r="DH10" s="75"/>
-      <c r="DI10" s="75"/>
-      <c r="DJ10" s="75"/>
-      <c r="DK10" s="75"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
+      <c r="AS10" s="116"/>
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="116"/>
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="116"/>
+      <c r="AY10" s="116"/>
+      <c r="AZ10" s="116"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="116"/>
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="116"/>
+      <c r="BF10" s="116"/>
+      <c r="BG10" s="116"/>
+      <c r="BH10" s="116"/>
+      <c r="BI10" s="116"/>
+      <c r="BJ10" s="116"/>
+      <c r="BK10" s="116"/>
+      <c r="BL10" s="116"/>
+      <c r="BM10" s="116"/>
+      <c r="BN10" s="116"/>
+      <c r="BO10" s="116"/>
+      <c r="BP10" s="116"/>
+      <c r="BQ10" s="116"/>
+      <c r="BR10" s="116"/>
+      <c r="BS10" s="116"/>
+      <c r="BT10" s="116"/>
+      <c r="BU10" s="116"/>
+      <c r="BV10" s="116"/>
+      <c r="BW10" s="116"/>
+      <c r="BX10" s="116"/>
+      <c r="BY10" s="116"/>
+      <c r="BZ10" s="116"/>
+      <c r="CA10" s="116"/>
+      <c r="CB10" s="116"/>
+      <c r="CC10" s="116"/>
+      <c r="CD10" s="116"/>
+      <c r="CE10" s="116"/>
+      <c r="CF10" s="116"/>
+      <c r="CG10" s="116"/>
+      <c r="CH10" s="116"/>
+      <c r="CI10" s="116"/>
+      <c r="CJ10" s="116"/>
+      <c r="CK10" s="116"/>
+      <c r="CL10" s="116"/>
+      <c r="CM10" s="116"/>
+      <c r="CN10" s="116"/>
+      <c r="CO10" s="116"/>
+      <c r="CP10" s="116"/>
+      <c r="CQ10" s="116"/>
+      <c r="CR10" s="116"/>
+      <c r="CS10" s="116"/>
+      <c r="CT10" s="116"/>
+      <c r="CU10" s="116"/>
+      <c r="CV10" s="116"/>
+      <c r="CW10" s="116"/>
+      <c r="CX10" s="116"/>
+      <c r="CY10" s="116"/>
+      <c r="CZ10" s="116"/>
+      <c r="DA10" s="116"/>
+      <c r="DB10" s="116"/>
+      <c r="DC10" s="116"/>
+      <c r="DD10" s="116"/>
+      <c r="DE10" s="116"/>
+      <c r="DF10" s="116"/>
+      <c r="DG10" s="116"/>
+      <c r="DH10" s="116"/>
+      <c r="DI10" s="116"/>
+      <c r="DJ10" s="116"/>
+      <c r="DK10" s="116"/>
     </row>
     <row r="11" spans="1:115" ht="19.5">
       <c r="A11" s="60">
@@ -3710,7 +3791,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>32</v>
@@ -3719,10 +3800,10 @@
         <v>88</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="12" t="s">
@@ -4000,14 +4081,14 @@
         <v>88</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="61" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="66"/>
@@ -4131,7 +4212,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>33</v>
@@ -4140,10 +4221,10 @@
         <v>88</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="19" t="str">
@@ -4272,19 +4353,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G18" s="66"/>
       <c r="H18" s="19" t="str">
@@ -4413,7 +4494,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>33</v>
@@ -4422,10 +4503,10 @@
         <v>88</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>162</v>
+        <v>409</v>
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="19" t="str">
@@ -4452,7 +4533,7 @@
       </c>
       <c r="U19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q2_5a','frmsinglechoice', 'tblMainQues','2.5.K (cÖkœ Kiæb) Avcbvi g‡Z, MZ 24N›Uvq KZevi Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)','2.5.a (ask) In your opinion, how much did any of the other children in the household or bari play with the toy ball in the past 24 hours? (read each choice)','','q2_5b','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q2_5a','frmsinglechoice', 'tblMainQues','2.5.K (cÖkœ Kiæb) Avcbvi g‡Z, MZ 24N›Uvq KZevi Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï ev ‡h †KD †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)','2.5.a (ask) In your opinion, how much did any of the other children/ people  in the household or bari play with the toy ball in the past 24 hours? (read each choice)','','q2_5b','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V19" s="75"/>
       <c r="W19" s="75"/>
@@ -4554,19 +4635,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>165</v>
+        <v>381</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="19" t="str">
@@ -4593,7 +4674,7 @@
       </c>
       <c r="U20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q2_5b','frmyeartomin', 'tblMainQues','2.5.L Avcbvi g‡Z, MZ 24 N›Uvq me©‡gvU KZUzKz mgq Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (99=Rvwb bv)','2.5.b In your opinion, how much time total did other children in the household or bari spend playing with the toy ball over the past 24 hours?','','q2_6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q2_5b','frmyeartomin', 'tblMainQues','2.5.L Avcbvi g‡Z, MZ 24 N›Uvq me©‡gvU KZUzKz mgq Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï ev ‡h †KD GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (99=Rvwb bv)','2.5.b In your opinion, how much time total did other children/people  in the household or bari spend playing with the toy ball over the past 24 hours?','','q2_6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V20" s="75"/>
       <c r="W20" s="75"/>
@@ -4695,7 +4776,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>33</v>
@@ -4704,10 +4785,10 @@
         <v>88</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>169</v>
+        <v>384</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="19" t="str">
@@ -4734,7 +4815,7 @@
       </c>
       <c r="U21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q2_6','frmsinglechoice', 'tblMainQues','2.6 (cÖkœ Kiæb) MZ 24N›Uvq (Avcbvi Lvbv ev evwo e¨ZxZ) Ab¨ evwoi wkïiv GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q wK? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)','2.6 (ask) Did children from other baris play with the toy ball in the past 24 hours? (read each choice)','','q2_7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q2_6','frmsinglechoice', 'tblMainQues','2.6 (cÖkœ Kiæb) MZ 24N›Uvq (Avcbvi Lvbv ev evwo e¨ZxZ) Ab¨ evwoi wkïiv ev †h †KD GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q wK? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)','2.6 (ask) Did children/people from other baris play with the toy ball in the past 24 hours? (read each choice)','','q2_7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V21" s="75"/>
       <c r="W21" s="75"/>
@@ -4836,7 +4917,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>33</v>
@@ -4845,10 +4926,10 @@
         <v>88</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="19" t="str">
@@ -4977,7 +5058,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>33</v>
@@ -4986,10 +5067,10 @@
         <v>88</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="19" t="str">
@@ -5118,7 +5199,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>33</v>
@@ -5127,10 +5208,10 @@
         <v>88</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="19" t="str">
@@ -5259,7 +5340,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>33</v>
@@ -5268,10 +5349,10 @@
         <v>88</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G25" s="66"/>
       <c r="H25" s="19" t="str">
@@ -5400,7 +5481,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C26" s="69" t="s">
         <v>32</v>
@@ -5409,14 +5490,14 @@
         <v>88</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="F26" s="70" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="G26" s="66"/>
       <c r="H26" s="61" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="66"/>
@@ -5540,19 +5621,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D27" s="61" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="19" t="str">
@@ -5681,7 +5762,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C28" s="61" t="s">
         <v>34</v>
@@ -5690,10 +5771,10 @@
         <v>88</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F28" s="70" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G28" s="66"/>
       <c r="H28" s="19" t="str">
@@ -5822,17 +5903,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C29" s="61" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="61"/>
       <c r="E29" s="63" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G29" s="66"/>
       <c r="H29" s="19" t="str">
@@ -5961,7 +6042,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C30" s="62" t="s">
         <v>33</v>
@@ -5970,10 +6051,10 @@
         <v>88</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G30" s="66"/>
       <c r="H30" s="19" t="str">
@@ -6102,7 +6183,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C31" s="62" t="s">
         <v>33</v>
@@ -6111,10 +6192,10 @@
         <v>88</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G31" s="66"/>
       <c r="H31" s="19" t="str">
@@ -6243,17 +6324,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="61"/>
       <c r="E32" s="63" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G32" s="66"/>
       <c r="H32" s="19" t="str">
@@ -6382,7 +6463,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C33" s="61" t="s">
         <v>31</v>
@@ -6391,10 +6472,10 @@
         <v>88</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G33" s="66"/>
       <c r="H33" s="19" t="str">
@@ -6523,7 +6604,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C34" s="61" t="s">
         <v>34</v>
@@ -6532,10 +6613,10 @@
         <v>88</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F34" s="70" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G34" s="66"/>
       <c r="H34" s="19" t="str">
@@ -6664,7 +6745,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C35" s="61" t="s">
         <v>35</v>
@@ -6673,10 +6754,10 @@
         <v>88</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G35" s="66"/>
       <c r="H35" s="19" t="str">
@@ -6812,15 +6893,14 @@
       </c>
       <c r="D36" s="61"/>
       <c r="E36" s="63" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F36" s="71" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G36" s="66"/>
-      <c r="H36" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_1</v>
+      <c r="H36" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="66"/>
@@ -6953,15 +7033,14 @@
         <v>88</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F37" s="70" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G37" s="66"/>
-      <c r="H37" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_2</v>
+      <c r="H37" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="I37" s="61"/>
       <c r="J37" s="66"/>
@@ -7082,7 +7161,7 @@
     </row>
     <row r="38" spans="1:115" ht="19.5">
       <c r="A38" s="60">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="61" t="s">
         <v>37</v>
@@ -7094,15 +7173,14 @@
         <v>88</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="F38" s="70" t="s">
-        <v>288</v>
+        <v>388</v>
       </c>
       <c r="G38" s="66"/>
-      <c r="H38" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_3</v>
+      <c r="H38" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="I38" s="61"/>
       <c r="J38" s="66"/>
@@ -7123,8 +7201,8 @@
         <v>22</v>
       </c>
       <c r="U38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('37', 'q3_2','frmsinglechoice', 'tblMainQues','3.2 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)','3.2 Was the fly tape hung under a roof (protected from rain)?','','q3_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A38&amp;"', '" &amp;B38&amp;"','" &amp;C38&amp;"', '" &amp;D38&amp;"','" &amp;E38&amp;"','" &amp;F38&amp;"','"&amp;G38&amp;"','"&amp;H38&amp;"','"&amp;I38&amp;"','"&amp;J38&amp;"', '"&amp;K38&amp;"','"&amp;L38&amp;"','"&amp;M38&amp;"','"&amp;N38&amp;"','"&amp;O38&amp;"','"&amp;P38&amp;"','"&amp;Q38&amp;"',"&amp;R38&amp;","&amp;S38&amp;",'"&amp;T38&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'q3_2','frmsinglechoice', 'tblMainQues','3.2 Lvevi ˆZwii GB ¯’vbwU wK wfZ‡i bv evwn‡i?','3.2 Is the food prep area inside or outside?','','q3_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V38" s="75"/>
       <c r="W38" s="75"/>
@@ -7223,7 +7301,7 @@
     </row>
     <row r="39" spans="1:115" ht="19.5">
       <c r="A39" s="60">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="61" t="s">
         <v>38</v>
@@ -7235,15 +7313,14 @@
         <v>88</v>
       </c>
       <c r="E39" s="63" t="s">
-        <v>291</v>
+        <v>389</v>
       </c>
       <c r="F39" s="70" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="G39" s="66"/>
-      <c r="H39" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_4</v>
+      <c r="H39" s="61" t="s">
+        <v>284</v>
       </c>
       <c r="I39" s="61"/>
       <c r="J39" s="66"/>
@@ -7264,8 +7341,8 @@
         <v>22</v>
       </c>
       <c r="U39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'q3_3','frmsinglechoice', 'tblMainQues','3.3 Lvevi ˆZwii GB ¯’vbwU wK wfZ‡i bv evwn‡i?','3.3 Is the food prep area inside or outside?','','q3_4','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A39&amp;"', '" &amp;B39&amp;"','" &amp;C39&amp;"', '" &amp;D39&amp;"','" &amp;E39&amp;"','" &amp;F39&amp;"','"&amp;G39&amp;"','"&amp;H39&amp;"','"&amp;I39&amp;"','"&amp;J39&amp;"', '"&amp;K39&amp;"','"&amp;L39&amp;"','"&amp;M39&amp;"','"&amp;N39&amp;"','"&amp;O39&amp;"','"&amp;P39&amp;"','"&amp;Q39&amp;"',"&amp;R39&amp;","&amp;S39&amp;",'"&amp;T39&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('40', 'q3_3','frmsinglechoice', 'tblMainQues','3.3 (ch©‡eÿY) (Lvevi ˆZwii ¯’v‡b evavu  d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?','3.3 (obs) Was the fly tape in the food preparation area tampered with or did it fall down?','','q3_4','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V39" s="75"/>
       <c r="W39" s="75"/>
@@ -7364,27 +7441,26 @@
     </row>
     <row r="40" spans="1:115" ht="19.5">
       <c r="A40" s="60">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>31</v>
+        <v>284</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="D40" s="61" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="F40" s="70" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="G40" s="66"/>
-      <c r="H40" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_5</v>
+      <c r="H40" s="61" t="s">
+        <v>285</v>
       </c>
       <c r="I40" s="61"/>
       <c r="J40" s="66"/>
@@ -7406,7 +7482,7 @@
       </c>
       <c r="U40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('39', 'q3_4','frmnumeric', 'tblMainQues','3.4 (wjLyb) Lvevi ˆZwii ¯’vb †_‡K KZ K`g `y‡i (cv‡qi avc Mbbv Kiæb) d¬vB‡Uc evav n‡qwQj?','3.4 (record) How many steps are the strips hung from the food preparation area?','','q3_5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('37', 'q3_4','frmsinglechoice', 'tblMainQues','3.4 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)','3.4 Was the fly tape hung under a roof (protected from rain)?','','q3_5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V40" s="75"/>
       <c r="W40" s="75"/>
@@ -7505,27 +7581,26 @@
     </row>
     <row r="41" spans="1:115" ht="19.5">
       <c r="A41" s="60">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>33</v>
+        <v>285</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>31</v>
       </c>
       <c r="D41" s="61" t="s">
         <v>88</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="G41" s="66"/>
-      <c r="H41" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_6</v>
+      <c r="H41" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="I41" s="61"/>
       <c r="J41" s="66"/>
@@ -7546,8 +7621,8 @@
         <v>22</v>
       </c>
       <c r="U41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('40', 'q3_5','frmsinglechoice', 'tblMainQues','3.5 (ch©‡eÿY) (Lvevi ˆZwii ¯’v‡b evavu  d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?','3.5 (obs) Was the fly tape in the food preparation area tampered with or did it fall down?','','q3_6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A41&amp;"', '" &amp;B41&amp;"','" &amp;C41&amp;"', '" &amp;D41&amp;"','" &amp;E41&amp;"','" &amp;F41&amp;"','"&amp;G41&amp;"','"&amp;H41&amp;"','"&amp;I41&amp;"','"&amp;J41&amp;"', '"&amp;K41&amp;"','"&amp;L41&amp;"','"&amp;M41&amp;"','"&amp;N41&amp;"','"&amp;O41&amp;"','"&amp;P41&amp;"','"&amp;Q41&amp;"',"&amp;R41&amp;","&amp;S41&amp;",'"&amp;T41&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('39', 'q3_5','frmnumeric', 'tblMainQues','3.5 (wjLyb) Lvevi ˆZwii ¯’vb †_‡K KZ K`g `y‡i (cv‡qi avc Mbbv Kiæb) d¬vB‡Uc evav n‡qwQj?','3.5 (record) How many steps are the strips hung from the food preparation area?','','q3_6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V41" s="75"/>
       <c r="W41" s="75"/>
@@ -7658,15 +7733,14 @@
         <v>88</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="G42" s="66"/>
-      <c r="H42" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_7</v>
+      <c r="H42" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="I42" s="61"/>
       <c r="J42" s="66"/>
@@ -7687,7 +7761,7 @@
         <v>22</v>
       </c>
       <c r="U42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A42&amp;"', '" &amp;B42&amp;"','" &amp;C42&amp;"', '" &amp;D42&amp;"','" &amp;E42&amp;"','" &amp;F42&amp;"','"&amp;G42&amp;"','"&amp;H42&amp;"','"&amp;I42&amp;"','"&amp;J42&amp;"', '"&amp;K42&amp;"','"&amp;L42&amp;"','"&amp;M42&amp;"','"&amp;N42&amp;"','"&amp;O42&amp;"','"&amp;P42&amp;"','"&amp;Q42&amp;"',"&amp;R42&amp;","&amp;S42&amp;",'"&amp;T42&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('41', 'q3_6','frmnumeric', 'tblMainQues','3.6 (wjLyb) d¬vB‡U‡c me wgwj‡q KZ¸‡jv gvwQ aiv c‡o‡Q Zvi msL¨v wjwce× Kiæb|','3.6 (record) What is the total number of flies counted on all strips?','','q3_7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V42" s="75"/>
@@ -7799,10 +7873,10 @@
         <v>88</v>
       </c>
       <c r="E43" s="63" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G43" s="66"/>
       <c r="H43" s="19" t="str">
@@ -7828,7 +7902,7 @@
         <v>22</v>
       </c>
       <c r="U43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A43&amp;"', '" &amp;B43&amp;"','" &amp;C43&amp;"', '" &amp;D43&amp;"','" &amp;E43&amp;"','" &amp;F43&amp;"','"&amp;G43&amp;"','"&amp;H43&amp;"','"&amp;I43&amp;"','"&amp;J43&amp;"', '"&amp;K43&amp;"','"&amp;L43&amp;"','"&amp;M43&amp;"','"&amp;N43&amp;"','"&amp;O43&amp;"','"&amp;P43&amp;"','"&amp;Q43&amp;"',"&amp;R43&amp;","&amp;S43&amp;",'"&amp;T43&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('42', 'q3_7','frmmultiplechoice', 'tblMainQues','3.7 (wjLyb) (hw` 3.6Gi DËi 0 bv nq) hZ cÖRvwZi gvwQ †`Lv †M‡Q Zvi msL¨v wjLybt','3.7 (record) (if 3.6 is not 0) Write the number of each species observed.','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V43" s="75"/>
@@ -7931,7 +8005,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C44" s="69" t="s">
         <v>32</v>
@@ -7964,7 +8038,7 @@
         <v>22</v>
       </c>
       <c r="U44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A44&amp;"', '" &amp;B44&amp;"','" &amp;C44&amp;"', '" &amp;D44&amp;"','" &amp;E44&amp;"','" &amp;F44&amp;"','"&amp;G44&amp;"','"&amp;H44&amp;"','"&amp;I44&amp;"','"&amp;J44&amp;"', '"&amp;K44&amp;"','"&amp;L44&amp;"','"&amp;M44&amp;"','"&amp;N44&amp;"','"&amp;O44&amp;"','"&amp;P44&amp;"','"&amp;Q44&amp;"',"&amp;R44&amp;","&amp;S44&amp;",'"&amp;T44&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('43', 'q3_7_1Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V44" s="75"/>
@@ -8067,7 +8141,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C45" s="69" t="s">
         <v>32</v>
@@ -8100,7 +8174,7 @@
         <v>22</v>
       </c>
       <c r="U45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A45&amp;"', '" &amp;B45&amp;"','" &amp;C45&amp;"', '" &amp;D45&amp;"','" &amp;E45&amp;"','" &amp;F45&amp;"','"&amp;G45&amp;"','"&amp;H45&amp;"','"&amp;I45&amp;"','"&amp;J45&amp;"', '"&amp;K45&amp;"','"&amp;L45&amp;"','"&amp;M45&amp;"','"&amp;N45&amp;"','"&amp;O45&amp;"','"&amp;P45&amp;"','"&amp;Q45&amp;"',"&amp;R45&amp;","&amp;S45&amp;",'"&amp;T45&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('44', 'q3_7_2Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V45" s="75"/>
@@ -8203,7 +8277,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C46" s="69" t="s">
         <v>32</v>
@@ -8236,7 +8310,7 @@
         <v>22</v>
       </c>
       <c r="U46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A46&amp;"', '" &amp;B46&amp;"','" &amp;C46&amp;"', '" &amp;D46&amp;"','" &amp;E46&amp;"','" &amp;F46&amp;"','"&amp;G46&amp;"','"&amp;H46&amp;"','"&amp;I46&amp;"','"&amp;J46&amp;"', '"&amp;K46&amp;"','"&amp;L46&amp;"','"&amp;M46&amp;"','"&amp;N46&amp;"','"&amp;O46&amp;"','"&amp;P46&amp;"','"&amp;Q46&amp;"',"&amp;R46&amp;","&amp;S46&amp;",'"&amp;T46&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('45', 'q3_7_3Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V46" s="75"/>
@@ -8339,7 +8413,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>32</v>
@@ -8372,7 +8446,7 @@
         <v>22</v>
       </c>
       <c r="U47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A47&amp;"', '" &amp;B47&amp;"','" &amp;C47&amp;"', '" &amp;D47&amp;"','" &amp;E47&amp;"','" &amp;F47&amp;"','"&amp;G47&amp;"','"&amp;H47&amp;"','"&amp;I47&amp;"','"&amp;J47&amp;"', '"&amp;K47&amp;"','"&amp;L47&amp;"','"&amp;M47&amp;"','"&amp;N47&amp;"','"&amp;O47&amp;"','"&amp;P47&amp;"','"&amp;Q47&amp;"',"&amp;R47&amp;","&amp;S47&amp;",'"&amp;T47&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('46', 'q3_7_4Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V47" s="75"/>
@@ -8475,7 +8549,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>32</v>
@@ -8508,7 +8582,7 @@
         <v>22</v>
       </c>
       <c r="U48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A48&amp;"', '" &amp;B48&amp;"','" &amp;C48&amp;"', '" &amp;D48&amp;"','" &amp;E48&amp;"','" &amp;F48&amp;"','"&amp;G48&amp;"','"&amp;H48&amp;"','"&amp;I48&amp;"','"&amp;J48&amp;"', '"&amp;K48&amp;"','"&amp;L48&amp;"','"&amp;M48&amp;"','"&amp;N48&amp;"','"&amp;O48&amp;"','"&amp;P48&amp;"','"&amp;Q48&amp;"',"&amp;R48&amp;","&amp;S48&amp;",'"&amp;T48&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('47', 'q3_7_77Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V48" s="75"/>
@@ -8611,7 +8685,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>32</v>
@@ -8644,7 +8718,7 @@
         <v>22</v>
       </c>
       <c r="U49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A49&amp;"', '" &amp;B49&amp;"','" &amp;C49&amp;"', '" &amp;D49&amp;"','" &amp;E49&amp;"','" &amp;F49&amp;"','"&amp;G49&amp;"','"&amp;H49&amp;"','"&amp;I49&amp;"','"&amp;J49&amp;"', '"&amp;K49&amp;"','"&amp;L49&amp;"','"&amp;M49&amp;"','"&amp;N49&amp;"','"&amp;O49&amp;"','"&amp;P49&amp;"','"&amp;Q49&amp;"',"&amp;R49&amp;","&amp;S49&amp;",'"&amp;T49&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('48', 'q3_7_6Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V49" s="75"/>
@@ -8747,7 +8821,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C50" s="69" t="s">
         <v>32</v>
@@ -8756,10 +8830,10 @@
         <v>88</v>
       </c>
       <c r="E50" s="63" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="G50" s="66"/>
       <c r="H50" s="61" t="s">
@@ -8784,7 +8858,7 @@
         <v>22</v>
       </c>
       <c r="U50" s="1" t="str">
-        <f t="shared" ref="U50:U64" si="4">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A50&amp;"', '" &amp;B50&amp;"','" &amp;C50&amp;"', '" &amp;D50&amp;"','" &amp;E50&amp;"','" &amp;F50&amp;"','"&amp;G50&amp;"','"&amp;H50&amp;"','"&amp;I50&amp;"','"&amp;J50&amp;"', '"&amp;K50&amp;"','"&amp;L50&amp;"','"&amp;M50&amp;"','"&amp;N50&amp;"','"&amp;O50&amp;"','"&amp;P50&amp;"','"&amp;Q50&amp;"',"&amp;R50&amp;","&amp;S50&amp;",'"&amp;T50&amp;"');"</f>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A50&amp;"', '" &amp;B50&amp;"','" &amp;C50&amp;"', '" &amp;D50&amp;"','" &amp;E50&amp;"','" &amp;F50&amp;"','"&amp;G50&amp;"','"&amp;H50&amp;"','"&amp;I50&amp;"','"&amp;J50&amp;"', '"&amp;K50&amp;"','"&amp;L50&amp;"','"&amp;M50&amp;"','"&amp;N50&amp;"','"&amp;O50&amp;"','"&amp;P50&amp;"','"&amp;Q50&amp;"',"&amp;R50&amp;","&amp;S50&amp;",'"&amp;T50&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('49', 'q3_7Other','frmtext', 'tblMainQues','3.7 Ab¨vb¨','3.7 Other','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V50" s="75"/>
@@ -8896,15 +8970,14 @@
         <v>88</v>
       </c>
       <c r="E51" s="63" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G51" s="23"/>
-      <c r="H51" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_9</v>
+      <c r="H51" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="I51" s="61"/>
       <c r="J51" s="66"/>
@@ -8925,7 +8998,7 @@
         <v>22</v>
       </c>
       <c r="U51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A51&amp;"', '" &amp;B51&amp;"','" &amp;C51&amp;"', '" &amp;D51&amp;"','" &amp;E51&amp;"','" &amp;F51&amp;"','"&amp;G51&amp;"','"&amp;H51&amp;"','"&amp;I51&amp;"','"&amp;J51&amp;"', '"&amp;K51&amp;"','"&amp;L51&amp;"','"&amp;M51&amp;"','"&amp;N51&amp;"','"&amp;O51&amp;"','"&amp;P51&amp;"','"&amp;Q51&amp;"',"&amp;R51&amp;","&amp;S51&amp;",'"&amp;T51&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('50', 'q3_8','frmtime', 'tblMainQues','3.8 (Lvevi ˆZwii ¯’v‡b d¬vB‡U‡c AvUK gvwQ Mbbvi mgq wjwce× Kiæb: (24 N›Uv wnmv‡e, N›Uvt wgwbU)','3.8 Record the time you counted the flies on fly tape at the food preparation area (24H format, HH:MM) ','','q3_9','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V51" s="75"/>
@@ -9037,15 +9110,14 @@
         <v>88</v>
       </c>
       <c r="E52" s="63" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="G52" s="66"/>
-      <c r="H52" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_10</v>
+      <c r="H52" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="I52" s="61"/>
       <c r="J52" s="66"/>
@@ -9066,7 +9138,7 @@
         <v>22</v>
       </c>
       <c r="U52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A52&amp;"', '" &amp;B52&amp;"','" &amp;C52&amp;"', '" &amp;D52&amp;"','" &amp;E52&amp;"','" &amp;F52&amp;"','"&amp;G52&amp;"','"&amp;H52&amp;"','"&amp;I52&amp;"','"&amp;J52&amp;"', '"&amp;K52&amp;"','"&amp;L52&amp;"','"&amp;M52&amp;"','"&amp;N52&amp;"','"&amp;O52&amp;"','"&amp;P52&amp;"','"&amp;Q52&amp;"',"&amp;R52&amp;","&amp;S52&amp;",'"&amp;T52&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('51', 'q3_9','frmsinglechoice', 'tblMainQues','3.9 Uq‡j‡Ui g‡a¨ gvwQi Kg©KvÛ ch©‡eÿY Kiæb| D³ ¯’v‡b KZ¸‡jv gvwQ gy³fv‡e wePib Ki‡Z ‡`Lv †M‡Q Zvi AvbygvwbK wnmve w`b|','3.9 Observe fly activity in the latrine area. Estimate the total number of flies seen. ','','q3_10','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V52" s="75"/>
@@ -9166,7 +9238,7 @@
     </row>
     <row r="53" spans="1:115" ht="19.5">
       <c r="A53" s="60">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="61" t="s">
         <v>43</v>
@@ -9178,15 +9250,14 @@
         <v>88</v>
       </c>
       <c r="E53" s="63" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="G53" s="66"/>
-      <c r="H53" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_11</v>
+      <c r="H53" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="I53" s="61"/>
       <c r="J53" s="66"/>
@@ -9207,8 +9278,8 @@
         <v>22</v>
       </c>
       <c r="U53" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('52', 'q3_10','frmsinglechoice', 'tblMainQues','3.10 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)','3.10 Was the fly tape hung under a roof (protected from rain)?','','q3_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A53&amp;"', '" &amp;B53&amp;"','" &amp;C53&amp;"', '" &amp;D53&amp;"','" &amp;E53&amp;"','" &amp;F53&amp;"','"&amp;G53&amp;"','"&amp;H53&amp;"','"&amp;I53&amp;"','"&amp;J53&amp;"', '"&amp;K53&amp;"','"&amp;L53&amp;"','"&amp;M53&amp;"','"&amp;N53&amp;"','"&amp;O53&amp;"','"&amp;P53&amp;"','"&amp;Q53&amp;"',"&amp;R53&amp;","&amp;S53&amp;",'"&amp;T53&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q3_10','frmsinglechoice', 'tblMainQues','3.10 (ch©‡eÿY) Uq‡j‡Ui Av‡kcv‡k evavu d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?','3.10 (obs) Was the fly tape in the latrine area tampered with or did it fall down?','','q3_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V53" s="75"/>
       <c r="W53" s="75"/>
@@ -9307,27 +9378,26 @@
     </row>
     <row r="54" spans="1:115" ht="19.5">
       <c r="A54" s="60">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="61" t="s">
-        <v>31</v>
+      <c r="C54" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="D54" s="61" t="s">
         <v>88</v>
       </c>
       <c r="E54" s="63" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="G54" s="66"/>
-      <c r="H54" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_12</v>
+      <c r="H54" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="I54" s="61"/>
       <c r="J54" s="66"/>
@@ -9348,8 +9418,8 @@
         <v>22</v>
       </c>
       <c r="U54" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q3_11','frmnumeric', 'tblMainQues','3.11 (wjwce× Kiæb) Uq‡jU †_‡K KZ K`g `y‡i (cv‡qi avc MbYv Kiæb) d¬vB‡Uc evavu wQj?','3.11 (record) How many steps are the strips hung from the latrine area?','','q3_12','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A54&amp;"', '" &amp;B54&amp;"','" &amp;C54&amp;"', '" &amp;D54&amp;"','" &amp;E54&amp;"','" &amp;F54&amp;"','"&amp;G54&amp;"','"&amp;H54&amp;"','"&amp;I54&amp;"','"&amp;J54&amp;"', '"&amp;K54&amp;"','"&amp;L54&amp;"','"&amp;M54&amp;"','"&amp;N54&amp;"','"&amp;O54&amp;"','"&amp;P54&amp;"','"&amp;Q54&amp;"',"&amp;R54&amp;","&amp;S54&amp;",'"&amp;T54&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('52', 'q3_11','frmsinglechoice', 'tblMainQues','3.11 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)','3.11 Was the fly tape hung under a roof (protected from rain)?','','q3_12','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V54" s="75"/>
       <c r="W54" s="75"/>
@@ -9448,27 +9518,26 @@
     </row>
     <row r="55" spans="1:115" ht="19.5">
       <c r="A55" s="60">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="62" t="s">
-        <v>33</v>
+      <c r="C55" s="61" t="s">
+        <v>31</v>
       </c>
       <c r="D55" s="61" t="s">
         <v>88</v>
       </c>
       <c r="E55" s="63" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="G55" s="66"/>
-      <c r="H55" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>q3_13</v>
+      <c r="H55" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="I55" s="61"/>
       <c r="J55" s="66"/>
@@ -9489,8 +9558,8 @@
         <v>22</v>
       </c>
       <c r="U55" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q3_12','frmsinglechoice', 'tblMainQues','3.12 (ch©‡eÿY) Uq‡j‡Ui Av‡kcv‡k evavu d¬vB‡UcwU ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?','3.12 (obs) Was the fly tape in the latrine area tampered with or did it fall down?','','q3_13','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A55&amp;"', '" &amp;B55&amp;"','" &amp;C55&amp;"', '" &amp;D55&amp;"','" &amp;E55&amp;"','" &amp;F55&amp;"','"&amp;G55&amp;"','"&amp;H55&amp;"','"&amp;I55&amp;"','"&amp;J55&amp;"', '"&amp;K55&amp;"','"&amp;L55&amp;"','"&amp;M55&amp;"','"&amp;N55&amp;"','"&amp;O55&amp;"','"&amp;P55&amp;"','"&amp;Q55&amp;"',"&amp;R55&amp;","&amp;S55&amp;",'"&amp;T55&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q3_12','frmnumeric', 'tblMainQues','3.12 (wjwce× Kiæb) Uq‡jU †_‡K KZ K`g `y‡i (cv‡qi avc MbYv Kiæb) d¬vB‡Uc evavu wQj?','3.12 (record) How many steps are the strips hung from the latrine area?','','q3_13','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V55" s="75"/>
       <c r="W55" s="75"/>
@@ -9601,10 +9670,10 @@
         <v>88</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="F56" s="70" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="G56" s="66"/>
       <c r="H56" s="19" t="str">
@@ -9630,7 +9699,7 @@
         <v>22</v>
       </c>
       <c r="U56" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U56:U64" si="4">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A56&amp;"', '" &amp;B56&amp;"','" &amp;C56&amp;"', '" &amp;D56&amp;"','" &amp;E56&amp;"','" &amp;F56&amp;"','"&amp;G56&amp;"','"&amp;H56&amp;"','"&amp;I56&amp;"','"&amp;J56&amp;"', '"&amp;K56&amp;"','"&amp;L56&amp;"','"&amp;M56&amp;"','"&amp;N56&amp;"','"&amp;O56&amp;"','"&amp;P56&amp;"','"&amp;Q56&amp;"',"&amp;R56&amp;","&amp;S56&amp;",'"&amp;T56&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('55', 'q3_13','frmnumeric', 'tblMainQues','3.13 (wjwce× Kiæb) (d¬vB‡U‡c me wgwj‡q KZ¸‡jv gvwQ aiv c‡o‡Q Zvi msL¨v wjwce× Kiæb|','3.13 (record) What is the total number of flies counted on all strips?','','q3_14','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V56" s="75"/>
@@ -9742,10 +9811,10 @@
         <v>88</v>
       </c>
       <c r="E57" s="63" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="G57" s="66"/>
       <c r="H57" s="19" t="str">
@@ -9874,7 +9943,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="74" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C58" s="69" t="s">
         <v>32</v>
@@ -10010,7 +10079,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="74" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C59" s="69" t="s">
         <v>32</v>
@@ -10146,7 +10215,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="74" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C60" s="69" t="s">
         <v>32</v>
@@ -10282,7 +10351,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="74" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C61" s="69" t="s">
         <v>32</v>
@@ -10418,7 +10487,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="74" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C62" s="69" t="s">
         <v>32</v>
@@ -10554,7 +10623,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="74" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C63" s="69" t="s">
         <v>32</v>
@@ -10690,7 +10759,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C64" s="69" t="s">
         <v>32</v>
@@ -10699,10 +10768,10 @@
         <v>88</v>
       </c>
       <c r="E64" s="63" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="F64" s="70" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="G64" s="66"/>
       <c r="H64" s="61" t="s">
@@ -10839,10 +10908,10 @@
         <v>88</v>
       </c>
       <c r="E65" s="63" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G65" s="66"/>
       <c r="H65" s="19" t="str">
@@ -10980,10 +11049,10 @@
         <v>88</v>
       </c>
       <c r="E66" s="63" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="G66" s="66"/>
       <c r="H66" s="19" t="s">
@@ -17830,11 +17899,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H625"/>
+  <dimension ref="A1:H631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -17912,7 +17981,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="14"/>
       <c r="H3" s="10" t="str">
-        <f t="shared" ref="H3:H66" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;C3&amp;"','" &amp;D3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
+        <f t="shared" ref="H3:H67" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;C3&amp;"','" &amp;D3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','q11_3', 'February ','‡de«yqvwi ','2','');</v>
       </c>
     </row>
@@ -18357,7 +18426,7 @@
         <v>77</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="10" t="str">
@@ -18373,10 +18442,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -18385,7 +18454,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q2_3', 'Outside: on dirt floor','N‡ii evB‡i: gqjvhy³ (gvwU) ‡g‡S‡Z ivLv','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q2_3', 'Outside: on soil floor','N‡ii evB‡i:  (gvwUi) ‡g‡S‡Z ivLv','1','');</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="30" customFormat="1" ht="19.5">
@@ -18396,10 +18465,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>139</v>
+        <v>377</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
@@ -18408,7 +18477,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q2_3', 'Outside: on concrete/cement/wood','N‡ii evB‡i:KswµU/ cvKvu/Kv‡Vi Dci ivLv','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q2_3', 'Outside: on concrete/cement/wood','N‡ii evB‡i:KswµU/ cvKvu/Kv‡Vi †g‡S‡Z ivLv','2','');</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="30" customFormat="1" ht="19.5">
@@ -18419,10 +18488,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E25" s="9">
         <v>3</v>
@@ -18442,10 +18511,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E26" s="9">
         <v>4</v>
@@ -18465,10 +18534,10 @@
         <v>28</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E27" s="9">
         <v>5</v>
@@ -18477,7 +18546,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q2_3', 'Inside: on dirt floor','N‡ii wfZ‡i: gqjvhy³ ‡g‡S‡Z ivLv','5','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q2_3', 'Inside: on soil floor','N‡ii wfZ‡i: (gvwUi) ‡g‡S‡Z ivLv','5','');</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="30" customFormat="1" ht="19.5">
@@ -18488,10 +18557,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>141</v>
+        <v>380</v>
       </c>
       <c r="E28" s="9">
         <v>6</v>
@@ -18500,7 +18569,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('27','q2_3', 'Inside: on concrete/cement/wood floor','N‡ii wfZ‡i: KswµU/ cvKvu/Kv‡Vi †d¬vi ev gvwU‡Z ivLv','6','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('27','q2_3', 'Inside: on concrete/cement/wood floor','N‡ii wfZ‡i: KswµU/ cvKvu/Kv‡Vi ‡g‡S‡Z ivLv','6','');</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="30" customFormat="1" ht="19.5">
@@ -18511,10 +18580,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E29" s="9">
         <v>7</v>
@@ -18534,10 +18603,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E30" s="9">
         <v>8</v>
@@ -18557,10 +18626,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E31" s="9">
         <v>9</v>
@@ -18580,10 +18649,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E32" s="9">
         <v>77</v>
@@ -18602,13 +18671,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E33" s="9">
         <v>1</v>
@@ -18625,13 +18694,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
@@ -18648,13 +18717,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="D35" s="97" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E35" s="9">
         <v>3</v>
@@ -18671,13 +18740,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E36" s="9">
         <v>4</v>
@@ -18694,13 +18763,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E37" s="9">
         <v>99</v>
@@ -18717,13 +18786,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
@@ -18740,13 +18809,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E39" s="9">
         <v>2</v>
@@ -18763,13 +18832,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E40" s="9">
         <v>3</v>
@@ -18786,13 +18855,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E41" s="9">
         <v>4</v>
@@ -18809,13 +18878,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D42" s="97" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E42" s="9">
         <v>99</v>
@@ -18832,13 +18901,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D43" s="97" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E43" s="9">
         <v>1</v>
@@ -18855,13 +18924,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E44" s="9">
         <v>2</v>
@@ -18873,482 +18942,477 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q2_6', 'They played with it outside this bari','Zviv †Ljbv ejwU w`‡q GB evwoi evB‡i †Ljv K‡i‡Q','2','');</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+    <row r="45" spans="1:8" s="30" customFormat="1" ht="15">
+      <c r="A45" s="7"/>
       <c r="B45" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="95" t="s">
-        <v>87</v>
+        <v>159</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" s="119" t="s">
+        <v>385</v>
       </c>
       <c r="E45" s="9">
         <v>3</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('44','q2_6', 'No','bv','3','');</v>
-      </c>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A46" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="97" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="95" t="s">
+        <v>87</v>
       </c>
       <c r="E46" s="9">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="21"/>
       <c r="H46" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('45','q2_6', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('44','q2_6', 'No','bv','4','');</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A47" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D47" s="97" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E47" s="9">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="21"/>
       <c r="H47" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('46','q2_7', 'Mostly inside the home','†ekxi fvM mgq N‡ii †fZ‡i †Ljv K‡iwQj','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('45','q2_6', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A48" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="95" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="D48" s="97" t="s">
+        <v>171</v>
       </c>
       <c r="E48" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="21"/>
       <c r="H48" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('47','q2_7', 'Mostly outside the home','†ekxi fvM mgq N‡ii evB‡i †Ljv K‡iwQj','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('46','q2_7', 'Mostly inside the home','†ekxi fvM mgq N‡ii †fZ‡i †Ljv K‡iwQj','1','');</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A49" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D49" s="95" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E49" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="21"/>
       <c r="H49" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('48','q2_7', 'Equal amounts inside/outside home','N‡ii wfZ‡i Ges evwB‡i `yB RvqMv‡ZB mgvb mgq †Ljv K‡iwQj','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('47','q2_7', 'Mostly outside the home','†ekxi fvM mgq N‡ii evB‡i †Ljv K‡iwQj','2','');</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A50" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D50" s="95" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E50" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="21"/>
       <c r="H50" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q2_7', 'Children did not play with ball','wkïiv ejwU w`‡q †Ljv K‡iwb','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('48','q2_7', 'Equal amounts inside/outside home','N‡ii wfZ‡i Ges evwB‡i `yB RvqMv‡ZB mgvb mgq †Ljv K‡iwQj','3','');</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A51" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="97" t="s">
-        <v>157</v>
-      </c>
       <c r="E51" s="9">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="21"/>
       <c r="H51" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('50','q2_7', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q2_7', 'Children did not play with ball','wkïiv ejwU w`‡q †Ljv K‡iwb','4','');</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A52" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D52" s="97" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E52" s="9">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="21"/>
       <c r="H52" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('51','q2_8', 'With hands','nv‡Z †Ljv K‡iwQj','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('50','q2_7', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A53" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E53" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="21"/>
       <c r="H53" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('52','q2_8', 'With feet','cv‡q †Ljv K‡iwQj','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('51','q2_8', 'With hands','nv‡Z †Ljv K‡iwQj','1','');</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A54" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D54" s="97" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E54" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="21"/>
       <c r="H54" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('53','q2_8', 'With hands and feet','nvZ Ges cv‡q †Ljv K‡iwQj','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('52','q2_8', 'With feet','cv‡q †Ljv K‡iwQj','2','');</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A55" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>180</v>
       </c>
       <c r="D55" s="97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E55" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="21"/>
       <c r="H55" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('54','q2_8', 'Children did not play with ball','wkïiv ejwU w`‡q †Ljv K‡iwb','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('53','q2_8', 'With hands and feet','nvZ Ges cv‡q †Ljv K‡iwQj','3','');</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A56" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E56" s="9">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="21"/>
       <c r="H56" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('55','q2_8', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('54','q2_8', 'Children did not play with ball','wkïiv ejwU w`‡q †Ljv K‡iwb','4','');</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A57" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="96" t="s">
-        <v>86</v>
+        <v>175</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="97" t="s">
+        <v>153</v>
       </c>
       <c r="E57" s="9">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="21"/>
       <c r="H57" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('56','q2_9', 'Yes','n¨vu','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('55','q2_8', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A58" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="9">
-        <v>2</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="21"/>
       <c r="H58" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('57','q2_9', 'No','bv','2','q2_12');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('56','q2_9', 'Yes','n¨vu','1','');</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A59" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="97" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="96" t="s">
+        <v>87</v>
       </c>
       <c r="E59" s="9">
-        <v>1</v>
-      </c>
-      <c r="F59" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="G59" s="21"/>
       <c r="H59" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('58','q2_10', 'Washed with water only','ïay cvwb w`‡q ay‡q‡Qb','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('57','q2_9', 'No','bv','2','q2_12');</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A60" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D60" s="97" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E60" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="21"/>
       <c r="H60" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('59','q2_10', 'Washed with water and soap','cvwb I mvevb w`‡q ay‡q‡Qb','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('58','q2_10', 'Washed with water only','ïay cvwb w`‡q ay‡q‡Qb','1','');</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A61" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="97" t="s">
-        <v>208</v>
-      </c>
       <c r="E61" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="21"/>
       <c r="H61" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('60','q2_10', 'Wiped with towel','UvIqvj w`‡q gy‡Q‡Qb','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('59','q2_10', 'Washed with water and soap','cvwb I mvevb w`‡q ay‡q‡Qb','2','');</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A62" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D62" s="97" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E62" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="21"/>
       <c r="H62" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('61','q2_10', 'Wiped on clothes','Kvco w`‡q gy‡Q‡Qb','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('60','q2_10', 'Wiped with towel','UvIqvj w`‡q gy‡Q‡Qb','3','');</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A63" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D63" s="97" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E63" s="9">
-        <v>77</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>383</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="21"/>
       <c r="H63" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('62','q2_10', 'Other (specify)','Ab¨vb¨ (wbw`©ó K‡i wjLyb)','77','q2_10Other');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('61','q2_10', 'Wiped on clothes','Kvco w`‡q gy‡Q‡Qb','4','');</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A64" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D64" s="97" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E64" s="9">
-        <v>1</v>
-      </c>
-      <c r="F64" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>361</v>
+      </c>
       <c r="G64" s="21"/>
       <c r="H64" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q2_12_1', 'Target child has played with ball','Uv‡M©U wkï ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('62','q2_10', 'Other (specify)','Ab¨vb¨ (wbw`©ó K‡i wjLyb)','77','q2_10Other');</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A65" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D65" s="97" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E65" s="9">
         <v>1</v>
@@ -19357,21 +19421,21 @@
       <c r="G65" s="21"/>
       <c r="H65" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q2_12_2', 'Other children in the household or bari have played with ball','D³ Lvbvi ev evwoi Ab¨vb¨ wkïiv ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q2_12_1', 'Target child has played with ball','Uv‡M©U wkï ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A66" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D66" s="97" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
@@ -19380,21 +19444,21 @@
       <c r="G66" s="21"/>
       <c r="H66" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q2_12_3', 'Children from other baris have played with ball','Ab¨ evwoi wkïiv ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q2_12_2', 'Other children in the household or bari have played with ball','D³ Lvbvi ev evwoi Ab¨vb¨ wkïiv ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A67" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D67" s="97" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E67" s="9">
         <v>1</v>
@@ -19402,22 +19466,22 @@
       <c r="F67" s="12"/>
       <c r="G67" s="21"/>
       <c r="H67" s="10" t="str">
-        <f t="shared" ref="H67:H118" si="1">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A67&amp;"','" &amp;B67&amp;"', '" &amp;C67&amp;"','" &amp;D67&amp;"','" &amp;E67&amp;"','"&amp;F67&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q2_12_4', 'No children have played with ball','†Kvb wkïB ejwU w`‡q †Ljv K‡iwb','1','');</v>
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q2_12_3', 'Children from other baris have played with ball','Ab¨ evwoi wkïiv ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A68" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D68" s="97" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
@@ -19425,229 +19489,229 @@
       <c r="F68" s="12"/>
       <c r="G68" s="21"/>
       <c r="H68" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('67','q2_13', 'Unused','Ae¨eüZ','1','');</v>
+        <f t="shared" ref="H68:H124" si="1">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A68&amp;"','" &amp;B68&amp;"', '" &amp;C68&amp;"','" &amp;D68&amp;"','" &amp;E68&amp;"','"&amp;F68&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q2_12_4', 'No children have played with ball','†Kvb wkïB ejwU w`‡q †Ljv K‡iwb','1','');</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A69" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D69" s="97" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E69" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="21"/>
       <c r="H69" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q2_13', 'Used, clean appearance','e¨eüZ Ges cwi®‹vi Ae¯’vq','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('67','q2_13', 'Unused','Ae¨eüZ','1','');</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A70" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D70" s="97" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E70" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="21"/>
       <c r="H70" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q2_13', 'Used, unclean appearance','e¨eüZ Ges Acwi®‹vi Ae¯’vq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q2_13', 'Used, clean appearance','e¨eüZ Ges cwi®‹vi Ae¯’vq','2','');</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A71" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" s="97" t="s">
-        <v>241</v>
-      </c>
       <c r="E71" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="21"/>
       <c r="H71" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('70','q2_13', 'Used, visibly dirty','e¨eüZ Ges,†LjbvwU‡Z `„k¨gvb gqjv','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q2_13', 'Used, unclean appearance','e¨eüZ Ges Acwi®‹vi Ae¯’vq','3','');</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A72" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D72" s="97" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E72" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="21"/>
       <c r="H72" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('71','q2_13', 'Used, visibly wet','e¨eüZ, `„k¨Z †fRv','5','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('70','q2_13', 'Used, visibly dirty','e¨eüZ Ges,†LjbvwU‡Z `„k¨gvb gqjv','4','');</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A73" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D73" s="97" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="E73" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="21"/>
       <c r="H73" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('72','q2_14', 'Good condition','fvj Ae¯’vq wQj','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('71','q2_13', 'Used, visibly wet','e¨eüZ, `„k¨Z †fRv','5','');</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A74" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D74" s="97" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E74" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="21"/>
       <c r="H74" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('73','q2_14', 'Bulging (from being stepped on, sat on, heat applied, etc)','Pvc LvIqv (cv‡qi wb‡P c‡o, e‡ji Dci emvi Kvi‡b, e‡ji Mv‡q Zvc jvMvi Kvi‡b, BZ¨vw`','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('72','q2_14', 'Good condition','fvj Ae¯’vq wQj','1','');</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A75" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D75" s="97" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E75" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="21"/>
       <c r="H75" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('74','q2_14', 'Deflated (ball has lost air)','Pzc‡m hvIqv (e‡ji wfZi †_‡K evZvm †ei n‡q hvIqvi Kvi‡b','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('73','q2_14', 'Bulging (from being stepped on, sat on, heat applied, etc)','Pvc LvIqv (cv‡qi wb‡P c‡o, e‡ji Dci emvi Kvi‡b, e‡ji Mv‡q Zvc jvMvi Kvi‡b, BZ¨vw`','2','');</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A76" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D76" s="97" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E76" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="21"/>
       <c r="H76" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('75','q2_14', 'Burst/Torn (ball has visible hole)','dz‡U †M‡Q/UyUv (e‡ji g‡a¨ MZ© †`Lv hv‡”Q)','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('74','q2_14', 'Deflated (ball has lost air)','Pzc‡m hvIqv (e‡ji wfZi †_‡K evZvm †ei n‡q hvIqvi Kvi‡b','3','');</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A77" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D77" s="97" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E77" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="21"/>
       <c r="H77" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q2_16_1', 'Yes, toy rinsed successfully','n¨vu, ‡LjbvwU mdjfv‡e/fvjfv‡e ay‡q‡Q','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('75','q2_14', 'Burst/Torn (ball has visible hole)','dz‡U †M‡Q/UyUv (e‡ji g‡a¨ MZ© †`Lv hv‡”Q)','4','');</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A78" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="D78" s="97" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E78" s="9">
         <v>1</v>
@@ -19656,21 +19720,21 @@
       <c r="G78" s="21"/>
       <c r="H78" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q2_16_2', 'No, some sample was spilled','bv, wKQz bgybv/cvwb S‡i c‡o‡Q','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q2_16_1', 'Yes, toy rinsed successfully','n¨vu, ‡LjbvwU mdjfv‡e/fvjfv‡e ay‡q‡Q','1','');</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A79" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D79" s="97" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E79" s="9">
         <v>1</v>
@@ -19679,21 +19743,21 @@
       <c r="G79" s="21"/>
       <c r="H79" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('78','q2_16_3', 'No, the inside of the bag was contaminated','bv, bgybv msMÖ‡ni e¨v‡Mi wfZiUv `~wlZ n‡q †M‡Q','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q2_16_2', 'No, some sample was spilled','bv, wKQz bgybv/cvwb S‡i c‡o‡Q','1','');</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A80" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>267</v>
+        <v>259</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="D80" s="97" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E80" s="9">
         <v>1</v>
@@ -19702,21 +19766,21 @@
       <c r="G80" s="21"/>
       <c r="H80" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('79','q2_16_4', 'No, sample not collected','bv, bgybv msMÖn Kiv nqwb','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('78','q2_16_3', 'No, the inside of the bag was contaminated','bv, bgybv msMÖ‡ni e¨v‡Mi wfZiUv `~wlZ n‡q †M‡Q','1','');</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A81" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D81" s="97" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E81" s="9">
         <v>1</v>
@@ -19725,516 +19789,483 @@
       <c r="G81" s="21"/>
       <c r="H81" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('80','q3_1', 'None','†Kvb gvwQ †`Lv hvqwb','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('79','q2_16_4', 'No, sample not collected','bv, bgybv msMÖn Kiv nqwb','1','');</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A82" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D82" s="95" t="s">
-        <v>286</v>
+        <v>272</v>
+      </c>
+      <c r="D82" s="97" t="s">
+        <v>275</v>
       </c>
       <c r="E82" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="21"/>
       <c r="H82" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('81','q3_1', 'Low (1-5)','mvgvb¨ cwigv‡b (1-5)','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('80','q3_1', 'None','†Kvb gvwQ †`Lv hvqwb','1','');</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A83" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D83" s="97" t="s">
-        <v>390</v>
+        <v>273</v>
+      </c>
+      <c r="D83" s="95" t="s">
+        <v>276</v>
       </c>
       <c r="E83" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="21"/>
       <c r="H83" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('82','q3_1', 'Moderate (6-10)','cwigv‡b gvSvwi ai‡bi (6-10)','3','');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('81','q3_1', 'Low (1-5)','mvgvb¨ cwigv‡b (1-5)','2','');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="30" customFormat="1" ht="20.25">
       <c r="A84" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D84" s="95" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="D84" s="97" t="s">
+        <v>367</v>
       </c>
       <c r="E84" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="21"/>
       <c r="H84" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('83','q3_1', 'High (&gt;10)','cwigv‡b †ewk (&gt;10)','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('82','q3_1', 'Moderate (6-10)','cwigv‡b gvSvwi ai‡bi (6-10)','3','');</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A85" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="96" t="s">
-        <v>86</v>
+        <v>36</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D85" s="95" t="s">
+        <v>277</v>
       </c>
       <c r="E85" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="21"/>
       <c r="H85" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q3_2', 'Yes','n¨vu','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('83','q3_1', 'High (&gt;10)','cwigv‡b †ewk (&gt;10)','4','');</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A86" s="7">
-        <v>85</v>
-      </c>
+      <c r="A86" s="7"/>
       <c r="B86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="96" t="s">
-        <v>87</v>
+      <c r="C86" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="97" t="s">
+        <v>282</v>
       </c>
       <c r="E86" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('85','q3_2', 'No','bv','2','');</v>
-      </c>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
+      <c r="A87" s="7"/>
       <c r="B87" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D87" s="97" t="s">
-        <v>296</v>
+        <v>279</v>
+      </c>
+      <c r="D87" s="95" t="s">
+        <v>373</v>
       </c>
       <c r="E87" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="21"/>
-      <c r="H87" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('86','q3_3', 'Walls and roof','†`qvj Ges Qv` DfqB i‡q‡Q','1','');</v>
-      </c>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A88" s="7">
-        <v>87</v>
-      </c>
+      <c r="A88" s="7"/>
       <c r="B88" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D88" s="95" t="s">
-        <v>397</v>
+        <v>280</v>
+      </c>
+      <c r="D88" s="97" t="s">
+        <v>374</v>
       </c>
       <c r="E88" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('87','q3_3', 'Walls but no roof','‡`qvj Av‡Q wKšZy Qv` bvB','2','');</v>
-      </c>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A89" s="7">
-        <v>88</v>
-      </c>
+      <c r="A89" s="7"/>
       <c r="B89" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D89" s="97" t="s">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="E89" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="21"/>
-      <c r="H89" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('88','q3_3', 'Roof but no walls','Qv` Av‡Q wKšZz ‡`qvj bvB','3','');</v>
-      </c>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A90" s="7">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D90" s="97" t="s">
-        <v>297</v>
+        <v>37</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="96" t="s">
+        <v>86</v>
       </c>
       <c r="E90" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="21"/>
       <c r="H90" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('89','q3_3', 'No roof and no walls','†`qvj Ges Qv` ‡KvbUvB bvB','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q3_2', 'Yes','n¨vu','1','');</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A91" s="7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D91" s="96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E91" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="21"/>
       <c r="H91" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('90','q3_5', 'Yes','n¨vu','1','');</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" s="96" t="s">
-        <v>87</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('85','q3_2', 'No','bv','2','');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="30" customFormat="1" ht="15">
+      <c r="A92" s="7"/>
+      <c r="B92" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="120" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="121" t="s">
+        <v>402</v>
       </c>
       <c r="E92" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="21"/>
-      <c r="H92" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('91','q3_5', 'No','bv','2','');</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="30" customFormat="1" ht="25.5">
-      <c r="A93" s="7">
-        <v>92</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D93" s="97" t="s">
-        <v>319</v>
-      </c>
-      <c r="E93" s="16">
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" s="30" customFormat="1" ht="15.75">
+      <c r="A93" s="7"/>
+      <c r="B93" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="D93" s="122" t="s">
+        <v>404</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" s="30" customFormat="1" ht="15">
+      <c r="A94" s="7"/>
+      <c r="B94" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="120" t="s">
+        <v>405</v>
+      </c>
+      <c r="D94" s="121" t="s">
+        <v>406</v>
+      </c>
+      <c r="E94" s="9">
+        <v>3</v>
+      </c>
+      <c r="F94" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="21"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A95" s="7">
+        <v>90</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="9">
         <v>1</v>
       </c>
-      <c r="F93" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('92','q3_7_1', 'Musca domestica','gym&amp;&amp;Kv W‡gw÷Kv','1','q3_7_1Num');</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="30" customFormat="1" ht="25.5">
-      <c r="A94" s="7">
-        <v>93</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D94" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E94" s="16">
-        <v>1</v>
-      </c>
-      <c r="F94" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('93','q3_7_2', 'Lesser house fly','‡jRvi nvDm d¬vB','1','q3_7_2Num');</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="30" customFormat="1" ht="25.5">
-      <c r="A95" s="7">
-        <v>94</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D95" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="E95" s="16">
-        <v>1</v>
-      </c>
-      <c r="F95" s="74" t="s">
-        <v>366</v>
-      </c>
+      <c r="F95" s="12"/>
       <c r="G95" s="21"/>
       <c r="H95" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('94','q3_7_3', 'Blow/bottle fly','‡eøv/ †evZj d¬vB','1','q3_7_3Num');</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="30" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('90','q3_4', 'Yes','n¨vu','1','');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A96" s="7">
-        <v>95</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D96" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="E96" s="16">
-        <v>1</v>
-      </c>
-      <c r="F96" s="74" t="s">
-        <v>367</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" s="9">
+        <v>2</v>
+      </c>
+      <c r="F96" s="12"/>
       <c r="G96" s="21"/>
       <c r="H96" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('95','q3_7_4', 'Flesh fly/sarcophaga','‡d¬k d¬vB/mvi‡KvdvMv','1','q3_7_4Num');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('91','q3_4', 'No','bv','2','');</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A97" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D97" s="97" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E97" s="16">
         <v>1</v>
       </c>
       <c r="F97" s="74" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('96','q3_7_77', 'Other','Ab¨vb¨','1','q3_7_77Num');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('92','q3_7_1', 'Musca domestica','gym&amp;&amp;Kv W‡gw÷Kv','1','q3_7_1Num');</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A98" s="7">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="D98" s="97" t="s">
-        <v>324</v>
-      </c>
-      <c r="E98" s="9">
+        <v>303</v>
+      </c>
+      <c r="E98" s="16">
         <v>1</v>
       </c>
       <c r="F98" s="74" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="G98" s="21"/>
       <c r="H98" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('97','q3_7_6', 'Cannot distinguish','‡Pbv hvqwb','1','q3_7_6Num');</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('93','q3_7_2', 'Lesser house fly','‡jRvi nvDm d¬vB','1','q3_7_2Num');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A99" s="7">
-        <v>98</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D99" s="97" t="s">
-        <v>285</v>
-      </c>
-      <c r="E99" s="9">
+        <v>304</v>
+      </c>
+      <c r="E99" s="16">
         <v>1</v>
       </c>
-      <c r="F99" s="12"/>
+      <c r="F99" s="74" t="s">
+        <v>344</v>
+      </c>
       <c r="G99" s="21"/>
       <c r="H99" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('98','q3_9', 'None','†Kvb gvwQ †`Lv hvqwb','1','');</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('94','q3_7_3', 'Blow/bottle fly','‡eøv/ †evZj d¬vB','1','q3_7_3Num');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A100" s="7">
-        <v>99</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>42</v>
+        <v>95</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="E100" s="9">
-        <v>2</v>
-      </c>
-      <c r="F100" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="D100" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" s="16">
+        <v>1</v>
+      </c>
+      <c r="F100" s="74" t="s">
+        <v>345</v>
+      </c>
       <c r="G100" s="21"/>
       <c r="H100" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('99','q3_9', 'Low (1-5)','mvgvb¨ cwigv‡b (1-5)','2','');</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('95','q3_7_4', 'Flesh fly/sarcophaga','‡d¬k d¬vB/mvi‡KvdvMv','1','q3_7_4Num');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A101" s="7">
-        <v>100</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D101" s="97" t="s">
-        <v>390</v>
-      </c>
-      <c r="E101" s="9">
-        <v>3</v>
-      </c>
-      <c r="F101" s="12"/>
+        <v>306</v>
+      </c>
+      <c r="E101" s="16">
+        <v>1</v>
+      </c>
+      <c r="F101" s="74" t="s">
+        <v>347</v>
+      </c>
       <c r="G101" s="21"/>
       <c r="H101" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('100','q3_9', 'Moderate (6-10)','cwigv‡b gvSvwi ai‡bi (6-10)','3','');</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('96','q3_7_77', 'Other','Ab¨vb¨','1','q3_7_77Num');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A102" s="7">
-        <v>101</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>42</v>
+        <v>97</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D102" s="95" t="s">
-        <v>287</v>
+        <v>296</v>
+      </c>
+      <c r="D102" s="97" t="s">
+        <v>307</v>
       </c>
       <c r="E102" s="9">
-        <v>4</v>
-      </c>
-      <c r="F102" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F102" s="74" t="s">
+        <v>346</v>
+      </c>
       <c r="G102" s="21"/>
       <c r="H102" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('101','q3_9', 'High (&gt;10)','cwigv‡b †ewk (&gt;10)','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('97','q3_7_6', 'Cannot distinguish','‡Pbv hvqwb','1','q3_7_6Num');</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A103" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="96" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D103" s="97" t="s">
+        <v>275</v>
       </c>
       <c r="E103" s="9">
         <v>1</v>
@@ -20243,21 +20274,21 @@
       <c r="G103" s="21"/>
       <c r="H103" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('102','q3_10', 'Yes','n¨vu','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('98','q3_9', 'None','†Kvb gvwQ †`Lv hvqwb','1','');</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A104" s="7">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" s="96" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D104" s="95" t="s">
+        <v>276</v>
       </c>
       <c r="E104" s="9">
         <v>2</v>
@@ -20266,402 +20297,474 @@
       <c r="G104" s="21"/>
       <c r="H104" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('103','q3_10', 'No','bv','2','');</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('99','q3_9', 'Low (1-5)','mvgvb¨ cwigv‡b (1-5)','2','');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="30" customFormat="1" ht="20.25">
       <c r="A105" s="7">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D105" s="96" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D105" s="97" t="s">
+        <v>367</v>
       </c>
       <c r="E105" s="9">
-        <v>1</v>
-      </c>
-      <c r="F105" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="F105" s="12"/>
       <c r="G105" s="21"/>
       <c r="H105" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('104','q3_12', 'Yes','n¨vu','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('100','q3_9', 'Moderate (6-10)','cwigv‡b gvSvwi ai‡bi (6-10)','3','');</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A106" s="7">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" s="96" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D106" s="95" t="s">
+        <v>277</v>
       </c>
       <c r="E106" s="9">
-        <v>2</v>
-      </c>
-      <c r="F106" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="F106" s="7"/>
       <c r="G106" s="21"/>
       <c r="H106" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('105','q3_12', 'No','bv','2','');</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="30" customFormat="1" ht="25.5">
-      <c r="A107" s="7">
-        <v>106</v>
-      </c>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('101','q3_9', 'High (&gt;10)','cwigv‡b †ewk (&gt;10)','4','');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="30" customFormat="1" ht="15">
+      <c r="A107" s="7"/>
       <c r="B107" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="97" t="s">
-        <v>319</v>
-      </c>
-      <c r="E107" s="16">
+        <v>42</v>
+      </c>
+      <c r="C107" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="D107" s="121" t="s">
+        <v>407</v>
+      </c>
+      <c r="E107" s="9">
+        <v>99</v>
+      </c>
+      <c r="F107" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" s="21"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8" s="30" customFormat="1" ht="15">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="120" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="E108" s="9">
         <v>1</v>
       </c>
-      <c r="F107" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="G107" s="21"/>
-      <c r="H107" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('106','q3_14_1', 'Musca domestica','gym&amp;&amp;Kv W‡gw÷Kv','1','q3_14_1Num');</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="30" customFormat="1" ht="25.5">
-      <c r="A108" s="7">
-        <v>107</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E108" s="16">
-        <v>1</v>
-      </c>
-      <c r="F108" s="74" t="s">
-        <v>371</v>
-      </c>
+      <c r="F108" s="12"/>
       <c r="G108" s="21"/>
       <c r="H108" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('107','q3_14_2', 'Lesser house fly','‡jRvi nvDm d¬vB','1','q3_14_2Num');</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="30" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('102','q3_10', 'Intact ','A¶Z Av‡Q','1','');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="30" customFormat="1" ht="15.75">
       <c r="A109" s="7">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D109" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="E109" s="16">
-        <v>1</v>
-      </c>
-      <c r="F109" s="74" t="s">
-        <v>372</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C109" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="D109" s="122" t="s">
+        <v>404</v>
+      </c>
+      <c r="E109" s="9">
+        <v>2</v>
+      </c>
+      <c r="F109" s="7"/>
       <c r="G109" s="21"/>
       <c r="H109" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('108','q3_14_3', 'Blow/bottle fly','‡eøv/ †evZj d¬vB','1','q3_14_3Num');</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="30" customFormat="1" ht="25.5">
-      <c r="A110" s="7">
-        <v>109</v>
-      </c>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('103','q3_10', 'Tampered/fell down but present ','ÿwZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wKšZz Av‡Q','2','');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="30" customFormat="1" ht="15">
+      <c r="A110" s="7"/>
       <c r="B110" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D110" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="E110" s="16">
+        <v>43</v>
+      </c>
+      <c r="C110" s="120" t="s">
+        <v>405</v>
+      </c>
+      <c r="D110" s="121" t="s">
+        <v>406</v>
+      </c>
+      <c r="E110" s="9">
+        <v>3</v>
+      </c>
+      <c r="F110" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G110" s="21"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A111" s="7">
+        <v>104</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E111" s="9">
         <v>1</v>
       </c>
-      <c r="F110" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="G110" s="21"/>
-      <c r="H110" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('109','q3_14_4', 'Flesh fly/sarcophaga','‡d¬k d¬vB/mvi‡KvdvMv','1','q3_14_4Num');</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="30" customFormat="1" ht="25.5">
-      <c r="A111" s="7">
-        <v>110</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D111" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="E111" s="16">
-        <v>1</v>
-      </c>
-      <c r="F111" s="74" t="s">
-        <v>374</v>
-      </c>
+      <c r="F111" s="17"/>
       <c r="G111" s="21"/>
       <c r="H111" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('110','q3_14_77', 'Other','Ab¨vb¨','1','q3_14_77Num');</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="30" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('104','q3_11', 'Yes','n¨vu','1','');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A112" s="7">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D112" s="97" t="s">
-        <v>324</v>
+        <v>44</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" s="96" t="s">
+        <v>87</v>
       </c>
       <c r="E112" s="9">
-        <v>1</v>
-      </c>
-      <c r="F112" s="74" t="s">
-        <v>375</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F112" s="17"/>
       <c r="G112" s="21"/>
       <c r="H112" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('111','q3_14_6', 'Cannot distinguish','‡Pbv hvqwb','1','q3_14_6Num');</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('105','q3_11', 'No','bv','2','');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A113" s="7">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="C113" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D113" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="E113" s="16">
+        <v>1</v>
+      </c>
+      <c r="F113" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="D113" s="97" t="s">
-        <v>354</v>
-      </c>
-      <c r="E113" s="9">
-        <v>1</v>
-      </c>
-      <c r="F113" s="17"/>
       <c r="G113" s="21"/>
       <c r="H113" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('112','q3_16', 'Currently raining','GLbI e„wó n‡”Q','1','');</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('106','q3_14_1', 'Musca domestica','gym&amp;&amp;Kv W‡gw÷Kv','1','q3_14_1Num');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A114" s="7">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="C114" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="E114" s="16">
+        <v>1</v>
+      </c>
+      <c r="F114" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D114" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="E114" s="9">
-        <v>2</v>
-      </c>
-      <c r="F114" s="17"/>
       <c r="G114" s="21"/>
       <c r="H114" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('113','q3_16', 'Rained earlier today','AvR mKv‡j e„wó n‡qwQj','2','');</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('107','q3_14_2', 'Lesser house fly','‡jRvi nvDm d¬vB','1','q3_14_2Num');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A115" s="7">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="C115" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="E115" s="16">
+        <v>1</v>
+      </c>
+      <c r="F115" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="D115" s="97" t="s">
-        <v>356</v>
-      </c>
-      <c r="E115" s="16">
-        <v>3</v>
-      </c>
-      <c r="F115" s="7"/>
       <c r="G115" s="21"/>
       <c r="H115" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('114','q3_16', 'Rained yesterday','MZKvj e„wó n‡qwQj','3','');</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('108','q3_14_3', 'Blow/bottle fly','‡eøv/ †evZj d¬vB','1','q3_14_3Num');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A116" s="7">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="C116" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D116" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="E116" s="16">
+        <v>1</v>
+      </c>
+      <c r="F116" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="D116" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="E116" s="9">
-        <v>4</v>
-      </c>
-      <c r="F116" s="17"/>
       <c r="G116" s="21"/>
       <c r="H116" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('115','q3_16', 'Rained the day before yesterday','MZ ciï e„wó n‡qwQj','4','');</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('109','q3_14_4', 'Flesh fly/sarcophaga','‡d¬k d¬vB/mvi‡KvdvMv','1','q3_14_4Num');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A117" s="7">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>49</v>
+        <v>354</v>
       </c>
       <c r="C117" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="E117" s="16">
+        <v>1</v>
+      </c>
+      <c r="F117" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="D117" s="97" t="s">
-        <v>358</v>
-      </c>
-      <c r="E117" s="9">
-        <v>5</v>
-      </c>
-      <c r="F117" s="17"/>
       <c r="G117" s="21"/>
       <c r="H117" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('116','q3_16', 'Rained in the last week','MZ mßv‡n e„wó n‡qwQj','5','');</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="30" customFormat="1" ht="19.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('110','q3_14_77', 'Other','Ab¨vb¨','1','q3_14_77Num');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="30" customFormat="1" ht="25.5">
       <c r="A118" s="7">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c r="C118" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="E118" s="9">
+        <v>1</v>
+      </c>
+      <c r="F118" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="97" t="s">
-        <v>359</v>
-      </c>
-      <c r="E118" s="9">
-        <v>6</v>
-      </c>
-      <c r="F118" s="17"/>
       <c r="G118" s="21"/>
       <c r="H118" s="10" t="str">
         <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('111','q3_14_6', 'Cannot distinguish','‡Pbv hvqwb','1','q3_14_6Num');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A119" s="7">
+        <v>112</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D119" s="97" t="s">
+        <v>332</v>
+      </c>
+      <c r="E119" s="9">
+        <v>1</v>
+      </c>
+      <c r="F119" s="17"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('112','q3_16', 'Currently raining','GLbI e„wó n‡”Q','1','');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A120" s="7">
+        <v>113</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D120" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="E120" s="9">
+        <v>2</v>
+      </c>
+      <c r="F120" s="17"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('113','q3_16', 'Rained earlier today','AvR mKv‡j e„wó n‡qwQj','2','');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A121" s="7">
+        <v>114</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D121" s="97" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121" s="16">
+        <v>3</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('114','q3_16', 'Rained yesterday','MZKvj e„wó n‡qwQj','3','');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A122" s="7">
+        <v>115</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D122" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="E122" s="9">
+        <v>4</v>
+      </c>
+      <c r="F122" s="17"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('115','q3_16', 'Rained the day before yesterday','MZ ciï e„wó n‡qwQj','4','');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A123" s="7">
+        <v>116</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D123" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="E123" s="9">
+        <v>5</v>
+      </c>
+      <c r="F123" s="17"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('116','q3_16', 'Rained in the last week','MZ mßv‡n e„wó n‡qwQj','5','');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A124" s="7">
+        <v>117</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D124" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="E124" s="9">
+        <v>6</v>
+      </c>
+      <c r="F124" s="17"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('117','q3_16', 'Did not rain in the last week','MZ mßv‡ni g‡a¨ e„wó nqwb','6','');</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A119" s="26"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="98"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="29"/>
-    </row>
-    <row r="120" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A120" s="26"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="98"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="29"/>
-    </row>
-    <row r="121" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A121" s="26"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="99"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="29"/>
-    </row>
-    <row r="122" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A122" s="26"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="29"/>
-    </row>
-    <row r="123" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A123" s="26"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="98"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="29"/>
-    </row>
-    <row r="124" spans="1:8" s="30" customFormat="1" ht="19.5">
-      <c r="A124" s="26"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="98"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="29"/>
     </row>
     <row r="125" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A125" s="26"/>
@@ -20686,18 +20789,18 @@
     <row r="127" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A127" s="26"/>
       <c r="B127" s="33"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="98"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="35"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="26"/>
       <c r="G127" s="32"/>
       <c r="H127" s="29"/>
     </row>
     <row r="128" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A128" s="26"/>
       <c r="B128" s="33"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="98"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="99"/>
       <c r="E128" s="28"/>
       <c r="F128" s="35"/>
       <c r="G128" s="32"/>
@@ -20718,36 +20821,36 @@
       <c r="B130" s="33"/>
       <c r="C130" s="36"/>
       <c r="D130" s="98"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="35"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="26"/>
       <c r="G130" s="32"/>
       <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A131" s="26"/>
       <c r="B131" s="33"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="26"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="35"/>
       <c r="G131" s="32"/>
       <c r="H131" s="29"/>
     </row>
     <row r="132" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A132" s="26"/>
       <c r="B132" s="33"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="100"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="98"/>
       <c r="E132" s="28"/>
       <c r="F132" s="35"/>
       <c r="G132" s="32"/>
       <c r="H132" s="29"/>
     </row>
-    <row r="133" spans="1:8" s="30" customFormat="1">
+    <row r="133" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A133" s="26"/>
       <c r="B133" s="33"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="101"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="98"/>
       <c r="E133" s="28"/>
       <c r="F133" s="35"/>
       <c r="G133" s="32"/>
@@ -20766,48 +20869,48 @@
     <row r="135" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A135" s="26"/>
       <c r="B135" s="33"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="99"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="26"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="35"/>
       <c r="G135" s="32"/>
       <c r="H135" s="29"/>
     </row>
     <row r="136" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A136" s="26"/>
       <c r="B136" s="33"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="99"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="98"/>
       <c r="E136" s="28"/>
       <c r="F136" s="35"/>
       <c r="G136" s="32"/>
       <c r="H136" s="29"/>
     </row>
-    <row r="137" spans="1:8" s="30" customFormat="1" ht="19.5">
+    <row r="137" spans="1:8" s="30" customFormat="1" ht="20.25">
       <c r="A137" s="26"/>
       <c r="B137" s="33"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="98"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="35"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="100"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="26"/>
       <c r="G137" s="32"/>
       <c r="H137" s="29"/>
     </row>
-    <row r="138" spans="1:8" s="30" customFormat="1" ht="19.5">
+    <row r="138" spans="1:8" s="30" customFormat="1" ht="20.25">
       <c r="A138" s="26"/>
       <c r="B138" s="33"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="99"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="26"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="100"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="35"/>
       <c r="G138" s="32"/>
       <c r="H138" s="29"/>
     </row>
-    <row r="139" spans="1:8" s="30" customFormat="1" ht="19.5">
+    <row r="139" spans="1:8" s="30" customFormat="1">
       <c r="A139" s="26"/>
       <c r="B139" s="33"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="99"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="101"/>
       <c r="E139" s="28"/>
       <c r="F139" s="35"/>
       <c r="G139" s="32"/>
@@ -20816,38 +20919,38 @@
     <row r="140" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A140" s="26"/>
       <c r="B140" s="33"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="99"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="27"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="98"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="35"/>
       <c r="G140" s="32"/>
       <c r="H140" s="29"/>
     </row>
     <row r="141" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A141" s="26"/>
       <c r="B141" s="33"/>
-      <c r="C141" s="26"/>
+      <c r="C141" s="37"/>
       <c r="D141" s="99"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="35"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="26"/>
       <c r="G141" s="32"/>
       <c r="H141" s="29"/>
     </row>
     <row r="142" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A142" s="26"/>
       <c r="B142" s="33"/>
-      <c r="C142" s="37"/>
+      <c r="C142" s="26"/>
       <c r="D142" s="99"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="26"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="35"/>
       <c r="G142" s="32"/>
       <c r="H142" s="29"/>
     </row>
     <row r="143" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A143" s="26"/>
       <c r="B143" s="33"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="99"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="98"/>
       <c r="E143" s="28"/>
       <c r="F143" s="35"/>
       <c r="G143" s="32"/>
@@ -20856,20 +20959,20 @@
     <row r="144" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A144" s="26"/>
       <c r="B144" s="33"/>
-      <c r="C144" s="26"/>
+      <c r="C144" s="37"/>
       <c r="D144" s="99"/>
       <c r="E144" s="34"/>
-      <c r="F144" s="35"/>
+      <c r="F144" s="26"/>
       <c r="G144" s="32"/>
       <c r="H144" s="29"/>
     </row>
     <row r="145" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A145" s="26"/>
       <c r="B145" s="33"/>
-      <c r="C145" s="37"/>
+      <c r="C145" s="26"/>
       <c r="D145" s="99"/>
       <c r="E145" s="28"/>
-      <c r="F145" s="26"/>
+      <c r="F145" s="35"/>
       <c r="G145" s="32"/>
       <c r="H145" s="29"/>
     </row>
@@ -20879,7 +20982,7 @@
       <c r="C146" s="26"/>
       <c r="D146" s="99"/>
       <c r="E146" s="34"/>
-      <c r="F146" s="35"/>
+      <c r="F146" s="27"/>
       <c r="G146" s="32"/>
       <c r="H146" s="29"/>
     </row>
@@ -20897,7 +21000,7 @@
       <c r="A148" s="26"/>
       <c r="B148" s="33"/>
       <c r="C148" s="37"/>
-      <c r="D148" s="102"/>
+      <c r="D148" s="99"/>
       <c r="E148" s="34"/>
       <c r="F148" s="26"/>
       <c r="G148" s="32"/>
@@ -20909,37 +21012,37 @@
       <c r="C149" s="26"/>
       <c r="D149" s="99"/>
       <c r="E149" s="28"/>
-      <c r="F149" s="27"/>
+      <c r="F149" s="35"/>
       <c r="G149" s="32"/>
       <c r="H149" s="29"/>
     </row>
     <row r="150" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A150" s="26"/>
       <c r="B150" s="33"/>
-      <c r="C150" s="37"/>
+      <c r="C150" s="26"/>
       <c r="D150" s="99"/>
       <c r="E150" s="34"/>
-      <c r="F150" s="26"/>
+      <c r="F150" s="35"/>
       <c r="G150" s="32"/>
       <c r="H150" s="29"/>
     </row>
     <row r="151" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A151" s="26"/>
       <c r="B151" s="33"/>
-      <c r="C151" s="26"/>
+      <c r="C151" s="37"/>
       <c r="D151" s="99"/>
       <c r="E151" s="28"/>
-      <c r="F151" s="27"/>
+      <c r="F151" s="26"/>
       <c r="G151" s="32"/>
       <c r="H151" s="29"/>
     </row>
     <row r="152" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A152" s="26"/>
       <c r="B152" s="33"/>
-      <c r="C152" s="37"/>
+      <c r="C152" s="26"/>
       <c r="D152" s="99"/>
       <c r="E152" s="34"/>
-      <c r="F152" s="26"/>
+      <c r="F152" s="35"/>
       <c r="G152" s="32"/>
       <c r="H152" s="29"/>
     </row>
@@ -20949,7 +21052,7 @@
       <c r="C153" s="26"/>
       <c r="D153" s="99"/>
       <c r="E153" s="28"/>
-      <c r="F153" s="27"/>
+      <c r="F153" s="35"/>
       <c r="G153" s="32"/>
       <c r="H153" s="29"/>
     </row>
@@ -20957,9 +21060,9 @@
       <c r="A154" s="26"/>
       <c r="B154" s="33"/>
       <c r="C154" s="37"/>
-      <c r="D154" s="99"/>
+      <c r="D154" s="102"/>
       <c r="E154" s="34"/>
-      <c r="F154" s="38"/>
+      <c r="F154" s="26"/>
       <c r="G154" s="32"/>
       <c r="H154" s="29"/>
     </row>
@@ -20969,37 +21072,37 @@
       <c r="C155" s="26"/>
       <c r="D155" s="99"/>
       <c r="E155" s="28"/>
-      <c r="F155" s="35"/>
+      <c r="F155" s="27"/>
       <c r="G155" s="32"/>
       <c r="H155" s="29"/>
     </row>
     <row r="156" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A156" s="26"/>
       <c r="B156" s="33"/>
-      <c r="C156" s="26"/>
+      <c r="C156" s="37"/>
       <c r="D156" s="99"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="35"/>
+      <c r="E156" s="34"/>
+      <c r="F156" s="26"/>
       <c r="G156" s="32"/>
       <c r="H156" s="29"/>
     </row>
     <row r="157" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A157" s="26"/>
       <c r="B157" s="33"/>
-      <c r="C157" s="37"/>
+      <c r="C157" s="26"/>
       <c r="D157" s="99"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="35"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="27"/>
       <c r="G157" s="32"/>
       <c r="H157" s="29"/>
     </row>
     <row r="158" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A158" s="26"/>
       <c r="B158" s="33"/>
-      <c r="C158" s="26"/>
+      <c r="C158" s="37"/>
       <c r="D158" s="99"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="35"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="26"/>
       <c r="G158" s="32"/>
       <c r="H158" s="29"/>
     </row>
@@ -21009,7 +21112,7 @@
       <c r="C159" s="26"/>
       <c r="D159" s="99"/>
       <c r="E159" s="28"/>
-      <c r="F159" s="35"/>
+      <c r="F159" s="27"/>
       <c r="G159" s="32"/>
       <c r="H159" s="29"/>
     </row>
@@ -21019,7 +21122,7 @@
       <c r="C160" s="37"/>
       <c r="D160" s="99"/>
       <c r="E160" s="34"/>
-      <c r="F160" s="35"/>
+      <c r="F160" s="38"/>
       <c r="G160" s="32"/>
       <c r="H160" s="29"/>
     </row>
@@ -21069,16 +21172,16 @@
       <c r="C165" s="26"/>
       <c r="D165" s="99"/>
       <c r="E165" s="28"/>
-      <c r="F165" s="27"/>
+      <c r="F165" s="35"/>
       <c r="G165" s="32"/>
       <c r="H165" s="29"/>
     </row>
     <row r="166" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A166" s="26"/>
       <c r="B166" s="33"/>
-      <c r="C166" s="26"/>
+      <c r="C166" s="37"/>
       <c r="D166" s="99"/>
-      <c r="E166" s="28"/>
+      <c r="E166" s="34"/>
       <c r="F166" s="35"/>
       <c r="G166" s="32"/>
       <c r="H166" s="29"/>
@@ -21086,10 +21189,10 @@
     <row r="167" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A167" s="26"/>
       <c r="B167" s="33"/>
-      <c r="C167" s="37"/>
+      <c r="C167" s="26"/>
       <c r="D167" s="99"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="26"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="35"/>
       <c r="G167" s="32"/>
       <c r="H167" s="29"/>
     </row>
@@ -21099,7 +21202,7 @@
       <c r="C168" s="26"/>
       <c r="D168" s="99"/>
       <c r="E168" s="28"/>
-      <c r="F168" s="27"/>
+      <c r="F168" s="35"/>
       <c r="G168" s="32"/>
       <c r="H168" s="29"/>
     </row>
@@ -21109,17 +21212,17 @@
       <c r="C169" s="37"/>
       <c r="D169" s="99"/>
       <c r="E169" s="34"/>
-      <c r="F169" s="27"/>
+      <c r="F169" s="35"/>
       <c r="G169" s="32"/>
       <c r="H169" s="29"/>
     </row>
     <row r="170" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A170" s="26"/>
       <c r="B170" s="33"/>
-      <c r="C170" s="37"/>
+      <c r="C170" s="26"/>
       <c r="D170" s="99"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="26"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="35"/>
       <c r="G170" s="32"/>
       <c r="H170" s="29"/>
     </row>
@@ -21136,39 +21239,39 @@
     <row r="172" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A172" s="26"/>
       <c r="B172" s="33"/>
-      <c r="C172" s="37"/>
+      <c r="C172" s="26"/>
       <c r="D172" s="99"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="26"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="35"/>
       <c r="G172" s="32"/>
       <c r="H172" s="29"/>
     </row>
     <row r="173" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A173" s="26"/>
       <c r="B173" s="33"/>
-      <c r="C173" s="26"/>
+      <c r="C173" s="37"/>
       <c r="D173" s="99"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="27"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="26"/>
       <c r="G173" s="32"/>
       <c r="H173" s="29"/>
     </row>
     <row r="174" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A174" s="26"/>
       <c r="B174" s="33"/>
-      <c r="C174" s="37"/>
+      <c r="C174" s="26"/>
       <c r="D174" s="99"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="26"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="27"/>
       <c r="G174" s="32"/>
       <c r="H174" s="29"/>
     </row>
     <row r="175" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A175" s="26"/>
       <c r="B175" s="33"/>
-      <c r="C175" s="26"/>
+      <c r="C175" s="37"/>
       <c r="D175" s="99"/>
-      <c r="E175" s="28"/>
+      <c r="E175" s="34"/>
       <c r="F175" s="27"/>
       <c r="G175" s="32"/>
       <c r="H175" s="29"/>
@@ -21196,20 +21299,20 @@
     <row r="178" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A178" s="26"/>
       <c r="B178" s="33"/>
-      <c r="C178" s="26"/>
+      <c r="C178" s="37"/>
       <c r="D178" s="99"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="27"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="26"/>
       <c r="G178" s="32"/>
       <c r="H178" s="29"/>
     </row>
     <row r="179" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A179" s="26"/>
       <c r="B179" s="33"/>
-      <c r="C179" s="37"/>
+      <c r="C179" s="26"/>
       <c r="D179" s="99"/>
-      <c r="E179" s="34"/>
-      <c r="F179" s="26"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="27"/>
       <c r="G179" s="32"/>
       <c r="H179" s="29"/>
     </row>
@@ -21236,20 +21339,20 @@
     <row r="182" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A182" s="26"/>
       <c r="B182" s="33"/>
-      <c r="C182" s="26"/>
+      <c r="C182" s="37"/>
       <c r="D182" s="99"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="27"/>
+      <c r="E182" s="34"/>
+      <c r="F182" s="26"/>
       <c r="G182" s="32"/>
       <c r="H182" s="29"/>
     </row>
     <row r="183" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A183" s="26"/>
       <c r="B183" s="33"/>
-      <c r="C183" s="37"/>
+      <c r="C183" s="26"/>
       <c r="D183" s="99"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="26"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="27"/>
       <c r="G183" s="32"/>
       <c r="H183" s="29"/>
     </row>
@@ -21266,10 +21369,10 @@
     <row r="185" spans="1:8" s="30" customFormat="1" ht="19.5">
       <c r="A185" s="26"/>
       <c r="B185" s="33"/>
-      <c r="C185" s="26"/>
+      <c r="C185" s="37"/>
       <c r="D185" s="99"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="27"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="26"/>
       <c r="G185" s="32"/>
       <c r="H185" s="29"/>
     </row>
@@ -21363,65 +21466,65 @@
       <c r="G194" s="32"/>
       <c r="H194" s="29"/>
     </row>
-    <row r="195" spans="1:8" ht="19.5">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="103"/>
-      <c r="E195" s="39"/>
-      <c r="F195" s="39"/>
-      <c r="G195" s="39"/>
-      <c r="H195" s="41"/>
-    </row>
-    <row r="196" spans="1:8" ht="19.5">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="103"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="39"/>
-      <c r="H196" s="41"/>
-    </row>
-    <row r="197" spans="1:8" ht="19.5">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="103"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="39"/>
-      <c r="G197" s="39"/>
-      <c r="H197" s="41"/>
-    </row>
-    <row r="198" spans="1:8" ht="19.5">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="103"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
-      <c r="G198" s="39"/>
-      <c r="H198" s="41"/>
-    </row>
-    <row r="199" spans="1:8" ht="19.5">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="103"/>
-      <c r="E199" s="39"/>
-      <c r="F199" s="39"/>
-      <c r="G199" s="39"/>
-      <c r="H199" s="41"/>
-    </row>
-    <row r="200" spans="1:8" ht="19.5">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="103"/>
-      <c r="E200" s="39"/>
-      <c r="F200" s="39"/>
-      <c r="G200" s="39"/>
-      <c r="H200" s="41"/>
+    <row r="195" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A195" s="26"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="99"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="29"/>
+    </row>
+    <row r="196" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A196" s="26"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="99"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="29"/>
+    </row>
+    <row r="197" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A197" s="26"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="99"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="29"/>
+    </row>
+    <row r="198" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A198" s="26"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="99"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="29"/>
+    </row>
+    <row r="199" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A199" s="26"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="99"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="29"/>
+    </row>
+    <row r="200" spans="1:8" s="30" customFormat="1" ht="19.5">
+      <c r="A200" s="26"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="99"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="29"/>
     </row>
     <row r="201" spans="1:8" ht="19.5">
       <c r="A201" s="39"/>
@@ -21464,6 +21567,7 @@
       <c r="H204" s="41"/>
     </row>
     <row r="205" spans="1:8" ht="19.5">
+      <c r="A205" s="39"/>
       <c r="B205" s="39"/>
       <c r="C205" s="40"/>
       <c r="D205" s="103"/>
@@ -21473,6 +21577,7 @@
       <c r="H205" s="41"/>
     </row>
     <row r="206" spans="1:8" ht="19.5">
+      <c r="A206" s="39"/>
       <c r="B206" s="39"/>
       <c r="C206" s="40"/>
       <c r="D206" s="103"/>
@@ -21482,15 +21587,17 @@
       <c r="H206" s="41"/>
     </row>
     <row r="207" spans="1:8" ht="19.5">
+      <c r="A207" s="39"/>
       <c r="B207" s="39"/>
-      <c r="C207" s="42"/>
-      <c r="D207" s="104"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="103"/>
       <c r="E207" s="39"/>
       <c r="F207" s="39"/>
       <c r="G207" s="39"/>
       <c r="H207" s="41"/>
     </row>
     <row r="208" spans="1:8" ht="19.5">
+      <c r="A208" s="39"/>
       <c r="B208" s="39"/>
       <c r="C208" s="40"/>
       <c r="D208" s="103"/>
@@ -21499,79 +21606,81 @@
       <c r="G208" s="39"/>
       <c r="H208" s="41"/>
     </row>
-    <row r="209" spans="2:8" ht="19.5">
+    <row r="209" spans="1:8" ht="19.5">
+      <c r="A209" s="39"/>
       <c r="B209" s="39"/>
-      <c r="C209" s="42"/>
-      <c r="D209" s="104"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="103"/>
       <c r="E209" s="39"/>
       <c r="F209" s="39"/>
       <c r="G209" s="39"/>
       <c r="H209" s="41"/>
     </row>
-    <row r="210" spans="2:8" ht="19.5">
-      <c r="B210" s="43"/>
-      <c r="C210" s="44"/>
+    <row r="210" spans="1:8" ht="19.5">
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="40"/>
       <c r="D210" s="103"/>
-      <c r="E210" s="45"/>
-      <c r="F210" s="42"/>
+      <c r="E210" s="39"/>
+      <c r="F210" s="39"/>
       <c r="G210" s="39"/>
       <c r="H210" s="41"/>
     </row>
-    <row r="211" spans="2:8" ht="19.5">
-      <c r="B211" s="43"/>
-      <c r="C211" s="44"/>
+    <row r="211" spans="1:8" ht="19.5">
+      <c r="B211" s="39"/>
+      <c r="C211" s="40"/>
       <c r="D211" s="103"/>
-      <c r="E211" s="45"/>
-      <c r="F211" s="42"/>
+      <c r="E211" s="39"/>
+      <c r="F211" s="39"/>
       <c r="G211" s="39"/>
       <c r="H211" s="41"/>
     </row>
-    <row r="212" spans="2:8" ht="19.5">
-      <c r="B212" s="43"/>
-      <c r="C212" s="44"/>
+    <row r="212" spans="1:8" ht="19.5">
+      <c r="B212" s="39"/>
+      <c r="C212" s="40"/>
       <c r="D212" s="103"/>
       <c r="E212" s="39"/>
-      <c r="F212" s="42"/>
+      <c r="F212" s="39"/>
       <c r="G212" s="39"/>
       <c r="H212" s="41"/>
     </row>
-    <row r="213" spans="2:8" ht="19.5">
-      <c r="B213" s="43"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="103"/>
+    <row r="213" spans="1:8" ht="19.5">
+      <c r="B213" s="39"/>
+      <c r="C213" s="42"/>
+      <c r="D213" s="104"/>
       <c r="E213" s="39"/>
-      <c r="F213" s="42"/>
+      <c r="F213" s="39"/>
       <c r="G213" s="39"/>
       <c r="H213" s="41"/>
     </row>
-    <row r="214" spans="2:8" ht="19.5">
-      <c r="B214" s="43"/>
-      <c r="C214" s="46"/>
+    <row r="214" spans="1:8" ht="19.5">
+      <c r="B214" s="39"/>
+      <c r="C214" s="40"/>
       <c r="D214" s="103"/>
-      <c r="E214" s="45"/>
-      <c r="F214" s="42"/>
+      <c r="E214" s="39"/>
+      <c r="F214" s="39"/>
       <c r="G214" s="39"/>
       <c r="H214" s="41"/>
     </row>
-    <row r="215" spans="2:8" ht="19.5">
-      <c r="B215" s="43"/>
-      <c r="C215" s="44"/>
-      <c r="D215" s="103"/>
-      <c r="E215" s="45"/>
-      <c r="F215" s="42"/>
+    <row r="215" spans="1:8" ht="19.5">
+      <c r="B215" s="39"/>
+      <c r="C215" s="42"/>
+      <c r="D215" s="104"/>
+      <c r="E215" s="39"/>
+      <c r="F215" s="39"/>
       <c r="G215" s="39"/>
       <c r="H215" s="41"/>
     </row>
-    <row r="216" spans="2:8" ht="19.5">
+    <row r="216" spans="1:8" ht="19.5">
       <c r="B216" s="43"/>
       <c r="C216" s="44"/>
-      <c r="D216" s="105"/>
+      <c r="D216" s="103"/>
       <c r="E216" s="45"/>
       <c r="F216" s="42"/>
       <c r="G216" s="39"/>
       <c r="H216" s="41"/>
     </row>
-    <row r="217" spans="2:8" ht="19.5">
+    <row r="217" spans="1:8" ht="19.5">
       <c r="B217" s="43"/>
       <c r="C217" s="44"/>
       <c r="D217" s="103"/>
@@ -21580,66 +21689,66 @@
       <c r="G217" s="39"/>
       <c r="H217" s="41"/>
     </row>
-    <row r="218" spans="2:8" ht="19.5">
+    <row r="218" spans="1:8" ht="19.5">
       <c r="B218" s="43"/>
       <c r="C218" s="44"/>
       <c r="D218" s="103"/>
-      <c r="E218" s="45"/>
+      <c r="E218" s="39"/>
       <c r="F218" s="42"/>
       <c r="G218" s="39"/>
       <c r="H218" s="41"/>
     </row>
-    <row r="219" spans="2:8" ht="19.5">
+    <row r="219" spans="1:8" ht="19.5">
       <c r="B219" s="43"/>
       <c r="C219" s="44"/>
       <c r="D219" s="103"/>
-      <c r="E219" s="45"/>
+      <c r="E219" s="39"/>
       <c r="F219" s="42"/>
       <c r="G219" s="39"/>
       <c r="H219" s="41"/>
     </row>
-    <row r="220" spans="2:8" ht="19.5">
+    <row r="220" spans="1:8" ht="19.5">
       <c r="B220" s="43"/>
-      <c r="C220" s="40"/>
+      <c r="C220" s="46"/>
       <c r="D220" s="103"/>
-      <c r="E220" s="39"/>
-      <c r="F220" s="39"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="42"/>
       <c r="G220" s="39"/>
       <c r="H220" s="41"/>
     </row>
-    <row r="221" spans="2:8" ht="19.5">
+    <row r="221" spans="1:8" ht="19.5">
       <c r="B221" s="43"/>
-      <c r="C221" s="42"/>
-      <c r="D221" s="104"/>
-      <c r="E221" s="39"/>
-      <c r="F221" s="47"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="103"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="42"/>
       <c r="G221" s="39"/>
       <c r="H221" s="41"/>
     </row>
-    <row r="222" spans="2:8" ht="19.5">
+    <row r="222" spans="1:8" ht="19.5">
       <c r="B222" s="43"/>
       <c r="C222" s="44"/>
-      <c r="D222" s="103"/>
+      <c r="D222" s="105"/>
       <c r="E222" s="45"/>
       <c r="F222" s="42"/>
       <c r="G222" s="39"/>
       <c r="H222" s="41"/>
     </row>
-    <row r="223" spans="2:8" ht="19.5">
+    <row r="223" spans="1:8" ht="19.5">
       <c r="B223" s="43"/>
       <c r="C223" s="44"/>
       <c r="D223" s="103"/>
       <c r="E223" s="45"/>
-      <c r="F223" s="39"/>
+      <c r="F223" s="42"/>
       <c r="G223" s="39"/>
       <c r="H223" s="41"/>
     </row>
-    <row r="224" spans="2:8" ht="19.5">
+    <row r="224" spans="1:8" ht="19.5">
       <c r="B224" s="43"/>
       <c r="C224" s="44"/>
       <c r="D224" s="103"/>
-      <c r="E224" s="39"/>
-      <c r="F224" s="39"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="42"/>
       <c r="G224" s="39"/>
       <c r="H224" s="41"/>
     </row>
@@ -21647,35 +21756,35 @@
       <c r="B225" s="43"/>
       <c r="C225" s="44"/>
       <c r="D225" s="103"/>
-      <c r="E225" s="39"/>
-      <c r="F225" s="39"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="42"/>
       <c r="G225" s="39"/>
       <c r="H225" s="41"/>
     </row>
     <row r="226" spans="2:8" ht="19.5">
       <c r="B226" s="43"/>
-      <c r="C226" s="46"/>
+      <c r="C226" s="40"/>
       <c r="D226" s="103"/>
-      <c r="E226" s="45"/>
+      <c r="E226" s="39"/>
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
       <c r="H226" s="41"/>
     </row>
     <row r="227" spans="2:8" ht="19.5">
       <c r="B227" s="43"/>
-      <c r="C227" s="44"/>
-      <c r="D227" s="103"/>
-      <c r="E227" s="45"/>
-      <c r="F227" s="39"/>
+      <c r="C227" s="42"/>
+      <c r="D227" s="104"/>
+      <c r="E227" s="39"/>
+      <c r="F227" s="47"/>
       <c r="G227" s="39"/>
       <c r="H227" s="41"/>
     </row>
     <row r="228" spans="2:8" ht="19.5">
       <c r="B228" s="43"/>
       <c r="C228" s="44"/>
-      <c r="D228" s="105"/>
+      <c r="D228" s="103"/>
       <c r="E228" s="45"/>
-      <c r="F228" s="39"/>
+      <c r="F228" s="42"/>
       <c r="G228" s="39"/>
       <c r="H228" s="41"/>
     </row>
@@ -21684,7 +21793,7 @@
       <c r="C229" s="44"/>
       <c r="D229" s="103"/>
       <c r="E229" s="45"/>
-      <c r="F229" s="48"/>
+      <c r="F229" s="39"/>
       <c r="G229" s="39"/>
       <c r="H229" s="41"/>
     </row>
@@ -21692,7 +21801,7 @@
       <c r="B230" s="43"/>
       <c r="C230" s="44"/>
       <c r="D230" s="103"/>
-      <c r="E230" s="45"/>
+      <c r="E230" s="39"/>
       <c r="F230" s="39"/>
       <c r="G230" s="39"/>
       <c r="H230" s="41"/>
@@ -21701,25 +21810,25 @@
       <c r="B231" s="43"/>
       <c r="C231" s="44"/>
       <c r="D231" s="103"/>
-      <c r="E231" s="45"/>
+      <c r="E231" s="39"/>
       <c r="F231" s="39"/>
       <c r="G231" s="39"/>
       <c r="H231" s="41"/>
     </row>
     <row r="232" spans="2:8" ht="19.5">
       <c r="B232" s="43"/>
-      <c r="C232" s="40"/>
+      <c r="C232" s="46"/>
       <c r="D232" s="103"/>
-      <c r="E232" s="39"/>
+      <c r="E232" s="45"/>
       <c r="F232" s="39"/>
       <c r="G232" s="39"/>
       <c r="H232" s="41"/>
     </row>
     <row r="233" spans="2:8" ht="19.5">
       <c r="B233" s="43"/>
-      <c r="C233" s="42"/>
-      <c r="D233" s="104"/>
-      <c r="E233" s="39"/>
+      <c r="C233" s="44"/>
+      <c r="D233" s="103"/>
+      <c r="E233" s="45"/>
       <c r="F233" s="39"/>
       <c r="G233" s="39"/>
       <c r="H233" s="41"/>
@@ -21727,7 +21836,7 @@
     <row r="234" spans="2:8" ht="19.5">
       <c r="B234" s="43"/>
       <c r="C234" s="44"/>
-      <c r="D234" s="103"/>
+      <c r="D234" s="105"/>
       <c r="E234" s="45"/>
       <c r="F234" s="39"/>
       <c r="G234" s="39"/>
@@ -21738,7 +21847,7 @@
       <c r="C235" s="44"/>
       <c r="D235" s="103"/>
       <c r="E235" s="45"/>
-      <c r="F235" s="39"/>
+      <c r="F235" s="48"/>
       <c r="G235" s="39"/>
       <c r="H235" s="41"/>
     </row>
@@ -21746,7 +21855,7 @@
       <c r="B236" s="43"/>
       <c r="C236" s="44"/>
       <c r="D236" s="103"/>
-      <c r="E236" s="39"/>
+      <c r="E236" s="45"/>
       <c r="F236" s="39"/>
       <c r="G236" s="39"/>
       <c r="H236" s="41"/>
@@ -21755,25 +21864,25 @@
       <c r="B237" s="43"/>
       <c r="C237" s="44"/>
       <c r="D237" s="103"/>
-      <c r="E237" s="39"/>
+      <c r="E237" s="45"/>
       <c r="F237" s="39"/>
       <c r="G237" s="39"/>
       <c r="H237" s="41"/>
     </row>
     <row r="238" spans="2:8" ht="19.5">
       <c r="B238" s="43"/>
-      <c r="C238" s="46"/>
+      <c r="C238" s="40"/>
       <c r="D238" s="103"/>
-      <c r="E238" s="45"/>
+      <c r="E238" s="39"/>
       <c r="F238" s="39"/>
       <c r="G238" s="39"/>
       <c r="H238" s="41"/>
     </row>
     <row r="239" spans="2:8" ht="19.5">
       <c r="B239" s="43"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="103"/>
-      <c r="E239" s="45"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="104"/>
+      <c r="E239" s="39"/>
       <c r="F239" s="39"/>
       <c r="G239" s="39"/>
       <c r="H239" s="41"/>
@@ -21781,7 +21890,7 @@
     <row r="240" spans="2:8" ht="19.5">
       <c r="B240" s="43"/>
       <c r="C240" s="44"/>
-      <c r="D240" s="105"/>
+      <c r="D240" s="103"/>
       <c r="E240" s="45"/>
       <c r="F240" s="39"/>
       <c r="G240" s="39"/>
@@ -21791,7 +21900,7 @@
       <c r="B241" s="43"/>
       <c r="C241" s="44"/>
       <c r="D241" s="103"/>
-      <c r="E241" s="39"/>
+      <c r="E241" s="45"/>
       <c r="F241" s="39"/>
       <c r="G241" s="39"/>
       <c r="H241" s="41"/>
@@ -21807,37 +21916,37 @@
     </row>
     <row r="243" spans="2:8" ht="19.5">
       <c r="B243" s="43"/>
-      <c r="C243" s="42"/>
+      <c r="C243" s="44"/>
       <c r="D243" s="103"/>
       <c r="E243" s="39"/>
       <c r="F243" s="39"/>
       <c r="G243" s="39"/>
       <c r="H243" s="41"/>
     </row>
-    <row r="244" spans="2:8" ht="18.75">
+    <row r="244" spans="2:8" ht="19.5">
       <c r="B244" s="43"/>
-      <c r="C244" s="39"/>
-      <c r="D244" s="106"/>
-      <c r="E244" s="39"/>
-      <c r="F244" s="42"/>
+      <c r="C244" s="46"/>
+      <c r="D244" s="103"/>
+      <c r="E244" s="45"/>
+      <c r="F244" s="39"/>
       <c r="G244" s="39"/>
       <c r="H244" s="41"/>
     </row>
     <row r="245" spans="2:8" ht="19.5">
       <c r="B245" s="43"/>
-      <c r="C245" s="40"/>
+      <c r="C245" s="44"/>
       <c r="D245" s="103"/>
-      <c r="E245" s="39"/>
-      <c r="F245" s="42"/>
+      <c r="E245" s="45"/>
+      <c r="F245" s="39"/>
       <c r="G245" s="39"/>
       <c r="H245" s="41"/>
     </row>
     <row r="246" spans="2:8" ht="19.5">
       <c r="B246" s="43"/>
-      <c r="C246" s="42"/>
-      <c r="D246" s="104"/>
-      <c r="E246" s="39"/>
-      <c r="F246" s="42"/>
+      <c r="C246" s="44"/>
+      <c r="D246" s="105"/>
+      <c r="E246" s="45"/>
+      <c r="F246" s="39"/>
       <c r="G246" s="39"/>
       <c r="H246" s="41"/>
     </row>
@@ -21845,8 +21954,8 @@
       <c r="B247" s="43"/>
       <c r="C247" s="44"/>
       <c r="D247" s="103"/>
-      <c r="E247" s="45"/>
-      <c r="F247" s="42"/>
+      <c r="E247" s="39"/>
+      <c r="F247" s="39"/>
       <c r="G247" s="39"/>
       <c r="H247" s="41"/>
     </row>
@@ -21854,53 +21963,53 @@
       <c r="B248" s="43"/>
       <c r="C248" s="44"/>
       <c r="D248" s="103"/>
-      <c r="E248" s="45"/>
+      <c r="E248" s="39"/>
       <c r="F248" s="39"/>
       <c r="G248" s="39"/>
       <c r="H248" s="41"/>
     </row>
     <row r="249" spans="2:8" ht="19.5">
       <c r="B249" s="43"/>
-      <c r="C249" s="44"/>
+      <c r="C249" s="42"/>
       <c r="D249" s="103"/>
       <c r="E249" s="39"/>
       <c r="F249" s="39"/>
       <c r="G249" s="39"/>
       <c r="H249" s="41"/>
     </row>
-    <row r="250" spans="2:8" ht="19.5">
+    <row r="250" spans="2:8" ht="18.75">
       <c r="B250" s="43"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="103"/>
+      <c r="C250" s="39"/>
+      <c r="D250" s="106"/>
       <c r="E250" s="39"/>
-      <c r="F250" s="39"/>
+      <c r="F250" s="42"/>
       <c r="G250" s="39"/>
       <c r="H250" s="41"/>
     </row>
     <row r="251" spans="2:8" ht="19.5">
       <c r="B251" s="43"/>
-      <c r="C251" s="46"/>
+      <c r="C251" s="40"/>
       <c r="D251" s="103"/>
-      <c r="E251" s="45"/>
-      <c r="F251" s="39"/>
+      <c r="E251" s="39"/>
+      <c r="F251" s="42"/>
       <c r="G251" s="39"/>
       <c r="H251" s="41"/>
     </row>
     <row r="252" spans="2:8" ht="19.5">
       <c r="B252" s="43"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="103"/>
-      <c r="E252" s="45"/>
-      <c r="F252" s="39"/>
+      <c r="C252" s="42"/>
+      <c r="D252" s="104"/>
+      <c r="E252" s="39"/>
+      <c r="F252" s="42"/>
       <c r="G252" s="39"/>
       <c r="H252" s="41"/>
     </row>
     <row r="253" spans="2:8" ht="19.5">
       <c r="B253" s="43"/>
       <c r="C253" s="44"/>
-      <c r="D253" s="105"/>
+      <c r="D253" s="103"/>
       <c r="E253" s="45"/>
-      <c r="F253" s="39"/>
+      <c r="F253" s="42"/>
       <c r="G253" s="39"/>
       <c r="H253" s="41"/>
     </row>
@@ -21917,7 +22026,7 @@
       <c r="B255" s="43"/>
       <c r="C255" s="44"/>
       <c r="D255" s="103"/>
-      <c r="E255" s="45"/>
+      <c r="E255" s="39"/>
       <c r="F255" s="39"/>
       <c r="G255" s="39"/>
       <c r="H255" s="41"/>
@@ -21931,43 +22040,43 @@
       <c r="G256" s="39"/>
       <c r="H256" s="41"/>
     </row>
-    <row r="257" spans="1:8" ht="19.5">
+    <row r="257" spans="2:8" ht="19.5">
       <c r="B257" s="43"/>
-      <c r="C257" s="44"/>
+      <c r="C257" s="46"/>
       <c r="D257" s="103"/>
-      <c r="E257" s="39"/>
-      <c r="F257" s="49"/>
+      <c r="E257" s="45"/>
+      <c r="F257" s="39"/>
       <c r="G257" s="39"/>
       <c r="H257" s="41"/>
     </row>
-    <row r="258" spans="1:8" ht="19.5">
+    <row r="258" spans="2:8" ht="19.5">
       <c r="B258" s="43"/>
-      <c r="C258" s="46"/>
+      <c r="C258" s="44"/>
       <c r="D258" s="103"/>
       <c r="E258" s="45"/>
       <c r="F258" s="39"/>
       <c r="G258" s="39"/>
       <c r="H258" s="41"/>
     </row>
-    <row r="259" spans="1:8" ht="19.5">
+    <row r="259" spans="2:8" ht="19.5">
       <c r="B259" s="43"/>
       <c r="C259" s="44"/>
-      <c r="D259" s="103"/>
+      <c r="D259" s="105"/>
       <c r="E259" s="45"/>
       <c r="F259" s="39"/>
       <c r="G259" s="39"/>
       <c r="H259" s="41"/>
     </row>
-    <row r="260" spans="1:8" ht="19.5">
+    <row r="260" spans="2:8" ht="19.5">
       <c r="B260" s="43"/>
       <c r="C260" s="44"/>
-      <c r="D260" s="105"/>
+      <c r="D260" s="103"/>
       <c r="E260" s="45"/>
       <c r="F260" s="39"/>
       <c r="G260" s="39"/>
       <c r="H260" s="41"/>
     </row>
-    <row r="261" spans="1:8" ht="19.5">
+    <row r="261" spans="2:8" ht="19.5">
       <c r="B261" s="43"/>
       <c r="C261" s="44"/>
       <c r="D261" s="103"/>
@@ -21976,61 +22085,61 @@
       <c r="G261" s="39"/>
       <c r="H261" s="41"/>
     </row>
-    <row r="262" spans="1:8" ht="19.5">
+    <row r="262" spans="2:8" ht="19.5">
       <c r="B262" s="43"/>
       <c r="C262" s="44"/>
       <c r="D262" s="103"/>
-      <c r="E262" s="45"/>
+      <c r="E262" s="39"/>
       <c r="F262" s="39"/>
       <c r="G262" s="39"/>
       <c r="H262" s="41"/>
     </row>
-    <row r="263" spans="1:8" ht="19.5">
+    <row r="263" spans="2:8" ht="19.5">
       <c r="B263" s="43"/>
       <c r="C263" s="44"/>
       <c r="D263" s="103"/>
       <c r="E263" s="39"/>
-      <c r="F263" s="39"/>
+      <c r="F263" s="49"/>
       <c r="G263" s="39"/>
       <c r="H263" s="41"/>
     </row>
-    <row r="264" spans="1:8" ht="19.5">
+    <row r="264" spans="2:8" ht="19.5">
       <c r="B264" s="43"/>
-      <c r="C264" s="44"/>
+      <c r="C264" s="46"/>
       <c r="D264" s="103"/>
-      <c r="E264" s="39"/>
-      <c r="F264" s="49"/>
+      <c r="E264" s="45"/>
+      <c r="F264" s="39"/>
       <c r="G264" s="39"/>
       <c r="H264" s="41"/>
     </row>
-    <row r="265" spans="1:8" ht="19.5">
+    <row r="265" spans="2:8" ht="19.5">
       <c r="B265" s="43"/>
-      <c r="C265" s="46"/>
+      <c r="C265" s="44"/>
       <c r="D265" s="103"/>
       <c r="E265" s="45"/>
       <c r="F265" s="39"/>
       <c r="G265" s="39"/>
       <c r="H265" s="41"/>
     </row>
-    <row r="266" spans="1:8" ht="19.5">
+    <row r="266" spans="2:8" ht="19.5">
       <c r="B266" s="43"/>
       <c r="C266" s="44"/>
-      <c r="D266" s="103"/>
+      <c r="D266" s="105"/>
       <c r="E266" s="45"/>
       <c r="F266" s="39"/>
       <c r="G266" s="39"/>
       <c r="H266" s="41"/>
     </row>
-    <row r="267" spans="1:8" ht="19.5">
+    <row r="267" spans="2:8" ht="19.5">
       <c r="B267" s="43"/>
       <c r="C267" s="44"/>
-      <c r="D267" s="105"/>
+      <c r="D267" s="103"/>
       <c r="E267" s="45"/>
       <c r="F267" s="39"/>
       <c r="G267" s="39"/>
       <c r="H267" s="41"/>
     </row>
-    <row r="268" spans="1:8" ht="19.5">
+    <row r="268" spans="2:8" ht="19.5">
       <c r="B268" s="43"/>
       <c r="C268" s="44"/>
       <c r="D268" s="103"/>
@@ -22039,40 +22148,36 @@
       <c r="G268" s="39"/>
       <c r="H268" s="41"/>
     </row>
-    <row r="269" spans="1:8" ht="19.5">
-      <c r="A269" s="39"/>
+    <row r="269" spans="2:8" ht="19.5">
       <c r="B269" s="43"/>
       <c r="C269" s="44"/>
       <c r="D269" s="103"/>
-      <c r="E269" s="45"/>
+      <c r="E269" s="39"/>
       <c r="F269" s="39"/>
       <c r="G269" s="39"/>
       <c r="H269" s="41"/>
     </row>
-    <row r="270" spans="1:8" ht="19.5">
-      <c r="A270" s="39"/>
+    <row r="270" spans="2:8" ht="19.5">
       <c r="B270" s="43"/>
       <c r="C270" s="44"/>
       <c r="D270" s="103"/>
       <c r="E270" s="39"/>
-      <c r="F270" s="39"/>
+      <c r="F270" s="49"/>
       <c r="G270" s="39"/>
       <c r="H270" s="41"/>
     </row>
-    <row r="271" spans="1:8" ht="19.5">
-      <c r="A271" s="39"/>
+    <row r="271" spans="2:8" ht="19.5">
       <c r="B271" s="43"/>
-      <c r="C271" s="44"/>
+      <c r="C271" s="46"/>
       <c r="D271" s="103"/>
-      <c r="E271" s="39"/>
+      <c r="E271" s="45"/>
       <c r="F271" s="39"/>
       <c r="G271" s="39"/>
       <c r="H271" s="41"/>
     </row>
-    <row r="272" spans="1:8" ht="19.5">
-      <c r="A272" s="39"/>
+    <row r="272" spans="2:8" ht="19.5">
       <c r="B272" s="43"/>
-      <c r="C272" s="46"/>
+      <c r="C272" s="44"/>
       <c r="D272" s="103"/>
       <c r="E272" s="45"/>
       <c r="F272" s="39"/>
@@ -22080,20 +22185,18 @@
       <c r="H272" s="41"/>
     </row>
     <row r="273" spans="1:8" ht="19.5">
-      <c r="A273" s="39"/>
       <c r="B273" s="43"/>
       <c r="C273" s="44"/>
-      <c r="D273" s="103"/>
+      <c r="D273" s="105"/>
       <c r="E273" s="45"/>
       <c r="F273" s="39"/>
       <c r="G273" s="39"/>
       <c r="H273" s="41"/>
     </row>
     <row r="274" spans="1:8" ht="19.5">
-      <c r="A274" s="39"/>
       <c r="B274" s="43"/>
       <c r="C274" s="44"/>
-      <c r="D274" s="105"/>
+      <c r="D274" s="103"/>
       <c r="E274" s="45"/>
       <c r="F274" s="39"/>
       <c r="G274" s="39"/>
@@ -22102,9 +22205,9 @@
     <row r="275" spans="1:8" ht="19.5">
       <c r="A275" s="39"/>
       <c r="B275" s="43"/>
-      <c r="C275" s="50"/>
+      <c r="C275" s="44"/>
       <c r="D275" s="103"/>
-      <c r="E275" s="39"/>
+      <c r="E275" s="45"/>
       <c r="F275" s="39"/>
       <c r="G275" s="39"/>
       <c r="H275" s="41"/>
@@ -22112,7 +22215,7 @@
     <row r="276" spans="1:8" ht="19.5">
       <c r="A276" s="39"/>
       <c r="B276" s="43"/>
-      <c r="C276" s="50"/>
+      <c r="C276" s="44"/>
       <c r="D276" s="103"/>
       <c r="E276" s="39"/>
       <c r="F276" s="39"/>
@@ -22122,7 +22225,7 @@
     <row r="277" spans="1:8" ht="19.5">
       <c r="A277" s="39"/>
       <c r="B277" s="43"/>
-      <c r="C277" s="50"/>
+      <c r="C277" s="44"/>
       <c r="D277" s="103"/>
       <c r="E277" s="39"/>
       <c r="F277" s="39"/>
@@ -22132,9 +22235,9 @@
     <row r="278" spans="1:8" ht="19.5">
       <c r="A278" s="39"/>
       <c r="B278" s="43"/>
-      <c r="C278" s="50"/>
+      <c r="C278" s="46"/>
       <c r="D278" s="103"/>
-      <c r="E278" s="39"/>
+      <c r="E278" s="45"/>
       <c r="F278" s="39"/>
       <c r="G278" s="39"/>
       <c r="H278" s="41"/>
@@ -22144,7 +22247,7 @@
       <c r="B279" s="43"/>
       <c r="C279" s="44"/>
       <c r="D279" s="103"/>
-      <c r="E279" s="39"/>
+      <c r="E279" s="45"/>
       <c r="F279" s="39"/>
       <c r="G279" s="39"/>
       <c r="H279" s="41"/>
@@ -22153,79 +22256,79 @@
       <c r="A280" s="39"/>
       <c r="B280" s="43"/>
       <c r="C280" s="44"/>
-      <c r="D280" s="103"/>
-      <c r="E280" s="39"/>
-      <c r="F280" s="49"/>
+      <c r="D280" s="105"/>
+      <c r="E280" s="45"/>
+      <c r="F280" s="39"/>
       <c r="G280" s="39"/>
       <c r="H280" s="41"/>
     </row>
     <row r="281" spans="1:8" ht="19.5">
-      <c r="A281" s="42"/>
+      <c r="A281" s="39"/>
       <c r="B281" s="43"/>
-      <c r="C281" s="44"/>
+      <c r="C281" s="50"/>
       <c r="D281" s="103"/>
-      <c r="E281" s="51"/>
-      <c r="F281" s="49"/>
-      <c r="G281" s="41"/>
+      <c r="E281" s="39"/>
+      <c r="F281" s="39"/>
+      <c r="G281" s="39"/>
       <c r="H281" s="41"/>
     </row>
     <row r="282" spans="1:8" ht="19.5">
-      <c r="A282" s="42"/>
+      <c r="A282" s="39"/>
       <c r="B282" s="43"/>
-      <c r="C282" s="44"/>
+      <c r="C282" s="50"/>
       <c r="D282" s="103"/>
-      <c r="E282" s="51"/>
-      <c r="F282" s="52"/>
-      <c r="G282" s="41"/>
+      <c r="E282" s="39"/>
+      <c r="F282" s="39"/>
+      <c r="G282" s="39"/>
       <c r="H282" s="41"/>
     </row>
     <row r="283" spans="1:8" ht="19.5">
-      <c r="A283" s="42"/>
+      <c r="A283" s="39"/>
       <c r="B283" s="43"/>
-      <c r="C283" s="44"/>
+      <c r="C283" s="50"/>
       <c r="D283" s="103"/>
-      <c r="E283" s="51"/>
-      <c r="F283" s="41"/>
-      <c r="G283" s="41"/>
+      <c r="E283" s="39"/>
+      <c r="F283" s="39"/>
+      <c r="G283" s="39"/>
       <c r="H283" s="41"/>
     </row>
     <row r="284" spans="1:8" ht="19.5">
-      <c r="A284" s="42"/>
+      <c r="A284" s="39"/>
       <c r="B284" s="43"/>
-      <c r="C284" s="46"/>
+      <c r="C284" s="50"/>
       <c r="D284" s="103"/>
-      <c r="E284" s="51"/>
-      <c r="F284" s="41"/>
-      <c r="G284" s="41"/>
+      <c r="E284" s="39"/>
+      <c r="F284" s="39"/>
+      <c r="G284" s="39"/>
       <c r="H284" s="41"/>
     </row>
     <row r="285" spans="1:8" ht="19.5">
-      <c r="A285" s="42"/>
+      <c r="A285" s="39"/>
       <c r="B285" s="43"/>
       <c r="C285" s="44"/>
       <c r="D285" s="103"/>
-      <c r="E285" s="51"/>
-      <c r="F285" s="41"/>
-      <c r="G285" s="41"/>
+      <c r="E285" s="39"/>
+      <c r="F285" s="39"/>
+      <c r="G285" s="39"/>
       <c r="H285" s="41"/>
     </row>
     <row r="286" spans="1:8" ht="19.5">
-      <c r="A286" s="42"/>
+      <c r="A286" s="39"/>
       <c r="B286" s="43"/>
       <c r="C286" s="44"/>
       <c r="D286" s="103"/>
-      <c r="E286" s="45"/>
-      <c r="F286" s="41"/>
-      <c r="G286" s="41"/>
+      <c r="E286" s="39"/>
+      <c r="F286" s="49"/>
+      <c r="G286" s="39"/>
       <c r="H286" s="41"/>
     </row>
     <row r="287" spans="1:8" ht="19.5">
       <c r="A287" s="42"/>
       <c r="B287" s="43"/>
-      <c r="C287" s="50"/>
+      <c r="C287" s="44"/>
       <c r="D287" s="103"/>
-      <c r="E287" s="45"/>
-      <c r="F287" s="41"/>
+      <c r="E287" s="51"/>
+      <c r="F287" s="49"/>
       <c r="G287" s="41"/>
       <c r="H287" s="41"/>
     </row>
@@ -22234,55 +22337,55 @@
       <c r="B288" s="43"/>
       <c r="C288" s="44"/>
       <c r="D288" s="103"/>
-      <c r="E288" s="45"/>
-      <c r="F288" s="41"/>
+      <c r="E288" s="51"/>
+      <c r="F288" s="52"/>
       <c r="G288" s="41"/>
       <c r="H288" s="41"/>
     </row>
     <row r="289" spans="1:8" ht="19.5">
       <c r="A289" s="42"/>
       <c r="B289" s="43"/>
-      <c r="C289" s="50"/>
+      <c r="C289" s="44"/>
       <c r="D289" s="103"/>
-      <c r="E289" s="45"/>
+      <c r="E289" s="51"/>
       <c r="F289" s="41"/>
       <c r="G289" s="41"/>
       <c r="H289" s="41"/>
     </row>
     <row r="290" spans="1:8" ht="19.5">
       <c r="A290" s="42"/>
-      <c r="B290" s="41"/>
-      <c r="C290" s="44"/>
+      <c r="B290" s="43"/>
+      <c r="C290" s="46"/>
       <c r="D290" s="103"/>
-      <c r="E290" s="45"/>
+      <c r="E290" s="51"/>
       <c r="F290" s="41"/>
       <c r="G290" s="41"/>
       <c r="H290" s="41"/>
     </row>
     <row r="291" spans="1:8" ht="19.5">
       <c r="A291" s="42"/>
-      <c r="B291" s="41"/>
+      <c r="B291" s="43"/>
       <c r="C291" s="44"/>
       <c r="D291" s="103"/>
-      <c r="E291" s="45"/>
+      <c r="E291" s="51"/>
       <c r="F291" s="41"/>
       <c r="G291" s="41"/>
       <c r="H291" s="41"/>
     </row>
     <row r="292" spans="1:8" ht="19.5">
       <c r="A292" s="42"/>
-      <c r="B292" s="41"/>
+      <c r="B292" s="43"/>
       <c r="C292" s="44"/>
       <c r="D292" s="103"/>
-      <c r="E292" s="51"/>
+      <c r="E292" s="45"/>
       <c r="F292" s="41"/>
       <c r="G292" s="41"/>
       <c r="H292" s="41"/>
     </row>
     <row r="293" spans="1:8" ht="19.5">
       <c r="A293" s="42"/>
-      <c r="B293" s="41"/>
-      <c r="C293" s="44"/>
+      <c r="B293" s="43"/>
+      <c r="C293" s="50"/>
       <c r="D293" s="103"/>
       <c r="E293" s="45"/>
       <c r="F293" s="41"/>
@@ -22291,8 +22394,8 @@
     </row>
     <row r="294" spans="1:8" ht="19.5">
       <c r="A294" s="42"/>
-      <c r="B294" s="41"/>
-      <c r="C294" s="46"/>
+      <c r="B294" s="43"/>
+      <c r="C294" s="44"/>
       <c r="D294" s="103"/>
       <c r="E294" s="45"/>
       <c r="F294" s="41"/>
@@ -22301,10 +22404,10 @@
     </row>
     <row r="295" spans="1:8" ht="19.5">
       <c r="A295" s="42"/>
-      <c r="B295" s="41"/>
-      <c r="C295" s="44"/>
-      <c r="D295" s="104"/>
-      <c r="E295" s="53"/>
+      <c r="B295" s="43"/>
+      <c r="C295" s="50"/>
+      <c r="D295" s="103"/>
+      <c r="E295" s="45"/>
       <c r="F295" s="41"/>
       <c r="G295" s="41"/>
       <c r="H295" s="41"/>
@@ -22322,7 +22425,7 @@
     <row r="297" spans="1:8" ht="19.5">
       <c r="A297" s="42"/>
       <c r="B297" s="41"/>
-      <c r="C297" s="50"/>
+      <c r="C297" s="44"/>
       <c r="D297" s="103"/>
       <c r="E297" s="45"/>
       <c r="F297" s="41"/>
@@ -22332,9 +22435,9 @@
     <row r="298" spans="1:8" ht="19.5">
       <c r="A298" s="42"/>
       <c r="B298" s="41"/>
-      <c r="C298" s="50"/>
+      <c r="C298" s="44"/>
       <c r="D298" s="103"/>
-      <c r="E298" s="45"/>
+      <c r="E298" s="51"/>
       <c r="F298" s="41"/>
       <c r="G298" s="41"/>
       <c r="H298" s="41"/>
@@ -22342,9 +22445,9 @@
     <row r="299" spans="1:8" ht="19.5">
       <c r="A299" s="42"/>
       <c r="B299" s="41"/>
-      <c r="C299" s="42"/>
-      <c r="D299" s="104"/>
-      <c r="E299" s="53"/>
+      <c r="C299" s="44"/>
+      <c r="D299" s="103"/>
+      <c r="E299" s="45"/>
       <c r="F299" s="41"/>
       <c r="G299" s="41"/>
       <c r="H299" s="41"/>
@@ -22352,7 +22455,7 @@
     <row r="300" spans="1:8" ht="19.5">
       <c r="A300" s="42"/>
       <c r="B300" s="41"/>
-      <c r="C300" s="44"/>
+      <c r="C300" s="46"/>
       <c r="D300" s="103"/>
       <c r="E300" s="45"/>
       <c r="F300" s="41"/>
@@ -22362,9 +22465,9 @@
     <row r="301" spans="1:8" ht="19.5">
       <c r="A301" s="42"/>
       <c r="B301" s="41"/>
-      <c r="C301" s="50"/>
-      <c r="D301" s="103"/>
-      <c r="E301" s="45"/>
+      <c r="C301" s="44"/>
+      <c r="D301" s="104"/>
+      <c r="E301" s="53"/>
       <c r="F301" s="41"/>
       <c r="G301" s="41"/>
       <c r="H301" s="41"/>
@@ -22382,9 +22485,9 @@
     <row r="303" spans="1:8" ht="19.5">
       <c r="A303" s="42"/>
       <c r="B303" s="41"/>
-      <c r="C303" s="44"/>
-      <c r="D303" s="104"/>
-      <c r="E303" s="53"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="103"/>
+      <c r="E303" s="45"/>
       <c r="F303" s="41"/>
       <c r="G303" s="41"/>
       <c r="H303" s="41"/>
@@ -22392,7 +22495,7 @@
     <row r="304" spans="1:8" ht="19.5">
       <c r="A304" s="42"/>
       <c r="B304" s="41"/>
-      <c r="C304" s="44"/>
+      <c r="C304" s="50"/>
       <c r="D304" s="103"/>
       <c r="E304" s="45"/>
       <c r="F304" s="41"/>
@@ -22402,9 +22505,9 @@
     <row r="305" spans="1:8" ht="19.5">
       <c r="A305" s="42"/>
       <c r="B305" s="41"/>
-      <c r="C305" s="44"/>
-      <c r="D305" s="103"/>
-      <c r="E305" s="45"/>
+      <c r="C305" s="42"/>
+      <c r="D305" s="104"/>
+      <c r="E305" s="53"/>
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
       <c r="H305" s="41"/>
@@ -22412,7 +22515,7 @@
     <row r="306" spans="1:8" ht="19.5">
       <c r="A306" s="42"/>
       <c r="B306" s="41"/>
-      <c r="C306" s="46"/>
+      <c r="C306" s="44"/>
       <c r="D306" s="103"/>
       <c r="E306" s="45"/>
       <c r="F306" s="41"/>
@@ -22422,7 +22525,7 @@
     <row r="307" spans="1:8" ht="19.5">
       <c r="A307" s="42"/>
       <c r="B307" s="41"/>
-      <c r="C307" s="44"/>
+      <c r="C307" s="50"/>
       <c r="D307" s="103"/>
       <c r="E307" s="45"/>
       <c r="F307" s="41"/>
@@ -22435,16 +22538,16 @@
       <c r="C308" s="44"/>
       <c r="D308" s="103"/>
       <c r="E308" s="45"/>
-      <c r="F308" s="49"/>
+      <c r="F308" s="41"/>
       <c r="G308" s="41"/>
       <c r="H308" s="41"/>
     </row>
     <row r="309" spans="1:8" ht="19.5">
       <c r="A309" s="42"/>
       <c r="B309" s="41"/>
-      <c r="C309" s="50"/>
-      <c r="D309" s="103"/>
-      <c r="E309" s="45"/>
+      <c r="C309" s="44"/>
+      <c r="D309" s="104"/>
+      <c r="E309" s="53"/>
       <c r="F309" s="41"/>
       <c r="G309" s="41"/>
       <c r="H309" s="41"/>
@@ -22452,7 +22555,7 @@
     <row r="310" spans="1:8" ht="19.5">
       <c r="A310" s="42"/>
       <c r="B310" s="41"/>
-      <c r="C310" s="50"/>
+      <c r="C310" s="44"/>
       <c r="D310" s="103"/>
       <c r="E310" s="45"/>
       <c r="F310" s="41"/>
@@ -22462,121 +22565,121 @@
     <row r="311" spans="1:8" ht="19.5">
       <c r="A311" s="42"/>
       <c r="B311" s="41"/>
-      <c r="C311" s="42"/>
+      <c r="C311" s="44"/>
       <c r="D311" s="103"/>
       <c r="E311" s="45"/>
-      <c r="F311" s="42"/>
+      <c r="F311" s="41"/>
       <c r="G311" s="41"/>
       <c r="H311" s="41"/>
     </row>
     <row r="312" spans="1:8" ht="19.5">
       <c r="A312" s="42"/>
       <c r="B312" s="41"/>
-      <c r="C312" s="44"/>
+      <c r="C312" s="46"/>
       <c r="D312" s="103"/>
-      <c r="E312" s="54"/>
-      <c r="F312" s="55"/>
+      <c r="E312" s="45"/>
+      <c r="F312" s="41"/>
       <c r="G312" s="41"/>
       <c r="H312" s="41"/>
     </row>
     <row r="313" spans="1:8" ht="19.5">
       <c r="A313" s="42"/>
       <c r="B313" s="41"/>
-      <c r="C313" s="50"/>
+      <c r="C313" s="44"/>
       <c r="D313" s="103"/>
-      <c r="E313" s="54"/>
-      <c r="F313" s="55"/>
+      <c r="E313" s="45"/>
+      <c r="F313" s="41"/>
       <c r="G313" s="41"/>
       <c r="H313" s="41"/>
     </row>
     <row r="314" spans="1:8" ht="19.5">
-      <c r="A314" s="39"/>
+      <c r="A314" s="42"/>
       <c r="B314" s="41"/>
       <c r="C314" s="44"/>
       <c r="D314" s="103"/>
-      <c r="E314" s="39"/>
+      <c r="E314" s="45"/>
       <c r="F314" s="49"/>
-      <c r="G314" s="39"/>
+      <c r="G314" s="41"/>
       <c r="H314" s="41"/>
     </row>
     <row r="315" spans="1:8" ht="19.5">
-      <c r="A315" s="39"/>
+      <c r="A315" s="42"/>
       <c r="B315" s="41"/>
-      <c r="C315" s="44"/>
+      <c r="C315" s="50"/>
       <c r="D315" s="103"/>
-      <c r="E315" s="39"/>
-      <c r="F315" s="39"/>
-      <c r="G315" s="39"/>
+      <c r="E315" s="45"/>
+      <c r="F315" s="41"/>
+      <c r="G315" s="41"/>
       <c r="H315" s="41"/>
     </row>
     <row r="316" spans="1:8" ht="19.5">
-      <c r="A316" s="39"/>
+      <c r="A316" s="42"/>
       <c r="B316" s="41"/>
-      <c r="C316" s="44"/>
+      <c r="C316" s="50"/>
       <c r="D316" s="103"/>
-      <c r="E316" s="39"/>
-      <c r="F316" s="39"/>
-      <c r="G316" s="39"/>
+      <c r="E316" s="45"/>
+      <c r="F316" s="41"/>
+      <c r="G316" s="41"/>
       <c r="H316" s="41"/>
     </row>
     <row r="317" spans="1:8" ht="19.5">
       <c r="A317" s="42"/>
       <c r="B317" s="41"/>
-      <c r="C317" s="44"/>
+      <c r="C317" s="42"/>
       <c r="D317" s="103"/>
       <c r="E317" s="45"/>
-      <c r="F317" s="41"/>
+      <c r="F317" s="42"/>
       <c r="G317" s="41"/>
       <c r="H317" s="41"/>
     </row>
     <row r="318" spans="1:8" ht="19.5">
       <c r="A318" s="42"/>
       <c r="B318" s="41"/>
-      <c r="C318" s="46"/>
+      <c r="C318" s="44"/>
       <c r="D318" s="103"/>
-      <c r="E318" s="51"/>
-      <c r="F318" s="41"/>
+      <c r="E318" s="54"/>
+      <c r="F318" s="55"/>
       <c r="G318" s="41"/>
       <c r="H318" s="41"/>
     </row>
     <row r="319" spans="1:8" ht="19.5">
       <c r="A319" s="42"/>
       <c r="B319" s="41"/>
-      <c r="C319" s="44"/>
-      <c r="D319" s="104"/>
-      <c r="E319" s="45"/>
-      <c r="F319" s="41"/>
+      <c r="C319" s="50"/>
+      <c r="D319" s="103"/>
+      <c r="E319" s="54"/>
+      <c r="F319" s="55"/>
       <c r="G319" s="41"/>
       <c r="H319" s="41"/>
     </row>
     <row r="320" spans="1:8" ht="19.5">
-      <c r="A320" s="42"/>
+      <c r="A320" s="39"/>
       <c r="B320" s="41"/>
       <c r="C320" s="44"/>
       <c r="D320" s="103"/>
-      <c r="E320" s="45"/>
-      <c r="F320" s="41"/>
-      <c r="G320" s="41"/>
+      <c r="E320" s="39"/>
+      <c r="F320" s="49"/>
+      <c r="G320" s="39"/>
       <c r="H320" s="41"/>
     </row>
     <row r="321" spans="1:8" ht="19.5">
-      <c r="A321" s="42"/>
+      <c r="A321" s="39"/>
       <c r="B321" s="41"/>
       <c r="C321" s="44"/>
       <c r="D321" s="103"/>
-      <c r="E321" s="51"/>
-      <c r="F321" s="41"/>
-      <c r="G321" s="41"/>
+      <c r="E321" s="39"/>
+      <c r="F321" s="39"/>
+      <c r="G321" s="39"/>
       <c r="H321" s="41"/>
     </row>
     <row r="322" spans="1:8" ht="19.5">
-      <c r="A322" s="42"/>
+      <c r="A322" s="39"/>
       <c r="B322" s="41"/>
       <c r="C322" s="44"/>
-      <c r="D322" s="104"/>
-      <c r="E322" s="45"/>
-      <c r="F322" s="41"/>
-      <c r="G322" s="41"/>
+      <c r="D322" s="103"/>
+      <c r="E322" s="39"/>
+      <c r="F322" s="39"/>
+      <c r="G322" s="39"/>
       <c r="H322" s="41"/>
     </row>
     <row r="323" spans="1:8" ht="19.5">
@@ -22592,9 +22695,9 @@
     <row r="324" spans="1:8" ht="19.5">
       <c r="A324" s="42"/>
       <c r="B324" s="41"/>
-      <c r="C324" s="44"/>
+      <c r="C324" s="46"/>
       <c r="D324" s="103"/>
-      <c r="E324" s="45"/>
+      <c r="E324" s="51"/>
       <c r="F324" s="41"/>
       <c r="G324" s="41"/>
       <c r="H324" s="41"/>
@@ -22603,7 +22706,7 @@
       <c r="A325" s="42"/>
       <c r="B325" s="41"/>
       <c r="C325" s="44"/>
-      <c r="D325" s="103"/>
+      <c r="D325" s="104"/>
       <c r="E325" s="45"/>
       <c r="F325" s="41"/>
       <c r="G325" s="41"/>
@@ -22624,7 +22727,7 @@
       <c r="B327" s="41"/>
       <c r="C327" s="44"/>
       <c r="D327" s="103"/>
-      <c r="E327" s="45"/>
+      <c r="E327" s="51"/>
       <c r="F327" s="41"/>
       <c r="G327" s="41"/>
       <c r="H327" s="41"/>
@@ -22633,50 +22736,50 @@
       <c r="A328" s="42"/>
       <c r="B328" s="41"/>
       <c r="C328" s="44"/>
-      <c r="D328" s="103"/>
+      <c r="D328" s="104"/>
       <c r="E328" s="45"/>
-      <c r="F328" s="52"/>
+      <c r="F328" s="41"/>
       <c r="G328" s="41"/>
       <c r="H328" s="41"/>
     </row>
-    <row r="329" spans="1:8" ht="18.75">
-      <c r="A329" s="39"/>
+    <row r="329" spans="1:8" ht="19.5">
+      <c r="A329" s="42"/>
       <c r="B329" s="41"/>
-      <c r="C329" s="39"/>
-      <c r="D329" s="106"/>
-      <c r="E329" s="39"/>
-      <c r="F329" s="39"/>
-      <c r="G329" s="39"/>
+      <c r="C329" s="44"/>
+      <c r="D329" s="103"/>
+      <c r="E329" s="45"/>
+      <c r="F329" s="41"/>
+      <c r="G329" s="41"/>
       <c r="H329" s="41"/>
     </row>
     <row r="330" spans="1:8" ht="19.5">
-      <c r="A330" s="39"/>
+      <c r="A330" s="42"/>
       <c r="B330" s="41"/>
       <c r="C330" s="44"/>
       <c r="D330" s="103"/>
       <c r="E330" s="45"/>
-      <c r="F330" s="49"/>
-      <c r="G330" s="39"/>
+      <c r="F330" s="41"/>
+      <c r="G330" s="41"/>
       <c r="H330" s="41"/>
     </row>
     <row r="331" spans="1:8" ht="19.5">
-      <c r="A331" s="39"/>
+      <c r="A331" s="42"/>
       <c r="B331" s="41"/>
-      <c r="C331" s="46"/>
+      <c r="C331" s="44"/>
       <c r="D331" s="103"/>
-      <c r="E331" s="39"/>
-      <c r="F331" s="39"/>
-      <c r="G331" s="39"/>
+      <c r="E331" s="45"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
       <c r="H331" s="41"/>
     </row>
     <row r="332" spans="1:8" ht="19.5">
-      <c r="A332" s="39"/>
+      <c r="A332" s="42"/>
       <c r="B332" s="41"/>
       <c r="C332" s="44"/>
-      <c r="D332" s="104"/>
+      <c r="D332" s="103"/>
       <c r="E332" s="45"/>
-      <c r="F332" s="39"/>
-      <c r="G332" s="39"/>
+      <c r="F332" s="41"/>
+      <c r="G332" s="41"/>
       <c r="H332" s="41"/>
     </row>
     <row r="333" spans="1:8" ht="19.5">
@@ -22695,56 +22798,56 @@
       <c r="C334" s="44"/>
       <c r="D334" s="103"/>
       <c r="E334" s="45"/>
-      <c r="F334" s="41"/>
+      <c r="F334" s="52"/>
       <c r="G334" s="41"/>
       <c r="H334" s="41"/>
     </row>
-    <row r="335" spans="1:8" ht="19.5">
-      <c r="A335" s="42"/>
+    <row r="335" spans="1:8" ht="18.75">
+      <c r="A335" s="39"/>
       <c r="B335" s="41"/>
-      <c r="C335" s="44"/>
-      <c r="D335" s="103"/>
-      <c r="E335" s="51"/>
-      <c r="F335" s="49"/>
-      <c r="G335" s="41"/>
+      <c r="C335" s="39"/>
+      <c r="D335" s="106"/>
+      <c r="E335" s="39"/>
+      <c r="F335" s="39"/>
+      <c r="G335" s="39"/>
       <c r="H335" s="41"/>
     </row>
     <row r="336" spans="1:8" ht="19.5">
-      <c r="A336" s="42"/>
+      <c r="A336" s="39"/>
       <c r="B336" s="41"/>
       <c r="C336" s="44"/>
       <c r="D336" s="103"/>
       <c r="E336" s="45"/>
       <c r="F336" s="49"/>
-      <c r="G336" s="41"/>
+      <c r="G336" s="39"/>
       <c r="H336" s="41"/>
     </row>
     <row r="337" spans="1:8" ht="19.5">
-      <c r="A337" s="42"/>
+      <c r="A337" s="39"/>
       <c r="B337" s="41"/>
-      <c r="C337" s="44"/>
+      <c r="C337" s="46"/>
       <c r="D337" s="103"/>
-      <c r="E337" s="45"/>
-      <c r="F337" s="41"/>
-      <c r="G337" s="41"/>
+      <c r="E337" s="39"/>
+      <c r="F337" s="39"/>
+      <c r="G337" s="39"/>
       <c r="H337" s="41"/>
     </row>
     <row r="338" spans="1:8" ht="19.5">
-      <c r="A338" s="42"/>
+      <c r="A338" s="39"/>
       <c r="B338" s="41"/>
       <c r="C338" s="44"/>
-      <c r="D338" s="103"/>
+      <c r="D338" s="104"/>
       <c r="E338" s="45"/>
-      <c r="F338" s="41"/>
-      <c r="G338" s="41"/>
+      <c r="F338" s="39"/>
+      <c r="G338" s="39"/>
       <c r="H338" s="41"/>
     </row>
     <row r="339" spans="1:8" ht="19.5">
       <c r="A339" s="42"/>
       <c r="B339" s="41"/>
-      <c r="C339" s="46"/>
+      <c r="C339" s="44"/>
       <c r="D339" s="103"/>
-      <c r="E339" s="51"/>
+      <c r="E339" s="45"/>
       <c r="F339" s="41"/>
       <c r="G339" s="41"/>
       <c r="H339" s="41"/>
@@ -22753,7 +22856,7 @@
       <c r="A340" s="42"/>
       <c r="B340" s="41"/>
       <c r="C340" s="44"/>
-      <c r="D340" s="104"/>
+      <c r="D340" s="103"/>
       <c r="E340" s="45"/>
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
@@ -22764,18 +22867,18 @@
       <c r="B341" s="41"/>
       <c r="C341" s="44"/>
       <c r="D341" s="103"/>
-      <c r="E341" s="45"/>
-      <c r="F341" s="41"/>
+      <c r="E341" s="51"/>
+      <c r="F341" s="49"/>
       <c r="G341" s="41"/>
       <c r="H341" s="41"/>
     </row>
     <row r="342" spans="1:8" ht="19.5">
       <c r="A342" s="42"/>
       <c r="B342" s="41"/>
-      <c r="C342" s="50"/>
+      <c r="C342" s="44"/>
       <c r="D342" s="103"/>
       <c r="E342" s="45"/>
-      <c r="F342" s="41"/>
+      <c r="F342" s="49"/>
       <c r="G342" s="41"/>
       <c r="H342" s="41"/>
     </row>
@@ -22790,67 +22893,69 @@
       <c r="H343" s="41"/>
     </row>
     <row r="344" spans="1:8" ht="19.5">
-      <c r="A344" s="39"/>
+      <c r="A344" s="42"/>
       <c r="B344" s="41"/>
-      <c r="C344" s="50"/>
+      <c r="C344" s="44"/>
       <c r="D344" s="103"/>
       <c r="E344" s="45"/>
-      <c r="F344" s="39"/>
-      <c r="G344" s="39"/>
+      <c r="F344" s="41"/>
+      <c r="G344" s="41"/>
       <c r="H344" s="41"/>
     </row>
     <row r="345" spans="1:8" ht="19.5">
-      <c r="A345" s="39"/>
-      <c r="B345" s="49"/>
-      <c r="C345" s="50"/>
+      <c r="A345" s="42"/>
+      <c r="B345" s="41"/>
+      <c r="C345" s="46"/>
       <c r="D345" s="103"/>
-      <c r="E345" s="45"/>
-      <c r="F345" s="39"/>
-      <c r="G345" s="39"/>
+      <c r="E345" s="51"/>
+      <c r="F345" s="41"/>
+      <c r="G345" s="41"/>
       <c r="H345" s="41"/>
     </row>
     <row r="346" spans="1:8" ht="19.5">
-      <c r="A346" s="39"/>
-      <c r="B346" s="49"/>
-      <c r="C346" s="50"/>
-      <c r="D346" s="103"/>
+      <c r="A346" s="42"/>
+      <c r="B346" s="41"/>
+      <c r="C346" s="44"/>
+      <c r="D346" s="104"/>
       <c r="E346" s="45"/>
-      <c r="F346" s="49"/>
-      <c r="G346" s="39"/>
+      <c r="F346" s="41"/>
+      <c r="G346" s="41"/>
       <c r="H346" s="41"/>
     </row>
     <row r="347" spans="1:8" ht="19.5">
-      <c r="A347" s="39"/>
-      <c r="B347" s="49"/>
+      <c r="A347" s="42"/>
+      <c r="B347" s="41"/>
       <c r="C347" s="44"/>
       <c r="D347" s="103"/>
       <c r="E347" s="45"/>
-      <c r="F347" s="39"/>
-      <c r="G347" s="39"/>
+      <c r="F347" s="41"/>
+      <c r="G347" s="41"/>
       <c r="H347" s="41"/>
     </row>
     <row r="348" spans="1:8" ht="19.5">
-      <c r="A348" s="39"/>
-      <c r="B348" s="49"/>
-      <c r="C348" s="44"/>
+      <c r="A348" s="42"/>
+      <c r="B348" s="41"/>
+      <c r="C348" s="50"/>
       <c r="D348" s="103"/>
       <c r="E348" s="45"/>
-      <c r="F348" s="39"/>
-      <c r="G348" s="39"/>
+      <c r="F348" s="41"/>
+      <c r="G348" s="41"/>
       <c r="H348" s="41"/>
     </row>
-    <row r="349" spans="1:8" ht="18.75">
-      <c r="B349" s="49"/>
-      <c r="C349" s="39"/>
-      <c r="D349" s="106"/>
-      <c r="E349" s="39"/>
-      <c r="F349" s="39"/>
-      <c r="G349" s="39"/>
+    <row r="349" spans="1:8" ht="19.5">
+      <c r="A349" s="42"/>
+      <c r="B349" s="41"/>
+      <c r="C349" s="44"/>
+      <c r="D349" s="103"/>
+      <c r="E349" s="45"/>
+      <c r="F349" s="41"/>
+      <c r="G349" s="41"/>
       <c r="H349" s="41"/>
     </row>
     <row r="350" spans="1:8" ht="19.5">
-      <c r="B350" s="49"/>
-      <c r="C350" s="44"/>
+      <c r="A350" s="39"/>
+      <c r="B350" s="41"/>
+      <c r="C350" s="50"/>
       <c r="D350" s="103"/>
       <c r="E350" s="45"/>
       <c r="F350" s="39"/>
@@ -22858,24 +22963,27 @@
       <c r="H350" s="41"/>
     </row>
     <row r="351" spans="1:8" ht="19.5">
+      <c r="A351" s="39"/>
       <c r="B351" s="49"/>
-      <c r="C351" s="46"/>
+      <c r="C351" s="50"/>
       <c r="D351" s="103"/>
-      <c r="E351" s="39"/>
+      <c r="E351" s="45"/>
       <c r="F351" s="39"/>
       <c r="G351" s="39"/>
       <c r="H351" s="41"/>
     </row>
     <row r="352" spans="1:8" ht="19.5">
+      <c r="A352" s="39"/>
       <c r="B352" s="49"/>
-      <c r="C352" s="44"/>
-      <c r="D352" s="104"/>
+      <c r="C352" s="50"/>
+      <c r="D352" s="103"/>
       <c r="E352" s="45"/>
-      <c r="F352" s="39"/>
+      <c r="F352" s="49"/>
       <c r="G352" s="39"/>
       <c r="H352" s="41"/>
     </row>
-    <row r="353" spans="2:8" ht="19.5">
+    <row r="353" spans="1:8" ht="19.5">
+      <c r="A353" s="39"/>
       <c r="B353" s="49"/>
       <c r="C353" s="44"/>
       <c r="D353" s="103"/>
@@ -22884,7 +22992,8 @@
       <c r="G353" s="39"/>
       <c r="H353" s="41"/>
     </row>
-    <row r="354" spans="2:8" ht="19.5">
+    <row r="354" spans="1:8" ht="19.5">
+      <c r="A354" s="39"/>
       <c r="B354" s="49"/>
       <c r="C354" s="44"/>
       <c r="D354" s="103"/>
@@ -22893,52 +23002,52 @@
       <c r="G354" s="39"/>
       <c r="H354" s="41"/>
     </row>
-    <row r="355" spans="2:8" ht="19.5">
+    <row r="355" spans="1:8" ht="18.75">
       <c r="B355" s="49"/>
-      <c r="C355" s="44"/>
-      <c r="D355" s="103"/>
-      <c r="E355" s="45"/>
-      <c r="F355" s="49"/>
+      <c r="C355" s="39"/>
+      <c r="D355" s="106"/>
+      <c r="E355" s="39"/>
+      <c r="F355" s="39"/>
       <c r="G355" s="39"/>
       <c r="H355" s="41"/>
     </row>
-    <row r="356" spans="2:8" ht="18.75">
+    <row r="356" spans="1:8" ht="19.5">
       <c r="B356" s="49"/>
-      <c r="C356" s="39"/>
-      <c r="D356" s="106"/>
-      <c r="E356" s="39"/>
-      <c r="F356" s="49"/>
+      <c r="C356" s="44"/>
+      <c r="D356" s="103"/>
+      <c r="E356" s="45"/>
+      <c r="F356" s="39"/>
       <c r="G356" s="39"/>
       <c r="H356" s="41"/>
     </row>
-    <row r="357" spans="2:8" ht="19.5">
+    <row r="357" spans="1:8" ht="19.5">
       <c r="B357" s="49"/>
-      <c r="C357" s="44"/>
+      <c r="C357" s="46"/>
       <c r="D357" s="103"/>
-      <c r="E357" s="45"/>
+      <c r="E357" s="39"/>
       <c r="F357" s="39"/>
       <c r="G357" s="39"/>
       <c r="H357" s="41"/>
     </row>
-    <row r="358" spans="2:8" ht="19.5">
+    <row r="358" spans="1:8" ht="19.5">
       <c r="B358" s="49"/>
-      <c r="C358" s="46"/>
-      <c r="D358" s="103"/>
-      <c r="E358" s="39"/>
+      <c r="C358" s="44"/>
+      <c r="D358" s="104"/>
+      <c r="E358" s="45"/>
       <c r="F358" s="39"/>
       <c r="G358" s="39"/>
       <c r="H358" s="41"/>
     </row>
-    <row r="359" spans="2:8" ht="19.5">
+    <row r="359" spans="1:8" ht="19.5">
       <c r="B359" s="49"/>
       <c r="C359" s="44"/>
-      <c r="D359" s="104"/>
+      <c r="D359" s="103"/>
       <c r="E359" s="45"/>
       <c r="F359" s="39"/>
       <c r="G359" s="39"/>
       <c r="H359" s="41"/>
     </row>
-    <row r="360" spans="2:8" ht="19.5">
+    <row r="360" spans="1:8" ht="19.5">
       <c r="B360" s="49"/>
       <c r="C360" s="44"/>
       <c r="D360" s="103"/>
@@ -22947,137 +23056,137 @@
       <c r="G360" s="39"/>
       <c r="H360" s="41"/>
     </row>
-    <row r="361" spans="2:8" ht="18.75">
+    <row r="361" spans="1:8" ht="19.5">
       <c r="B361" s="49"/>
-      <c r="C361" s="39"/>
-      <c r="D361" s="106"/>
-      <c r="E361" s="39"/>
-      <c r="F361" s="39"/>
+      <c r="C361" s="44"/>
+      <c r="D361" s="103"/>
+      <c r="E361" s="45"/>
+      <c r="F361" s="49"/>
       <c r="G361" s="39"/>
       <c r="H361" s="41"/>
     </row>
-    <row r="362" spans="2:8" ht="18.75">
+    <row r="362" spans="1:8" ht="18.75">
       <c r="B362" s="49"/>
       <c r="C362" s="39"/>
       <c r="D362" s="106"/>
       <c r="E362" s="39"/>
-      <c r="F362" s="39"/>
+      <c r="F362" s="49"/>
       <c r="G362" s="39"/>
       <c r="H362" s="41"/>
     </row>
-    <row r="363" spans="2:8" ht="18.75">
+    <row r="363" spans="1:8" ht="19.5">
       <c r="B363" s="49"/>
-      <c r="C363" s="56"/>
-      <c r="D363" s="106"/>
-      <c r="E363" s="39"/>
+      <c r="C363" s="44"/>
+      <c r="D363" s="103"/>
+      <c r="E363" s="45"/>
       <c r="F363" s="39"/>
       <c r="G363" s="39"/>
       <c r="H363" s="41"/>
     </row>
-    <row r="364" spans="2:8" ht="18.75">
+    <row r="364" spans="1:8" ht="19.5">
       <c r="B364" s="49"/>
-      <c r="C364" s="56"/>
-      <c r="D364" s="106"/>
+      <c r="C364" s="46"/>
+      <c r="D364" s="103"/>
       <c r="E364" s="39"/>
       <c r="F364" s="39"/>
       <c r="G364" s="39"/>
       <c r="H364" s="41"/>
     </row>
-    <row r="365" spans="2:8" ht="18.75">
+    <row r="365" spans="1:8" ht="19.5">
       <c r="B365" s="49"/>
-      <c r="C365" s="39"/>
-      <c r="D365" s="106"/>
-      <c r="E365" s="39"/>
+      <c r="C365" s="44"/>
+      <c r="D365" s="104"/>
+      <c r="E365" s="45"/>
       <c r="F365" s="39"/>
       <c r="G365" s="39"/>
       <c r="H365" s="41"/>
     </row>
-    <row r="366" spans="2:8" ht="18.75">
+    <row r="366" spans="1:8" ht="19.5">
       <c r="B366" s="49"/>
-      <c r="C366" s="39"/>
-      <c r="D366" s="106"/>
-      <c r="E366" s="39"/>
+      <c r="C366" s="44"/>
+      <c r="D366" s="103"/>
+      <c r="E366" s="45"/>
       <c r="F366" s="39"/>
       <c r="G366" s="39"/>
       <c r="H366" s="41"/>
     </row>
-    <row r="367" spans="2:8" ht="18.75">
+    <row r="367" spans="1:8" ht="18.75">
       <c r="B367" s="49"/>
       <c r="C367" s="39"/>
       <c r="D367" s="106"/>
       <c r="E367" s="39"/>
-      <c r="F367" s="42"/>
+      <c r="F367" s="39"/>
       <c r="G367" s="39"/>
       <c r="H367" s="41"/>
     </row>
-    <row r="368" spans="2:8" ht="19.5">
+    <row r="368" spans="1:8" ht="18.75">
       <c r="B368" s="49"/>
-      <c r="C368" s="44"/>
-      <c r="D368" s="103"/>
-      <c r="E368" s="45"/>
-      <c r="F368" s="49"/>
+      <c r="C368" s="39"/>
+      <c r="D368" s="106"/>
+      <c r="E368" s="39"/>
+      <c r="F368" s="39"/>
       <c r="G368" s="39"/>
       <c r="H368" s="41"/>
     </row>
-    <row r="369" spans="2:8" ht="19.5">
+    <row r="369" spans="2:8" ht="18.75">
       <c r="B369" s="49"/>
-      <c r="C369" s="44"/>
-      <c r="D369" s="103"/>
-      <c r="E369" s="45"/>
+      <c r="C369" s="56"/>
+      <c r="D369" s="106"/>
+      <c r="E369" s="39"/>
       <c r="F369" s="39"/>
       <c r="G369" s="39"/>
       <c r="H369" s="41"/>
     </row>
-    <row r="370" spans="2:8" ht="19.5">
-      <c r="B370" s="39"/>
-      <c r="C370" s="40"/>
-      <c r="D370" s="103"/>
+    <row r="370" spans="2:8" ht="18.75">
+      <c r="B370" s="49"/>
+      <c r="C370" s="56"/>
+      <c r="D370" s="106"/>
       <c r="E370" s="39"/>
       <c r="F370" s="39"/>
       <c r="G370" s="39"/>
       <c r="H370" s="41"/>
     </row>
-    <row r="371" spans="2:8" ht="19.5">
-      <c r="B371" s="39"/>
-      <c r="C371" s="40"/>
-      <c r="D371" s="103"/>
+    <row r="371" spans="2:8" ht="18.75">
+      <c r="B371" s="49"/>
+      <c r="C371" s="39"/>
+      <c r="D371" s="106"/>
       <c r="E371" s="39"/>
       <c r="F371" s="39"/>
       <c r="G371" s="39"/>
       <c r="H371" s="41"/>
     </row>
-    <row r="372" spans="2:8" ht="19.5">
-      <c r="B372" s="39"/>
-      <c r="C372" s="40"/>
-      <c r="D372" s="103"/>
+    <row r="372" spans="2:8" ht="18.75">
+      <c r="B372" s="49"/>
+      <c r="C372" s="39"/>
+      <c r="D372" s="106"/>
       <c r="E372" s="39"/>
       <c r="F372" s="39"/>
       <c r="G372" s="39"/>
       <c r="H372" s="41"/>
     </row>
-    <row r="373" spans="2:8" ht="19.5">
-      <c r="B373" s="39"/>
-      <c r="C373" s="40"/>
-      <c r="D373" s="103"/>
+    <row r="373" spans="2:8" ht="18.75">
+      <c r="B373" s="49"/>
+      <c r="C373" s="39"/>
+      <c r="D373" s="106"/>
       <c r="E373" s="39"/>
-      <c r="F373" s="39"/>
+      <c r="F373" s="42"/>
       <c r="G373" s="39"/>
       <c r="H373" s="41"/>
     </row>
     <row r="374" spans="2:8" ht="19.5">
-      <c r="B374" s="39"/>
-      <c r="C374" s="40"/>
+      <c r="B374" s="49"/>
+      <c r="C374" s="44"/>
       <c r="D374" s="103"/>
-      <c r="E374" s="39"/>
-      <c r="F374" s="39"/>
+      <c r="E374" s="45"/>
+      <c r="F374" s="49"/>
       <c r="G374" s="39"/>
       <c r="H374" s="41"/>
     </row>
     <row r="375" spans="2:8" ht="19.5">
-      <c r="B375" s="39"/>
-      <c r="C375" s="40"/>
+      <c r="B375" s="49"/>
+      <c r="C375" s="44"/>
       <c r="D375" s="103"/>
-      <c r="E375" s="39"/>
+      <c r="E375" s="45"/>
       <c r="F375" s="39"/>
       <c r="G375" s="39"/>
       <c r="H375" s="41"/>
@@ -23111,8 +23220,8 @@
     </row>
     <row r="379" spans="2:8" ht="19.5">
       <c r="B379" s="39"/>
-      <c r="C379" s="42"/>
-      <c r="D379" s="104"/>
+      <c r="C379" s="40"/>
+      <c r="D379" s="103"/>
       <c r="E379" s="39"/>
       <c r="F379" s="39"/>
       <c r="G379" s="39"/>
@@ -23129,71 +23238,71 @@
     </row>
     <row r="381" spans="2:8" ht="19.5">
       <c r="B381" s="39"/>
-      <c r="C381" s="42"/>
-      <c r="D381" s="104"/>
+      <c r="C381" s="40"/>
+      <c r="D381" s="103"/>
       <c r="E381" s="39"/>
       <c r="F381" s="39"/>
       <c r="G381" s="39"/>
       <c r="H381" s="41"/>
     </row>
     <row r="382" spans="2:8" ht="19.5">
-      <c r="B382" s="43"/>
-      <c r="C382" s="44"/>
+      <c r="B382" s="39"/>
+      <c r="C382" s="40"/>
       <c r="D382" s="103"/>
-      <c r="E382" s="45"/>
-      <c r="F382" s="42"/>
+      <c r="E382" s="39"/>
+      <c r="F382" s="39"/>
       <c r="G382" s="39"/>
       <c r="H382" s="41"/>
     </row>
     <row r="383" spans="2:8" ht="19.5">
-      <c r="B383" s="43"/>
-      <c r="C383" s="44"/>
+      <c r="B383" s="39"/>
+      <c r="C383" s="40"/>
       <c r="D383" s="103"/>
-      <c r="E383" s="45"/>
-      <c r="F383" s="42"/>
+      <c r="E383" s="39"/>
+      <c r="F383" s="39"/>
       <c r="G383" s="39"/>
       <c r="H383" s="41"/>
     </row>
     <row r="384" spans="2:8" ht="19.5">
-      <c r="B384" s="43"/>
-      <c r="C384" s="44"/>
+      <c r="B384" s="39"/>
+      <c r="C384" s="40"/>
       <c r="D384" s="103"/>
       <c r="E384" s="39"/>
-      <c r="F384" s="42"/>
+      <c r="F384" s="39"/>
       <c r="G384" s="39"/>
       <c r="H384" s="41"/>
     </row>
     <row r="385" spans="2:8" ht="19.5">
-      <c r="B385" s="43"/>
-      <c r="C385" s="44"/>
-      <c r="D385" s="103"/>
+      <c r="B385" s="39"/>
+      <c r="C385" s="42"/>
+      <c r="D385" s="104"/>
       <c r="E385" s="39"/>
-      <c r="F385" s="42"/>
+      <c r="F385" s="39"/>
       <c r="G385" s="39"/>
       <c r="H385" s="41"/>
     </row>
     <row r="386" spans="2:8" ht="19.5">
-      <c r="B386" s="43"/>
-      <c r="C386" s="46"/>
+      <c r="B386" s="39"/>
+      <c r="C386" s="40"/>
       <c r="D386" s="103"/>
-      <c r="E386" s="45"/>
-      <c r="F386" s="42"/>
+      <c r="E386" s="39"/>
+      <c r="F386" s="39"/>
       <c r="G386" s="39"/>
       <c r="H386" s="41"/>
     </row>
     <row r="387" spans="2:8" ht="19.5">
-      <c r="B387" s="43"/>
-      <c r="C387" s="44"/>
-      <c r="D387" s="103"/>
-      <c r="E387" s="45"/>
-      <c r="F387" s="42"/>
+      <c r="B387" s="39"/>
+      <c r="C387" s="42"/>
+      <c r="D387" s="104"/>
+      <c r="E387" s="39"/>
+      <c r="F387" s="39"/>
       <c r="G387" s="39"/>
       <c r="H387" s="41"/>
     </row>
     <row r="388" spans="2:8" ht="19.5">
       <c r="B388" s="43"/>
       <c r="C388" s="44"/>
-      <c r="D388" s="105"/>
+      <c r="D388" s="103"/>
       <c r="E388" s="45"/>
       <c r="F388" s="42"/>
       <c r="G388" s="39"/>
@@ -23212,7 +23321,7 @@
       <c r="B390" s="43"/>
       <c r="C390" s="44"/>
       <c r="D390" s="103"/>
-      <c r="E390" s="45"/>
+      <c r="E390" s="39"/>
       <c r="F390" s="42"/>
       <c r="G390" s="39"/>
       <c r="H390" s="41"/>
@@ -23221,33 +23330,33 @@
       <c r="B391" s="43"/>
       <c r="C391" s="44"/>
       <c r="D391" s="103"/>
-      <c r="E391" s="45"/>
+      <c r="E391" s="39"/>
       <c r="F391" s="42"/>
       <c r="G391" s="39"/>
       <c r="H391" s="41"/>
     </row>
     <row r="392" spans="2:8" ht="19.5">
       <c r="B392" s="43"/>
-      <c r="C392" s="40"/>
+      <c r="C392" s="46"/>
       <c r="D392" s="103"/>
-      <c r="E392" s="39"/>
-      <c r="F392" s="39"/>
+      <c r="E392" s="45"/>
+      <c r="F392" s="42"/>
       <c r="G392" s="39"/>
       <c r="H392" s="41"/>
     </row>
     <row r="393" spans="2:8" ht="19.5">
       <c r="B393" s="43"/>
-      <c r="C393" s="42"/>
-      <c r="D393" s="104"/>
-      <c r="E393" s="39"/>
-      <c r="F393" s="47"/>
+      <c r="C393" s="44"/>
+      <c r="D393" s="103"/>
+      <c r="E393" s="45"/>
+      <c r="F393" s="42"/>
       <c r="G393" s="39"/>
       <c r="H393" s="41"/>
     </row>
     <row r="394" spans="2:8" ht="19.5">
       <c r="B394" s="43"/>
       <c r="C394" s="44"/>
-      <c r="D394" s="103"/>
+      <c r="D394" s="105"/>
       <c r="E394" s="45"/>
       <c r="F394" s="42"/>
       <c r="G394" s="39"/>
@@ -23258,7 +23367,7 @@
       <c r="C395" s="44"/>
       <c r="D395" s="103"/>
       <c r="E395" s="45"/>
-      <c r="F395" s="39"/>
+      <c r="F395" s="42"/>
       <c r="G395" s="39"/>
       <c r="H395" s="41"/>
     </row>
@@ -23266,8 +23375,8 @@
       <c r="B396" s="43"/>
       <c r="C396" s="44"/>
       <c r="D396" s="103"/>
-      <c r="E396" s="39"/>
-      <c r="F396" s="39"/>
+      <c r="E396" s="45"/>
+      <c r="F396" s="42"/>
       <c r="G396" s="39"/>
       <c r="H396" s="41"/>
     </row>
@@ -23275,35 +23384,35 @@
       <c r="B397" s="43"/>
       <c r="C397" s="44"/>
       <c r="D397" s="103"/>
-      <c r="E397" s="39"/>
-      <c r="F397" s="39"/>
+      <c r="E397" s="45"/>
+      <c r="F397" s="42"/>
       <c r="G397" s="39"/>
       <c r="H397" s="41"/>
     </row>
     <row r="398" spans="2:8" ht="19.5">
       <c r="B398" s="43"/>
-      <c r="C398" s="46"/>
+      <c r="C398" s="40"/>
       <c r="D398" s="103"/>
-      <c r="E398" s="45"/>
+      <c r="E398" s="39"/>
       <c r="F398" s="39"/>
       <c r="G398" s="39"/>
       <c r="H398" s="41"/>
     </row>
     <row r="399" spans="2:8" ht="19.5">
       <c r="B399" s="43"/>
-      <c r="C399" s="44"/>
-      <c r="D399" s="103"/>
-      <c r="E399" s="45"/>
-      <c r="F399" s="39"/>
+      <c r="C399" s="42"/>
+      <c r="D399" s="104"/>
+      <c r="E399" s="39"/>
+      <c r="F399" s="47"/>
       <c r="G399" s="39"/>
       <c r="H399" s="41"/>
     </row>
     <row r="400" spans="2:8" ht="19.5">
       <c r="B400" s="43"/>
       <c r="C400" s="44"/>
-      <c r="D400" s="105"/>
+      <c r="D400" s="103"/>
       <c r="E400" s="45"/>
-      <c r="F400" s="39"/>
+      <c r="F400" s="42"/>
       <c r="G400" s="39"/>
       <c r="H400" s="41"/>
     </row>
@@ -23312,7 +23421,7 @@
       <c r="C401" s="44"/>
       <c r="D401" s="103"/>
       <c r="E401" s="45"/>
-      <c r="F401" s="48"/>
+      <c r="F401" s="39"/>
       <c r="G401" s="39"/>
       <c r="H401" s="41"/>
     </row>
@@ -23320,7 +23429,7 @@
       <c r="B402" s="43"/>
       <c r="C402" s="44"/>
       <c r="D402" s="103"/>
-      <c r="E402" s="45"/>
+      <c r="E402" s="39"/>
       <c r="F402" s="39"/>
       <c r="G402" s="39"/>
       <c r="H402" s="41"/>
@@ -23329,25 +23438,25 @@
       <c r="B403" s="43"/>
       <c r="C403" s="44"/>
       <c r="D403" s="103"/>
-      <c r="E403" s="45"/>
+      <c r="E403" s="39"/>
       <c r="F403" s="39"/>
       <c r="G403" s="39"/>
       <c r="H403" s="41"/>
     </row>
     <row r="404" spans="2:8" ht="19.5">
       <c r="B404" s="43"/>
-      <c r="C404" s="40"/>
+      <c r="C404" s="46"/>
       <c r="D404" s="103"/>
-      <c r="E404" s="39"/>
+      <c r="E404" s="45"/>
       <c r="F404" s="39"/>
       <c r="G404" s="39"/>
       <c r="H404" s="41"/>
     </row>
     <row r="405" spans="2:8" ht="19.5">
       <c r="B405" s="43"/>
-      <c r="C405" s="42"/>
-      <c r="D405" s="104"/>
-      <c r="E405" s="39"/>
+      <c r="C405" s="44"/>
+      <c r="D405" s="103"/>
+      <c r="E405" s="45"/>
       <c r="F405" s="39"/>
       <c r="G405" s="39"/>
       <c r="H405" s="41"/>
@@ -23355,7 +23464,7 @@
     <row r="406" spans="2:8" ht="19.5">
       <c r="B406" s="43"/>
       <c r="C406" s="44"/>
-      <c r="D406" s="103"/>
+      <c r="D406" s="105"/>
       <c r="E406" s="45"/>
       <c r="F406" s="39"/>
       <c r="G406" s="39"/>
@@ -23366,7 +23475,7 @@
       <c r="C407" s="44"/>
       <c r="D407" s="103"/>
       <c r="E407" s="45"/>
-      <c r="F407" s="39"/>
+      <c r="F407" s="48"/>
       <c r="G407" s="39"/>
       <c r="H407" s="41"/>
     </row>
@@ -23374,7 +23483,7 @@
       <c r="B408" s="43"/>
       <c r="C408" s="44"/>
       <c r="D408" s="103"/>
-      <c r="E408" s="39"/>
+      <c r="E408" s="45"/>
       <c r="F408" s="39"/>
       <c r="G408" s="39"/>
       <c r="H408" s="41"/>
@@ -23383,25 +23492,25 @@
       <c r="B409" s="43"/>
       <c r="C409" s="44"/>
       <c r="D409" s="103"/>
-      <c r="E409" s="39"/>
+      <c r="E409" s="45"/>
       <c r="F409" s="39"/>
       <c r="G409" s="39"/>
       <c r="H409" s="41"/>
     </row>
     <row r="410" spans="2:8" ht="19.5">
       <c r="B410" s="43"/>
-      <c r="C410" s="46"/>
+      <c r="C410" s="40"/>
       <c r="D410" s="103"/>
-      <c r="E410" s="45"/>
+      <c r="E410" s="39"/>
       <c r="F410" s="39"/>
       <c r="G410" s="39"/>
       <c r="H410" s="41"/>
     </row>
     <row r="411" spans="2:8" ht="19.5">
       <c r="B411" s="43"/>
-      <c r="C411" s="44"/>
-      <c r="D411" s="103"/>
-      <c r="E411" s="45"/>
+      <c r="C411" s="42"/>
+      <c r="D411" s="104"/>
+      <c r="E411" s="39"/>
       <c r="F411" s="39"/>
       <c r="G411" s="39"/>
       <c r="H411" s="41"/>
@@ -23409,7 +23518,7 @@
     <row r="412" spans="2:8" ht="19.5">
       <c r="B412" s="43"/>
       <c r="C412" s="44"/>
-      <c r="D412" s="105"/>
+      <c r="D412" s="103"/>
       <c r="E412" s="45"/>
       <c r="F412" s="39"/>
       <c r="G412" s="39"/>
@@ -23419,7 +23528,7 @@
       <c r="B413" s="43"/>
       <c r="C413" s="44"/>
       <c r="D413" s="103"/>
-      <c r="E413" s="39"/>
+      <c r="E413" s="45"/>
       <c r="F413" s="39"/>
       <c r="G413" s="39"/>
       <c r="H413" s="41"/>
@@ -23435,37 +23544,37 @@
     </row>
     <row r="415" spans="2:8" ht="19.5">
       <c r="B415" s="43"/>
-      <c r="C415" s="42"/>
+      <c r="C415" s="44"/>
       <c r="D415" s="103"/>
       <c r="E415" s="39"/>
       <c r="F415" s="39"/>
       <c r="G415" s="39"/>
       <c r="H415" s="41"/>
     </row>
-    <row r="416" spans="2:8" ht="18.75">
+    <row r="416" spans="2:8" ht="19.5">
       <c r="B416" s="43"/>
-      <c r="C416" s="39"/>
-      <c r="D416" s="106"/>
-      <c r="E416" s="39"/>
-      <c r="F416" s="42"/>
+      <c r="C416" s="46"/>
+      <c r="D416" s="103"/>
+      <c r="E416" s="45"/>
+      <c r="F416" s="39"/>
       <c r="G416" s="39"/>
       <c r="H416" s="41"/>
     </row>
     <row r="417" spans="2:8" ht="19.5">
       <c r="B417" s="43"/>
-      <c r="C417" s="40"/>
+      <c r="C417" s="44"/>
       <c r="D417" s="103"/>
-      <c r="E417" s="39"/>
-      <c r="F417" s="42"/>
+      <c r="E417" s="45"/>
+      <c r="F417" s="39"/>
       <c r="G417" s="39"/>
       <c r="H417" s="41"/>
     </row>
     <row r="418" spans="2:8" ht="19.5">
       <c r="B418" s="43"/>
-      <c r="C418" s="42"/>
-      <c r="D418" s="104"/>
-      <c r="E418" s="39"/>
-      <c r="F418" s="42"/>
+      <c r="C418" s="44"/>
+      <c r="D418" s="105"/>
+      <c r="E418" s="45"/>
+      <c r="F418" s="39"/>
       <c r="G418" s="39"/>
       <c r="H418" s="41"/>
     </row>
@@ -23473,8 +23582,8 @@
       <c r="B419" s="43"/>
       <c r="C419" s="44"/>
       <c r="D419" s="103"/>
-      <c r="E419" s="45"/>
-      <c r="F419" s="42"/>
+      <c r="E419" s="39"/>
+      <c r="F419" s="39"/>
       <c r="G419" s="39"/>
       <c r="H419" s="41"/>
     </row>
@@ -23482,53 +23591,53 @@
       <c r="B420" s="43"/>
       <c r="C420" s="44"/>
       <c r="D420" s="103"/>
-      <c r="E420" s="45"/>
+      <c r="E420" s="39"/>
       <c r="F420" s="39"/>
       <c r="G420" s="39"/>
       <c r="H420" s="41"/>
     </row>
     <row r="421" spans="2:8" ht="19.5">
       <c r="B421" s="43"/>
-      <c r="C421" s="44"/>
+      <c r="C421" s="42"/>
       <c r="D421" s="103"/>
       <c r="E421" s="39"/>
       <c r="F421" s="39"/>
       <c r="G421" s="39"/>
       <c r="H421" s="41"/>
     </row>
-    <row r="422" spans="2:8" ht="19.5">
+    <row r="422" spans="2:8" ht="18.75">
       <c r="B422" s="43"/>
-      <c r="C422" s="44"/>
-      <c r="D422" s="103"/>
+      <c r="C422" s="39"/>
+      <c r="D422" s="106"/>
       <c r="E422" s="39"/>
-      <c r="F422" s="39"/>
+      <c r="F422" s="42"/>
       <c r="G422" s="39"/>
       <c r="H422" s="41"/>
     </row>
     <row r="423" spans="2:8" ht="19.5">
       <c r="B423" s="43"/>
-      <c r="C423" s="46"/>
+      <c r="C423" s="40"/>
       <c r="D423" s="103"/>
-      <c r="E423" s="45"/>
-      <c r="F423" s="39"/>
+      <c r="E423" s="39"/>
+      <c r="F423" s="42"/>
       <c r="G423" s="39"/>
       <c r="H423" s="41"/>
     </row>
     <row r="424" spans="2:8" ht="19.5">
       <c r="B424" s="43"/>
-      <c r="C424" s="44"/>
-      <c r="D424" s="103"/>
-      <c r="E424" s="45"/>
-      <c r="F424" s="39"/>
+      <c r="C424" s="42"/>
+      <c r="D424" s="104"/>
+      <c r="E424" s="39"/>
+      <c r="F424" s="42"/>
       <c r="G424" s="39"/>
       <c r="H424" s="41"/>
     </row>
     <row r="425" spans="2:8" ht="19.5">
       <c r="B425" s="43"/>
       <c r="C425" s="44"/>
-      <c r="D425" s="105"/>
+      <c r="D425" s="103"/>
       <c r="E425" s="45"/>
-      <c r="F425" s="39"/>
+      <c r="F425" s="42"/>
       <c r="G425" s="39"/>
       <c r="H425" s="41"/>
     </row>
@@ -23545,7 +23654,7 @@
       <c r="B427" s="43"/>
       <c r="C427" s="44"/>
       <c r="D427" s="103"/>
-      <c r="E427" s="45"/>
+      <c r="E427" s="39"/>
       <c r="F427" s="39"/>
       <c r="G427" s="39"/>
       <c r="H427" s="41"/>
@@ -23561,16 +23670,16 @@
     </row>
     <row r="429" spans="2:8" ht="19.5">
       <c r="B429" s="43"/>
-      <c r="C429" s="44"/>
+      <c r="C429" s="46"/>
       <c r="D429" s="103"/>
-      <c r="E429" s="39"/>
-      <c r="F429" s="49"/>
+      <c r="E429" s="45"/>
+      <c r="F429" s="39"/>
       <c r="G429" s="39"/>
       <c r="H429" s="41"/>
     </row>
     <row r="430" spans="2:8" ht="19.5">
       <c r="B430" s="43"/>
-      <c r="C430" s="46"/>
+      <c r="C430" s="44"/>
       <c r="D430" s="103"/>
       <c r="E430" s="45"/>
       <c r="F430" s="39"/>
@@ -23580,7 +23689,7 @@
     <row r="431" spans="2:8" ht="19.5">
       <c r="B431" s="43"/>
       <c r="C431" s="44"/>
-      <c r="D431" s="103"/>
+      <c r="D431" s="105"/>
       <c r="E431" s="45"/>
       <c r="F431" s="39"/>
       <c r="G431" s="39"/>
@@ -23589,13 +23698,13 @@
     <row r="432" spans="2:8" ht="19.5">
       <c r="B432" s="43"/>
       <c r="C432" s="44"/>
-      <c r="D432" s="105"/>
+      <c r="D432" s="103"/>
       <c r="E432" s="45"/>
       <c r="F432" s="39"/>
       <c r="G432" s="39"/>
       <c r="H432" s="41"/>
     </row>
-    <row r="433" spans="1:8" ht="19.5">
+    <row r="433" spans="2:8" ht="19.5">
       <c r="B433" s="43"/>
       <c r="C433" s="44"/>
       <c r="D433" s="103"/>
@@ -23604,61 +23713,61 @@
       <c r="G433" s="39"/>
       <c r="H433" s="41"/>
     </row>
-    <row r="434" spans="1:8" ht="19.5">
+    <row r="434" spans="2:8" ht="19.5">
       <c r="B434" s="43"/>
       <c r="C434" s="44"/>
       <c r="D434" s="103"/>
-      <c r="E434" s="45"/>
+      <c r="E434" s="39"/>
       <c r="F434" s="39"/>
       <c r="G434" s="39"/>
       <c r="H434" s="41"/>
     </row>
-    <row r="435" spans="1:8" ht="19.5">
+    <row r="435" spans="2:8" ht="19.5">
       <c r="B435" s="43"/>
       <c r="C435" s="44"/>
       <c r="D435" s="103"/>
       <c r="E435" s="39"/>
-      <c r="F435" s="39"/>
+      <c r="F435" s="49"/>
       <c r="G435" s="39"/>
       <c r="H435" s="41"/>
     </row>
-    <row r="436" spans="1:8" ht="19.5">
+    <row r="436" spans="2:8" ht="19.5">
       <c r="B436" s="43"/>
-      <c r="C436" s="44"/>
+      <c r="C436" s="46"/>
       <c r="D436" s="103"/>
-      <c r="E436" s="39"/>
-      <c r="F436" s="49"/>
+      <c r="E436" s="45"/>
+      <c r="F436" s="39"/>
       <c r="G436" s="39"/>
       <c r="H436" s="41"/>
     </row>
-    <row r="437" spans="1:8" ht="19.5">
+    <row r="437" spans="2:8" ht="19.5">
       <c r="B437" s="43"/>
-      <c r="C437" s="46"/>
+      <c r="C437" s="44"/>
       <c r="D437" s="103"/>
       <c r="E437" s="45"/>
       <c r="F437" s="39"/>
       <c r="G437" s="39"/>
       <c r="H437" s="41"/>
     </row>
-    <row r="438" spans="1:8" ht="19.5">
+    <row r="438" spans="2:8" ht="19.5">
       <c r="B438" s="43"/>
       <c r="C438" s="44"/>
-      <c r="D438" s="103"/>
+      <c r="D438" s="105"/>
       <c r="E438" s="45"/>
       <c r="F438" s="39"/>
       <c r="G438" s="39"/>
       <c r="H438" s="41"/>
     </row>
-    <row r="439" spans="1:8" ht="19.5">
+    <row r="439" spans="2:8" ht="19.5">
       <c r="B439" s="43"/>
       <c r="C439" s="44"/>
-      <c r="D439" s="105"/>
+      <c r="D439" s="103"/>
       <c r="E439" s="45"/>
       <c r="F439" s="39"/>
       <c r="G439" s="39"/>
       <c r="H439" s="41"/>
     </row>
-    <row r="440" spans="1:8" ht="19.5">
+    <row r="440" spans="2:8" ht="19.5">
       <c r="B440" s="43"/>
       <c r="C440" s="44"/>
       <c r="D440" s="103"/>
@@ -23667,76 +23776,72 @@
       <c r="G440" s="39"/>
       <c r="H440" s="41"/>
     </row>
-    <row r="441" spans="1:8" ht="19.5">
+    <row r="441" spans="2:8" ht="19.5">
       <c r="B441" s="43"/>
       <c r="C441" s="44"/>
       <c r="D441" s="103"/>
-      <c r="E441" s="45"/>
+      <c r="E441" s="39"/>
       <c r="F441" s="39"/>
       <c r="G441" s="39"/>
       <c r="H441" s="41"/>
     </row>
-    <row r="442" spans="1:8" ht="19.5">
+    <row r="442" spans="2:8" ht="19.5">
       <c r="B442" s="43"/>
       <c r="C442" s="44"/>
       <c r="D442" s="103"/>
       <c r="E442" s="39"/>
-      <c r="F442" s="39"/>
+      <c r="F442" s="49"/>
       <c r="G442" s="39"/>
       <c r="H442" s="41"/>
     </row>
-    <row r="443" spans="1:8" ht="19.5">
+    <row r="443" spans="2:8" ht="19.5">
       <c r="B443" s="43"/>
-      <c r="C443" s="44"/>
+      <c r="C443" s="46"/>
       <c r="D443" s="103"/>
-      <c r="E443" s="39"/>
+      <c r="E443" s="45"/>
       <c r="F443" s="39"/>
       <c r="G443" s="39"/>
       <c r="H443" s="41"/>
     </row>
-    <row r="444" spans="1:8" ht="19.5">
+    <row r="444" spans="2:8" ht="19.5">
       <c r="B444" s="43"/>
-      <c r="C444" s="46"/>
+      <c r="C444" s="44"/>
       <c r="D444" s="103"/>
       <c r="E444" s="45"/>
       <c r="F444" s="39"/>
       <c r="G444" s="39"/>
       <c r="H444" s="41"/>
     </row>
-    <row r="445" spans="1:8" ht="19.5">
-      <c r="A445" s="39"/>
+    <row r="445" spans="2:8" ht="19.5">
       <c r="B445" s="43"/>
       <c r="C445" s="44"/>
-      <c r="D445" s="103"/>
+      <c r="D445" s="105"/>
       <c r="E445" s="45"/>
       <c r="F445" s="39"/>
       <c r="G445" s="39"/>
       <c r="H445" s="41"/>
     </row>
-    <row r="446" spans="1:8" ht="19.5">
-      <c r="A446" s="39"/>
+    <row r="446" spans="2:8" ht="19.5">
       <c r="B446" s="43"/>
       <c r="C446" s="44"/>
-      <c r="D446" s="105"/>
+      <c r="D446" s="103"/>
       <c r="E446" s="45"/>
       <c r="F446" s="39"/>
       <c r="G446" s="39"/>
       <c r="H446" s="41"/>
     </row>
-    <row r="447" spans="1:8" ht="19.5">
-      <c r="A447" s="39"/>
+    <row r="447" spans="2:8" ht="19.5">
       <c r="B447" s="43"/>
-      <c r="C447" s="50"/>
+      <c r="C447" s="44"/>
       <c r="D447" s="103"/>
-      <c r="E447" s="39"/>
+      <c r="E447" s="45"/>
       <c r="F447" s="39"/>
       <c r="G447" s="39"/>
       <c r="H447" s="41"/>
     </row>
-    <row r="448" spans="1:8" ht="19.5">
-      <c r="A448" s="39"/>
+    <row r="448" spans="2:8" ht="19.5">
       <c r="B448" s="43"/>
-      <c r="C448" s="50"/>
+      <c r="C448" s="44"/>
       <c r="D448" s="103"/>
       <c r="E448" s="39"/>
       <c r="F448" s="39"/>
@@ -23744,9 +23849,8 @@
       <c r="H448" s="41"/>
     </row>
     <row r="449" spans="1:8" ht="19.5">
-      <c r="A449" s="39"/>
       <c r="B449" s="43"/>
-      <c r="C449" s="50"/>
+      <c r="C449" s="44"/>
       <c r="D449" s="103"/>
       <c r="E449" s="39"/>
       <c r="F449" s="39"/>
@@ -23754,11 +23858,10 @@
       <c r="H449" s="41"/>
     </row>
     <row r="450" spans="1:8" ht="19.5">
-      <c r="A450" s="39"/>
       <c r="B450" s="43"/>
-      <c r="C450" s="50"/>
+      <c r="C450" s="46"/>
       <c r="D450" s="103"/>
-      <c r="E450" s="39"/>
+      <c r="E450" s="45"/>
       <c r="F450" s="39"/>
       <c r="G450" s="39"/>
       <c r="H450" s="41"/>
@@ -23768,7 +23871,7 @@
       <c r="B451" s="43"/>
       <c r="C451" s="44"/>
       <c r="D451" s="103"/>
-      <c r="E451" s="39"/>
+      <c r="E451" s="45"/>
       <c r="F451" s="39"/>
       <c r="G451" s="39"/>
       <c r="H451" s="41"/>
@@ -23777,79 +23880,79 @@
       <c r="A452" s="39"/>
       <c r="B452" s="43"/>
       <c r="C452" s="44"/>
-      <c r="D452" s="103"/>
-      <c r="E452" s="39"/>
-      <c r="F452" s="49"/>
+      <c r="D452" s="105"/>
+      <c r="E452" s="45"/>
+      <c r="F452" s="39"/>
       <c r="G452" s="39"/>
       <c r="H452" s="41"/>
     </row>
     <row r="453" spans="1:8" ht="19.5">
-      <c r="A453" s="42"/>
+      <c r="A453" s="39"/>
       <c r="B453" s="43"/>
-      <c r="C453" s="44"/>
+      <c r="C453" s="50"/>
       <c r="D453" s="103"/>
-      <c r="E453" s="51"/>
-      <c r="F453" s="49"/>
-      <c r="G453" s="41"/>
+      <c r="E453" s="39"/>
+      <c r="F453" s="39"/>
+      <c r="G453" s="39"/>
       <c r="H453" s="41"/>
     </row>
     <row r="454" spans="1:8" ht="19.5">
-      <c r="A454" s="42"/>
+      <c r="A454" s="39"/>
       <c r="B454" s="43"/>
-      <c r="C454" s="44"/>
+      <c r="C454" s="50"/>
       <c r="D454" s="103"/>
-      <c r="E454" s="51"/>
-      <c r="F454" s="52"/>
-      <c r="G454" s="41"/>
+      <c r="E454" s="39"/>
+      <c r="F454" s="39"/>
+      <c r="G454" s="39"/>
       <c r="H454" s="41"/>
     </row>
     <row r="455" spans="1:8" ht="19.5">
-      <c r="A455" s="42"/>
+      <c r="A455" s="39"/>
       <c r="B455" s="43"/>
-      <c r="C455" s="44"/>
+      <c r="C455" s="50"/>
       <c r="D455" s="103"/>
-      <c r="E455" s="51"/>
-      <c r="F455" s="41"/>
-      <c r="G455" s="41"/>
+      <c r="E455" s="39"/>
+      <c r="F455" s="39"/>
+      <c r="G455" s="39"/>
       <c r="H455" s="41"/>
     </row>
     <row r="456" spans="1:8" ht="19.5">
-      <c r="A456" s="42"/>
+      <c r="A456" s="39"/>
       <c r="B456" s="43"/>
-      <c r="C456" s="46"/>
+      <c r="C456" s="50"/>
       <c r="D456" s="103"/>
-      <c r="E456" s="51"/>
-      <c r="F456" s="41"/>
-      <c r="G456" s="41"/>
+      <c r="E456" s="39"/>
+      <c r="F456" s="39"/>
+      <c r="G456" s="39"/>
       <c r="H456" s="41"/>
     </row>
     <row r="457" spans="1:8" ht="19.5">
-      <c r="A457" s="42"/>
+      <c r="A457" s="39"/>
       <c r="B457" s="43"/>
       <c r="C457" s="44"/>
       <c r="D457" s="103"/>
-      <c r="E457" s="51"/>
-      <c r="F457" s="41"/>
-      <c r="G457" s="41"/>
+      <c r="E457" s="39"/>
+      <c r="F457" s="39"/>
+      <c r="G457" s="39"/>
       <c r="H457" s="41"/>
     </row>
     <row r="458" spans="1:8" ht="19.5">
-      <c r="A458" s="42"/>
+      <c r="A458" s="39"/>
       <c r="B458" s="43"/>
       <c r="C458" s="44"/>
       <c r="D458" s="103"/>
-      <c r="E458" s="45"/>
-      <c r="F458" s="41"/>
-      <c r="G458" s="41"/>
+      <c r="E458" s="39"/>
+      <c r="F458" s="49"/>
+      <c r="G458" s="39"/>
       <c r="H458" s="41"/>
     </row>
     <row r="459" spans="1:8" ht="19.5">
       <c r="A459" s="42"/>
       <c r="B459" s="43"/>
-      <c r="C459" s="50"/>
+      <c r="C459" s="44"/>
       <c r="D459" s="103"/>
-      <c r="E459" s="45"/>
-      <c r="F459" s="41"/>
+      <c r="E459" s="51"/>
+      <c r="F459" s="49"/>
       <c r="G459" s="41"/>
       <c r="H459" s="41"/>
     </row>
@@ -23858,55 +23961,55 @@
       <c r="B460" s="43"/>
       <c r="C460" s="44"/>
       <c r="D460" s="103"/>
-      <c r="E460" s="45"/>
-      <c r="F460" s="41"/>
+      <c r="E460" s="51"/>
+      <c r="F460" s="52"/>
       <c r="G460" s="41"/>
       <c r="H460" s="41"/>
     </row>
     <row r="461" spans="1:8" ht="19.5">
       <c r="A461" s="42"/>
       <c r="B461" s="43"/>
-      <c r="C461" s="50"/>
+      <c r="C461" s="44"/>
       <c r="D461" s="103"/>
-      <c r="E461" s="45"/>
+      <c r="E461" s="51"/>
       <c r="F461" s="41"/>
       <c r="G461" s="41"/>
       <c r="H461" s="41"/>
     </row>
     <row r="462" spans="1:8" ht="19.5">
       <c r="A462" s="42"/>
-      <c r="B462" s="41"/>
-      <c r="C462" s="44"/>
+      <c r="B462" s="43"/>
+      <c r="C462" s="46"/>
       <c r="D462" s="103"/>
-      <c r="E462" s="45"/>
+      <c r="E462" s="51"/>
       <c r="F462" s="41"/>
       <c r="G462" s="41"/>
       <c r="H462" s="41"/>
     </row>
     <row r="463" spans="1:8" ht="19.5">
       <c r="A463" s="42"/>
-      <c r="B463" s="41"/>
+      <c r="B463" s="43"/>
       <c r="C463" s="44"/>
       <c r="D463" s="103"/>
-      <c r="E463" s="45"/>
+      <c r="E463" s="51"/>
       <c r="F463" s="41"/>
       <c r="G463" s="41"/>
       <c r="H463" s="41"/>
     </row>
     <row r="464" spans="1:8" ht="19.5">
       <c r="A464" s="42"/>
-      <c r="B464" s="41"/>
+      <c r="B464" s="43"/>
       <c r="C464" s="44"/>
       <c r="D464" s="103"/>
-      <c r="E464" s="51"/>
+      <c r="E464" s="45"/>
       <c r="F464" s="41"/>
       <c r="G464" s="41"/>
       <c r="H464" s="41"/>
     </row>
     <row r="465" spans="1:8" ht="19.5">
       <c r="A465" s="42"/>
-      <c r="B465" s="41"/>
-      <c r="C465" s="44"/>
+      <c r="B465" s="43"/>
+      <c r="C465" s="50"/>
       <c r="D465" s="103"/>
       <c r="E465" s="45"/>
       <c r="F465" s="41"/>
@@ -23915,8 +24018,8 @@
     </row>
     <row r="466" spans="1:8" ht="19.5">
       <c r="A466" s="42"/>
-      <c r="B466" s="41"/>
-      <c r="C466" s="46"/>
+      <c r="B466" s="43"/>
+      <c r="C466" s="44"/>
       <c r="D466" s="103"/>
       <c r="E466" s="45"/>
       <c r="F466" s="41"/>
@@ -23925,10 +24028,10 @@
     </row>
     <row r="467" spans="1:8" ht="19.5">
       <c r="A467" s="42"/>
-      <c r="B467" s="41"/>
-      <c r="C467" s="44"/>
-      <c r="D467" s="104"/>
-      <c r="E467" s="53"/>
+      <c r="B467" s="43"/>
+      <c r="C467" s="50"/>
+      <c r="D467" s="103"/>
+      <c r="E467" s="45"/>
       <c r="F467" s="41"/>
       <c r="G467" s="41"/>
       <c r="H467" s="41"/>
@@ -23946,7 +24049,7 @@
     <row r="469" spans="1:8" ht="19.5">
       <c r="A469" s="42"/>
       <c r="B469" s="41"/>
-      <c r="C469" s="50"/>
+      <c r="C469" s="44"/>
       <c r="D469" s="103"/>
       <c r="E469" s="45"/>
       <c r="F469" s="41"/>
@@ -23956,9 +24059,9 @@
     <row r="470" spans="1:8" ht="19.5">
       <c r="A470" s="42"/>
       <c r="B470" s="41"/>
-      <c r="C470" s="50"/>
+      <c r="C470" s="44"/>
       <c r="D470" s="103"/>
-      <c r="E470" s="45"/>
+      <c r="E470" s="51"/>
       <c r="F470" s="41"/>
       <c r="G470" s="41"/>
       <c r="H470" s="41"/>
@@ -23966,9 +24069,9 @@
     <row r="471" spans="1:8" ht="19.5">
       <c r="A471" s="42"/>
       <c r="B471" s="41"/>
-      <c r="C471" s="42"/>
-      <c r="D471" s="104"/>
-      <c r="E471" s="53"/>
+      <c r="C471" s="44"/>
+      <c r="D471" s="103"/>
+      <c r="E471" s="45"/>
       <c r="F471" s="41"/>
       <c r="G471" s="41"/>
       <c r="H471" s="41"/>
@@ -23976,7 +24079,7 @@
     <row r="472" spans="1:8" ht="19.5">
       <c r="A472" s="42"/>
       <c r="B472" s="41"/>
-      <c r="C472" s="44"/>
+      <c r="C472" s="46"/>
       <c r="D472" s="103"/>
       <c r="E472" s="45"/>
       <c r="F472" s="41"/>
@@ -23986,9 +24089,9 @@
     <row r="473" spans="1:8" ht="19.5">
       <c r="A473" s="42"/>
       <c r="B473" s="41"/>
-      <c r="C473" s="50"/>
-      <c r="D473" s="103"/>
-      <c r="E473" s="45"/>
+      <c r="C473" s="44"/>
+      <c r="D473" s="104"/>
+      <c r="E473" s="53"/>
       <c r="F473" s="41"/>
       <c r="G473" s="41"/>
       <c r="H473" s="41"/>
@@ -24006,9 +24109,9 @@
     <row r="475" spans="1:8" ht="19.5">
       <c r="A475" s="42"/>
       <c r="B475" s="41"/>
-      <c r="C475" s="44"/>
-      <c r="D475" s="104"/>
-      <c r="E475" s="53"/>
+      <c r="C475" s="50"/>
+      <c r="D475" s="103"/>
+      <c r="E475" s="45"/>
       <c r="F475" s="41"/>
       <c r="G475" s="41"/>
       <c r="H475" s="41"/>
@@ -24016,7 +24119,7 @@
     <row r="476" spans="1:8" ht="19.5">
       <c r="A476" s="42"/>
       <c r="B476" s="41"/>
-      <c r="C476" s="44"/>
+      <c r="C476" s="50"/>
       <c r="D476" s="103"/>
       <c r="E476" s="45"/>
       <c r="F476" s="41"/>
@@ -24026,9 +24129,9 @@
     <row r="477" spans="1:8" ht="19.5">
       <c r="A477" s="42"/>
       <c r="B477" s="41"/>
-      <c r="C477" s="44"/>
-      <c r="D477" s="103"/>
-      <c r="E477" s="45"/>
+      <c r="C477" s="42"/>
+      <c r="D477" s="104"/>
+      <c r="E477" s="53"/>
       <c r="F477" s="41"/>
       <c r="G477" s="41"/>
       <c r="H477" s="41"/>
@@ -24036,7 +24139,7 @@
     <row r="478" spans="1:8" ht="19.5">
       <c r="A478" s="42"/>
       <c r="B478" s="41"/>
-      <c r="C478" s="46"/>
+      <c r="C478" s="44"/>
       <c r="D478" s="103"/>
       <c r="E478" s="45"/>
       <c r="F478" s="41"/>
@@ -24046,7 +24149,7 @@
     <row r="479" spans="1:8" ht="19.5">
       <c r="A479" s="42"/>
       <c r="B479" s="41"/>
-      <c r="C479" s="44"/>
+      <c r="C479" s="50"/>
       <c r="D479" s="103"/>
       <c r="E479" s="45"/>
       <c r="F479" s="41"/>
@@ -24059,16 +24162,16 @@
       <c r="C480" s="44"/>
       <c r="D480" s="103"/>
       <c r="E480" s="45"/>
-      <c r="F480" s="49"/>
+      <c r="F480" s="41"/>
       <c r="G480" s="41"/>
       <c r="H480" s="41"/>
     </row>
     <row r="481" spans="1:8" ht="19.5">
       <c r="A481" s="42"/>
       <c r="B481" s="41"/>
-      <c r="C481" s="50"/>
-      <c r="D481" s="103"/>
-      <c r="E481" s="45"/>
+      <c r="C481" s="44"/>
+      <c r="D481" s="104"/>
+      <c r="E481" s="53"/>
       <c r="F481" s="41"/>
       <c r="G481" s="41"/>
       <c r="H481" s="41"/>
@@ -24076,7 +24179,7 @@
     <row r="482" spans="1:8" ht="19.5">
       <c r="A482" s="42"/>
       <c r="B482" s="41"/>
-      <c r="C482" s="50"/>
+      <c r="C482" s="44"/>
       <c r="D482" s="103"/>
       <c r="E482" s="45"/>
       <c r="F482" s="41"/>
@@ -24086,121 +24189,121 @@
     <row r="483" spans="1:8" ht="19.5">
       <c r="A483" s="42"/>
       <c r="B483" s="41"/>
-      <c r="C483" s="42"/>
+      <c r="C483" s="44"/>
       <c r="D483" s="103"/>
       <c r="E483" s="45"/>
-      <c r="F483" s="42"/>
+      <c r="F483" s="41"/>
       <c r="G483" s="41"/>
       <c r="H483" s="41"/>
     </row>
     <row r="484" spans="1:8" ht="19.5">
       <c r="A484" s="42"/>
       <c r="B484" s="41"/>
-      <c r="C484" s="44"/>
+      <c r="C484" s="46"/>
       <c r="D484" s="103"/>
-      <c r="E484" s="54"/>
-      <c r="F484" s="55"/>
+      <c r="E484" s="45"/>
+      <c r="F484" s="41"/>
       <c r="G484" s="41"/>
       <c r="H484" s="41"/>
     </row>
     <row r="485" spans="1:8" ht="19.5">
       <c r="A485" s="42"/>
       <c r="B485" s="41"/>
-      <c r="C485" s="50"/>
+      <c r="C485" s="44"/>
       <c r="D485" s="103"/>
-      <c r="E485" s="54"/>
-      <c r="F485" s="55"/>
+      <c r="E485" s="45"/>
+      <c r="F485" s="41"/>
       <c r="G485" s="41"/>
       <c r="H485" s="41"/>
     </row>
     <row r="486" spans="1:8" ht="19.5">
-      <c r="A486" s="39"/>
+      <c r="A486" s="42"/>
       <c r="B486" s="41"/>
       <c r="C486" s="44"/>
       <c r="D486" s="103"/>
-      <c r="E486" s="39"/>
+      <c r="E486" s="45"/>
       <c r="F486" s="49"/>
-      <c r="G486" s="39"/>
+      <c r="G486" s="41"/>
       <c r="H486" s="41"/>
     </row>
     <row r="487" spans="1:8" ht="19.5">
-      <c r="A487" s="39"/>
+      <c r="A487" s="42"/>
       <c r="B487" s="41"/>
-      <c r="C487" s="44"/>
+      <c r="C487" s="50"/>
       <c r="D487" s="103"/>
-      <c r="E487" s="39"/>
-      <c r="F487" s="39"/>
-      <c r="G487" s="39"/>
+      <c r="E487" s="45"/>
+      <c r="F487" s="41"/>
+      <c r="G487" s="41"/>
       <c r="H487" s="41"/>
     </row>
     <row r="488" spans="1:8" ht="19.5">
-      <c r="A488" s="39"/>
+      <c r="A488" s="42"/>
       <c r="B488" s="41"/>
-      <c r="C488" s="44"/>
+      <c r="C488" s="50"/>
       <c r="D488" s="103"/>
-      <c r="E488" s="39"/>
-      <c r="F488" s="39"/>
-      <c r="G488" s="39"/>
+      <c r="E488" s="45"/>
+      <c r="F488" s="41"/>
+      <c r="G488" s="41"/>
       <c r="H488" s="41"/>
     </row>
     <row r="489" spans="1:8" ht="19.5">
       <c r="A489" s="42"/>
       <c r="B489" s="41"/>
-      <c r="C489" s="44"/>
+      <c r="C489" s="42"/>
       <c r="D489" s="103"/>
       <c r="E489" s="45"/>
-      <c r="F489" s="41"/>
+      <c r="F489" s="42"/>
       <c r="G489" s="41"/>
       <c r="H489" s="41"/>
     </row>
     <row r="490" spans="1:8" ht="19.5">
       <c r="A490" s="42"/>
       <c r="B490" s="41"/>
-      <c r="C490" s="46"/>
+      <c r="C490" s="44"/>
       <c r="D490" s="103"/>
-      <c r="E490" s="51"/>
-      <c r="F490" s="41"/>
+      <c r="E490" s="54"/>
+      <c r="F490" s="55"/>
       <c r="G490" s="41"/>
       <c r="H490" s="41"/>
     </row>
     <row r="491" spans="1:8" ht="19.5">
       <c r="A491" s="42"/>
       <c r="B491" s="41"/>
-      <c r="C491" s="44"/>
-      <c r="D491" s="104"/>
-      <c r="E491" s="45"/>
-      <c r="F491" s="41"/>
+      <c r="C491" s="50"/>
+      <c r="D491" s="103"/>
+      <c r="E491" s="54"/>
+      <c r="F491" s="55"/>
       <c r="G491" s="41"/>
       <c r="H491" s="41"/>
     </row>
     <row r="492" spans="1:8" ht="19.5">
-      <c r="A492" s="42"/>
+      <c r="A492" s="39"/>
       <c r="B492" s="41"/>
       <c r="C492" s="44"/>
       <c r="D492" s="103"/>
-      <c r="E492" s="45"/>
-      <c r="F492" s="41"/>
-      <c r="G492" s="41"/>
+      <c r="E492" s="39"/>
+      <c r="F492" s="49"/>
+      <c r="G492" s="39"/>
       <c r="H492" s="41"/>
     </row>
     <row r="493" spans="1:8" ht="19.5">
-      <c r="A493" s="42"/>
+      <c r="A493" s="39"/>
       <c r="B493" s="41"/>
       <c r="C493" s="44"/>
       <c r="D493" s="103"/>
-      <c r="E493" s="51"/>
-      <c r="F493" s="41"/>
-      <c r="G493" s="41"/>
+      <c r="E493" s="39"/>
+      <c r="F493" s="39"/>
+      <c r="G493" s="39"/>
       <c r="H493" s="41"/>
     </row>
     <row r="494" spans="1:8" ht="19.5">
-      <c r="A494" s="42"/>
+      <c r="A494" s="39"/>
       <c r="B494" s="41"/>
       <c r="C494" s="44"/>
-      <c r="D494" s="104"/>
-      <c r="E494" s="45"/>
-      <c r="F494" s="41"/>
-      <c r="G494" s="41"/>
+      <c r="D494" s="103"/>
+      <c r="E494" s="39"/>
+      <c r="F494" s="39"/>
+      <c r="G494" s="39"/>
       <c r="H494" s="41"/>
     </row>
     <row r="495" spans="1:8" ht="19.5">
@@ -24216,9 +24319,9 @@
     <row r="496" spans="1:8" ht="19.5">
       <c r="A496" s="42"/>
       <c r="B496" s="41"/>
-      <c r="C496" s="44"/>
+      <c r="C496" s="46"/>
       <c r="D496" s="103"/>
-      <c r="E496" s="45"/>
+      <c r="E496" s="51"/>
       <c r="F496" s="41"/>
       <c r="G496" s="41"/>
       <c r="H496" s="41"/>
@@ -24227,7 +24330,7 @@
       <c r="A497" s="42"/>
       <c r="B497" s="41"/>
       <c r="C497" s="44"/>
-      <c r="D497" s="103"/>
+      <c r="D497" s="104"/>
       <c r="E497" s="45"/>
       <c r="F497" s="41"/>
       <c r="G497" s="41"/>
@@ -24248,7 +24351,7 @@
       <c r="B499" s="41"/>
       <c r="C499" s="44"/>
       <c r="D499" s="103"/>
-      <c r="E499" s="45"/>
+      <c r="E499" s="51"/>
       <c r="F499" s="41"/>
       <c r="G499" s="41"/>
       <c r="H499" s="41"/>
@@ -24257,50 +24360,50 @@
       <c r="A500" s="42"/>
       <c r="B500" s="41"/>
       <c r="C500" s="44"/>
-      <c r="D500" s="103"/>
+      <c r="D500" s="104"/>
       <c r="E500" s="45"/>
-      <c r="F500" s="52"/>
+      <c r="F500" s="41"/>
       <c r="G500" s="41"/>
       <c r="H500" s="41"/>
     </row>
-    <row r="501" spans="1:8" ht="18.75">
-      <c r="A501" s="39"/>
+    <row r="501" spans="1:8" ht="19.5">
+      <c r="A501" s="42"/>
       <c r="B501" s="41"/>
-      <c r="C501" s="39"/>
-      <c r="D501" s="106"/>
-      <c r="E501" s="39"/>
-      <c r="F501" s="39"/>
-      <c r="G501" s="39"/>
+      <c r="C501" s="44"/>
+      <c r="D501" s="103"/>
+      <c r="E501" s="45"/>
+      <c r="F501" s="41"/>
+      <c r="G501" s="41"/>
       <c r="H501" s="41"/>
     </row>
     <row r="502" spans="1:8" ht="19.5">
-      <c r="A502" s="39"/>
+      <c r="A502" s="42"/>
       <c r="B502" s="41"/>
       <c r="C502" s="44"/>
       <c r="D502" s="103"/>
       <c r="E502" s="45"/>
-      <c r="F502" s="49"/>
-      <c r="G502" s="39"/>
+      <c r="F502" s="41"/>
+      <c r="G502" s="41"/>
       <c r="H502" s="41"/>
     </row>
     <row r="503" spans="1:8" ht="19.5">
-      <c r="A503" s="39"/>
+      <c r="A503" s="42"/>
       <c r="B503" s="41"/>
-      <c r="C503" s="46"/>
+      <c r="C503" s="44"/>
       <c r="D503" s="103"/>
-      <c r="E503" s="39"/>
-      <c r="F503" s="39"/>
-      <c r="G503" s="39"/>
+      <c r="E503" s="45"/>
+      <c r="F503" s="41"/>
+      <c r="G503" s="41"/>
       <c r="H503" s="41"/>
     </row>
     <row r="504" spans="1:8" ht="19.5">
-      <c r="A504" s="39"/>
+      <c r="A504" s="42"/>
       <c r="B504" s="41"/>
       <c r="C504" s="44"/>
-      <c r="D504" s="104"/>
+      <c r="D504" s="103"/>
       <c r="E504" s="45"/>
-      <c r="F504" s="39"/>
-      <c r="G504" s="39"/>
+      <c r="F504" s="41"/>
+      <c r="G504" s="41"/>
       <c r="H504" s="41"/>
     </row>
     <row r="505" spans="1:8" ht="19.5">
@@ -24319,56 +24422,56 @@
       <c r="C506" s="44"/>
       <c r="D506" s="103"/>
       <c r="E506" s="45"/>
-      <c r="F506" s="41"/>
+      <c r="F506" s="52"/>
       <c r="G506" s="41"/>
       <c r="H506" s="41"/>
     </row>
-    <row r="507" spans="1:8" ht="19.5">
-      <c r="A507" s="42"/>
+    <row r="507" spans="1:8" ht="18.75">
+      <c r="A507" s="39"/>
       <c r="B507" s="41"/>
-      <c r="C507" s="44"/>
-      <c r="D507" s="103"/>
-      <c r="E507" s="51"/>
-      <c r="F507" s="49"/>
-      <c r="G507" s="41"/>
+      <c r="C507" s="39"/>
+      <c r="D507" s="106"/>
+      <c r="E507" s="39"/>
+      <c r="F507" s="39"/>
+      <c r="G507" s="39"/>
       <c r="H507" s="41"/>
     </row>
     <row r="508" spans="1:8" ht="19.5">
-      <c r="A508" s="42"/>
+      <c r="A508" s="39"/>
       <c r="B508" s="41"/>
       <c r="C508" s="44"/>
       <c r="D508" s="103"/>
       <c r="E508" s="45"/>
       <c r="F508" s="49"/>
-      <c r="G508" s="41"/>
+      <c r="G508" s="39"/>
       <c r="H508" s="41"/>
     </row>
     <row r="509" spans="1:8" ht="19.5">
-      <c r="A509" s="42"/>
+      <c r="A509" s="39"/>
       <c r="B509" s="41"/>
-      <c r="C509" s="44"/>
+      <c r="C509" s="46"/>
       <c r="D509" s="103"/>
-      <c r="E509" s="45"/>
-      <c r="F509" s="41"/>
-      <c r="G509" s="41"/>
+      <c r="E509" s="39"/>
+      <c r="F509" s="39"/>
+      <c r="G509" s="39"/>
       <c r="H509" s="41"/>
     </row>
     <row r="510" spans="1:8" ht="19.5">
-      <c r="A510" s="42"/>
+      <c r="A510" s="39"/>
       <c r="B510" s="41"/>
       <c r="C510" s="44"/>
-      <c r="D510" s="103"/>
+      <c r="D510" s="104"/>
       <c r="E510" s="45"/>
-      <c r="F510" s="41"/>
-      <c r="G510" s="41"/>
+      <c r="F510" s="39"/>
+      <c r="G510" s="39"/>
       <c r="H510" s="41"/>
     </row>
     <row r="511" spans="1:8" ht="19.5">
       <c r="A511" s="42"/>
       <c r="B511" s="41"/>
-      <c r="C511" s="46"/>
+      <c r="C511" s="44"/>
       <c r="D511" s="103"/>
-      <c r="E511" s="51"/>
+      <c r="E511" s="45"/>
       <c r="F511" s="41"/>
       <c r="G511" s="41"/>
       <c r="H511" s="41"/>
@@ -24377,7 +24480,7 @@
       <c r="A512" s="42"/>
       <c r="B512" s="41"/>
       <c r="C512" s="44"/>
-      <c r="D512" s="104"/>
+      <c r="D512" s="103"/>
       <c r="E512" s="45"/>
       <c r="F512" s="41"/>
       <c r="G512" s="41"/>
@@ -24388,18 +24491,18 @@
       <c r="B513" s="41"/>
       <c r="C513" s="44"/>
       <c r="D513" s="103"/>
-      <c r="E513" s="45"/>
-      <c r="F513" s="41"/>
+      <c r="E513" s="51"/>
+      <c r="F513" s="49"/>
       <c r="G513" s="41"/>
       <c r="H513" s="41"/>
     </row>
     <row r="514" spans="1:8" ht="19.5">
       <c r="A514" s="42"/>
       <c r="B514" s="41"/>
-      <c r="C514" s="50"/>
+      <c r="C514" s="44"/>
       <c r="D514" s="103"/>
       <c r="E514" s="45"/>
-      <c r="F514" s="41"/>
+      <c r="F514" s="49"/>
       <c r="G514" s="41"/>
       <c r="H514" s="41"/>
     </row>
@@ -24414,69 +24517,69 @@
       <c r="H515" s="41"/>
     </row>
     <row r="516" spans="1:8" ht="19.5">
-      <c r="A516" s="39"/>
+      <c r="A516" s="42"/>
       <c r="B516" s="41"/>
-      <c r="C516" s="50"/>
+      <c r="C516" s="44"/>
       <c r="D516" s="103"/>
       <c r="E516" s="45"/>
-      <c r="F516" s="39"/>
-      <c r="G516" s="39"/>
+      <c r="F516" s="41"/>
+      <c r="G516" s="41"/>
       <c r="H516" s="41"/>
     </row>
     <row r="517" spans="1:8" ht="19.5">
-      <c r="A517" s="39"/>
-      <c r="B517" s="49"/>
-      <c r="C517" s="50"/>
+      <c r="A517" s="42"/>
+      <c r="B517" s="41"/>
+      <c r="C517" s="46"/>
       <c r="D517" s="103"/>
-      <c r="E517" s="45"/>
-      <c r="F517" s="39"/>
-      <c r="G517" s="39"/>
+      <c r="E517" s="51"/>
+      <c r="F517" s="41"/>
+      <c r="G517" s="41"/>
       <c r="H517" s="41"/>
     </row>
     <row r="518" spans="1:8" ht="19.5">
-      <c r="A518" s="39"/>
-      <c r="B518" s="49"/>
-      <c r="C518" s="50"/>
-      <c r="D518" s="103"/>
+      <c r="A518" s="42"/>
+      <c r="B518" s="41"/>
+      <c r="C518" s="44"/>
+      <c r="D518" s="104"/>
       <c r="E518" s="45"/>
-      <c r="F518" s="49"/>
-      <c r="G518" s="39"/>
+      <c r="F518" s="41"/>
+      <c r="G518" s="41"/>
       <c r="H518" s="41"/>
     </row>
     <row r="519" spans="1:8" ht="19.5">
-      <c r="A519" s="39"/>
-      <c r="B519" s="49"/>
+      <c r="A519" s="42"/>
+      <c r="B519" s="41"/>
       <c r="C519" s="44"/>
       <c r="D519" s="103"/>
       <c r="E519" s="45"/>
-      <c r="F519" s="39"/>
-      <c r="G519" s="39"/>
+      <c r="F519" s="41"/>
+      <c r="G519" s="41"/>
       <c r="H519" s="41"/>
     </row>
     <row r="520" spans="1:8" ht="19.5">
-      <c r="A520" s="39"/>
-      <c r="B520" s="49"/>
-      <c r="C520" s="44"/>
+      <c r="A520" s="42"/>
+      <c r="B520" s="41"/>
+      <c r="C520" s="50"/>
       <c r="D520" s="103"/>
       <c r="E520" s="45"/>
-      <c r="F520" s="39"/>
-      <c r="G520" s="39"/>
+      <c r="F520" s="41"/>
+      <c r="G520" s="41"/>
       <c r="H520" s="41"/>
     </row>
-    <row r="521" spans="1:8" ht="18.75">
-      <c r="A521" s="39"/>
-      <c r="B521" s="49"/>
-      <c r="C521" s="39"/>
-      <c r="D521" s="106"/>
-      <c r="E521" s="39"/>
-      <c r="F521" s="39"/>
-      <c r="G521" s="39"/>
+    <row r="521" spans="1:8" ht="19.5">
+      <c r="A521" s="42"/>
+      <c r="B521" s="41"/>
+      <c r="C521" s="44"/>
+      <c r="D521" s="103"/>
+      <c r="E521" s="45"/>
+      <c r="F521" s="41"/>
+      <c r="G521" s="41"/>
       <c r="H521" s="41"/>
     </row>
     <row r="522" spans="1:8" ht="19.5">
       <c r="A522" s="39"/>
-      <c r="B522" s="49"/>
-      <c r="C522" s="44"/>
+      <c r="B522" s="41"/>
+      <c r="C522" s="50"/>
       <c r="D522" s="103"/>
       <c r="E522" s="45"/>
       <c r="F522" s="39"/>
@@ -24486,9 +24589,9 @@
     <row r="523" spans="1:8" ht="19.5">
       <c r="A523" s="39"/>
       <c r="B523" s="49"/>
-      <c r="C523" s="46"/>
+      <c r="C523" s="50"/>
       <c r="D523" s="103"/>
-      <c r="E523" s="39"/>
+      <c r="E523" s="45"/>
       <c r="F523" s="39"/>
       <c r="G523" s="39"/>
       <c r="H523" s="41"/>
@@ -24496,14 +24599,15 @@
     <row r="524" spans="1:8" ht="19.5">
       <c r="A524" s="39"/>
       <c r="B524" s="49"/>
-      <c r="C524" s="44"/>
-      <c r="D524" s="104"/>
+      <c r="C524" s="50"/>
+      <c r="D524" s="103"/>
       <c r="E524" s="45"/>
-      <c r="F524" s="39"/>
+      <c r="F524" s="49"/>
       <c r="G524" s="39"/>
       <c r="H524" s="41"/>
     </row>
     <row r="525" spans="1:8" ht="19.5">
+      <c r="A525" s="39"/>
       <c r="B525" s="49"/>
       <c r="C525" s="44"/>
       <c r="D525" s="103"/>
@@ -24513,6 +24617,7 @@
       <c r="H525" s="41"/>
     </row>
     <row r="526" spans="1:8" ht="19.5">
+      <c r="A526" s="39"/>
       <c r="B526" s="49"/>
       <c r="C526" s="44"/>
       <c r="D526" s="103"/>
@@ -24521,38 +24626,42 @@
       <c r="G526" s="39"/>
       <c r="H526" s="41"/>
     </row>
-    <row r="527" spans="1:8" ht="19.5">
+    <row r="527" spans="1:8" ht="18.75">
+      <c r="A527" s="39"/>
       <c r="B527" s="49"/>
-      <c r="C527" s="44"/>
-      <c r="D527" s="103"/>
-      <c r="E527" s="45"/>
+      <c r="C527" s="39"/>
+      <c r="D527" s="106"/>
+      <c r="E527" s="39"/>
       <c r="F527" s="39"/>
       <c r="G527" s="39"/>
       <c r="H527" s="41"/>
     </row>
-    <row r="528" spans="1:8" ht="18.75">
+    <row r="528" spans="1:8" ht="19.5">
+      <c r="A528" s="39"/>
       <c r="B528" s="49"/>
-      <c r="C528" s="39"/>
-      <c r="D528" s="106"/>
-      <c r="E528" s="39"/>
+      <c r="C528" s="44"/>
+      <c r="D528" s="103"/>
+      <c r="E528" s="45"/>
       <c r="F528" s="39"/>
       <c r="G528" s="39"/>
       <c r="H528" s="41"/>
     </row>
     <row r="529" spans="1:8" ht="19.5">
+      <c r="A529" s="39"/>
       <c r="B529" s="49"/>
-      <c r="C529" s="44"/>
+      <c r="C529" s="46"/>
       <c r="D529" s="103"/>
-      <c r="E529" s="45"/>
+      <c r="E529" s="39"/>
       <c r="F529" s="39"/>
       <c r="G529" s="39"/>
       <c r="H529" s="41"/>
     </row>
     <row r="530" spans="1:8" ht="19.5">
+      <c r="A530" s="39"/>
       <c r="B530" s="49"/>
-      <c r="C530" s="46"/>
-      <c r="D530" s="103"/>
-      <c r="E530" s="39"/>
+      <c r="C530" s="44"/>
+      <c r="D530" s="104"/>
+      <c r="E530" s="45"/>
       <c r="F530" s="39"/>
       <c r="G530" s="39"/>
       <c r="H530" s="41"/>
@@ -24560,7 +24669,7 @@
     <row r="531" spans="1:8" ht="19.5">
       <c r="B531" s="49"/>
       <c r="C531" s="44"/>
-      <c r="D531" s="104"/>
+      <c r="D531" s="103"/>
       <c r="E531" s="45"/>
       <c r="F531" s="39"/>
       <c r="G531" s="39"/>
@@ -24575,11 +24684,11 @@
       <c r="G532" s="39"/>
       <c r="H532" s="41"/>
     </row>
-    <row r="533" spans="1:8" ht="18.75">
+    <row r="533" spans="1:8" ht="19.5">
       <c r="B533" s="49"/>
-      <c r="C533" s="39"/>
-      <c r="D533" s="106"/>
-      <c r="E533" s="39"/>
+      <c r="C533" s="44"/>
+      <c r="D533" s="103"/>
+      <c r="E533" s="45"/>
       <c r="F533" s="39"/>
       <c r="G533" s="39"/>
       <c r="H533" s="41"/>
@@ -24593,38 +24702,38 @@
       <c r="G534" s="39"/>
       <c r="H534" s="41"/>
     </row>
-    <row r="535" spans="1:8" ht="18.75">
+    <row r="535" spans="1:8" ht="19.5">
       <c r="B535" s="49"/>
-      <c r="C535" s="56"/>
-      <c r="D535" s="106"/>
-      <c r="E535" s="39"/>
+      <c r="C535" s="44"/>
+      <c r="D535" s="103"/>
+      <c r="E535" s="45"/>
       <c r="F535" s="39"/>
       <c r="G535" s="39"/>
       <c r="H535" s="41"/>
     </row>
-    <row r="536" spans="1:8" ht="18.75">
+    <row r="536" spans="1:8" ht="19.5">
       <c r="B536" s="49"/>
-      <c r="C536" s="56"/>
-      <c r="D536" s="106"/>
+      <c r="C536" s="46"/>
+      <c r="D536" s="103"/>
       <c r="E536" s="39"/>
       <c r="F536" s="39"/>
       <c r="G536" s="39"/>
       <c r="H536" s="41"/>
     </row>
-    <row r="537" spans="1:8" ht="18.75">
+    <row r="537" spans="1:8" ht="19.5">
       <c r="B537" s="49"/>
-      <c r="C537" s="39"/>
-      <c r="D537" s="106"/>
-      <c r="E537" s="39"/>
+      <c r="C537" s="44"/>
+      <c r="D537" s="104"/>
+      <c r="E537" s="45"/>
       <c r="F537" s="39"/>
       <c r="G537" s="39"/>
       <c r="H537" s="41"/>
     </row>
-    <row r="538" spans="1:8" ht="18.75">
+    <row r="538" spans="1:8" ht="19.5">
       <c r="B538" s="49"/>
-      <c r="C538" s="39"/>
-      <c r="D538" s="106"/>
-      <c r="E538" s="39"/>
+      <c r="C538" s="44"/>
+      <c r="D538" s="103"/>
+      <c r="E538" s="45"/>
       <c r="F538" s="39"/>
       <c r="G538" s="39"/>
       <c r="H538" s="41"/>
@@ -24634,33 +24743,31 @@
       <c r="C539" s="39"/>
       <c r="D539" s="106"/>
       <c r="E539" s="39"/>
-      <c r="F539" s="42"/>
+      <c r="F539" s="39"/>
       <c r="G539" s="39"/>
       <c r="H539" s="41"/>
     </row>
-    <row r="540" spans="1:8" ht="19.5">
+    <row r="540" spans="1:8" ht="18.75">
       <c r="B540" s="49"/>
-      <c r="C540" s="44"/>
-      <c r="D540" s="103"/>
-      <c r="E540" s="45"/>
-      <c r="F540" s="49"/>
+      <c r="C540" s="39"/>
+      <c r="D540" s="106"/>
+      <c r="E540" s="39"/>
+      <c r="F540" s="39"/>
       <c r="G540" s="39"/>
       <c r="H540" s="41"/>
     </row>
-    <row r="541" spans="1:8" ht="19.5">
-      <c r="A541" s="39"/>
+    <row r="541" spans="1:8" ht="18.75">
       <c r="B541" s="49"/>
-      <c r="C541" s="44"/>
-      <c r="D541" s="103"/>
-      <c r="E541" s="45"/>
+      <c r="C541" s="56"/>
+      <c r="D541" s="106"/>
+      <c r="E541" s="39"/>
       <c r="F541" s="39"/>
       <c r="G541" s="39"/>
       <c r="H541" s="41"/>
     </row>
     <row r="542" spans="1:8" ht="18.75">
-      <c r="A542" s="39"/>
       <c r="B542" s="49"/>
-      <c r="C542" s="39"/>
+      <c r="C542" s="56"/>
       <c r="D542" s="106"/>
       <c r="E542" s="39"/>
       <c r="F542" s="39"/>
@@ -24668,7 +24775,6 @@
       <c r="H542" s="41"/>
     </row>
     <row r="543" spans="1:8" ht="18.75">
-      <c r="A543" s="48"/>
       <c r="B543" s="49"/>
       <c r="C543" s="39"/>
       <c r="D543" s="106"/>
@@ -24678,7 +24784,6 @@
       <c r="H543" s="41"/>
     </row>
     <row r="544" spans="1:8" ht="18.75">
-      <c r="A544" s="48"/>
       <c r="B544" s="49"/>
       <c r="C544" s="39"/>
       <c r="D544" s="106"/>
@@ -24688,80 +24793,78 @@
       <c r="H544" s="41"/>
     </row>
     <row r="545" spans="1:8" ht="18.75">
-      <c r="A545" s="48"/>
       <c r="B545" s="49"/>
       <c r="C545" s="39"/>
       <c r="D545" s="106"/>
       <c r="E545" s="39"/>
-      <c r="F545" s="39"/>
+      <c r="F545" s="42"/>
       <c r="G545" s="39"/>
       <c r="H545" s="41"/>
     </row>
-    <row r="546" spans="1:8" ht="18.75">
-      <c r="A546" s="48"/>
+    <row r="546" spans="1:8" ht="19.5">
       <c r="B546" s="49"/>
       <c r="C546" s="44"/>
-      <c r="D546" s="106"/>
-      <c r="E546" s="39"/>
-      <c r="F546" s="39"/>
+      <c r="D546" s="103"/>
+      <c r="E546" s="45"/>
+      <c r="F546" s="49"/>
       <c r="G546" s="39"/>
       <c r="H546" s="41"/>
     </row>
     <row r="547" spans="1:8" ht="19.5">
-      <c r="A547" s="48"/>
+      <c r="A547" s="39"/>
       <c r="B547" s="49"/>
       <c r="C547" s="44"/>
       <c r="D547" s="103"/>
-      <c r="E547" s="39"/>
+      <c r="E547" s="45"/>
       <c r="F547" s="39"/>
       <c r="G547" s="39"/>
       <c r="H547" s="41"/>
     </row>
-    <row r="548" spans="1:8" ht="19.5">
-      <c r="A548" s="48"/>
+    <row r="548" spans="1:8" ht="18.75">
+      <c r="A548" s="39"/>
       <c r="B548" s="49"/>
-      <c r="C548" s="44"/>
-      <c r="D548" s="103"/>
+      <c r="C548" s="39"/>
+      <c r="D548" s="106"/>
       <c r="E548" s="39"/>
       <c r="F548" s="39"/>
       <c r="G548" s="39"/>
       <c r="H548" s="41"/>
     </row>
-    <row r="549" spans="1:8" ht="19.5">
+    <row r="549" spans="1:8" ht="18.75">
       <c r="A549" s="48"/>
       <c r="B549" s="49"/>
-      <c r="C549" s="40"/>
-      <c r="D549" s="103"/>
+      <c r="C549" s="39"/>
+      <c r="D549" s="106"/>
       <c r="E549" s="39"/>
       <c r="F549" s="39"/>
       <c r="G549" s="39"/>
       <c r="H549" s="41"/>
     </row>
-    <row r="550" spans="1:8" ht="19.5">
+    <row r="550" spans="1:8" ht="18.75">
       <c r="A550" s="48"/>
       <c r="B550" s="49"/>
-      <c r="C550" s="44"/>
-      <c r="D550" s="103"/>
+      <c r="C550" s="39"/>
+      <c r="D550" s="106"/>
       <c r="E550" s="39"/>
       <c r="F550" s="39"/>
       <c r="G550" s="39"/>
       <c r="H550" s="41"/>
     </row>
-    <row r="551" spans="1:8" ht="19.5">
+    <row r="551" spans="1:8" ht="18.75">
       <c r="A551" s="48"/>
       <c r="B551" s="49"/>
-      <c r="C551" s="44"/>
-      <c r="D551" s="103"/>
+      <c r="C551" s="39"/>
+      <c r="D551" s="106"/>
       <c r="E551" s="39"/>
       <c r="F551" s="39"/>
       <c r="G551" s="39"/>
       <c r="H551" s="41"/>
     </row>
-    <row r="552" spans="1:8" ht="19.5">
+    <row r="552" spans="1:8" ht="18.75">
       <c r="A552" s="48"/>
       <c r="B552" s="49"/>
       <c r="C552" s="44"/>
-      <c r="D552" s="103"/>
+      <c r="D552" s="106"/>
       <c r="E552" s="39"/>
       <c r="F552" s="39"/>
       <c r="G552" s="39"/>
@@ -24790,7 +24893,7 @@
     <row r="555" spans="1:8" ht="19.5">
       <c r="A555" s="48"/>
       <c r="B555" s="49"/>
-      <c r="C555" s="44"/>
+      <c r="C555" s="40"/>
       <c r="D555" s="103"/>
       <c r="E555" s="39"/>
       <c r="F555" s="39"/>
@@ -24847,61 +24950,61 @@
       <c r="G560" s="39"/>
       <c r="H560" s="41"/>
     </row>
-    <row r="561" spans="1:8" ht="18.75">
+    <row r="561" spans="1:8" ht="19.5">
       <c r="A561" s="48"/>
       <c r="B561" s="49"/>
-      <c r="C561" s="39"/>
-      <c r="D561" s="106"/>
+      <c r="C561" s="44"/>
+      <c r="D561" s="103"/>
       <c r="E561" s="39"/>
       <c r="F561" s="39"/>
       <c r="G561" s="39"/>
       <c r="H561" s="41"/>
     </row>
-    <row r="562" spans="1:8" ht="18.75">
+    <row r="562" spans="1:8" ht="19.5">
       <c r="A562" s="48"/>
       <c r="B562" s="49"/>
-      <c r="C562" s="39"/>
-      <c r="D562" s="106"/>
+      <c r="C562" s="44"/>
+      <c r="D562" s="103"/>
       <c r="E562" s="39"/>
       <c r="F562" s="39"/>
       <c r="G562" s="39"/>
       <c r="H562" s="41"/>
     </row>
-    <row r="563" spans="1:8" ht="18.75">
+    <row r="563" spans="1:8" ht="19.5">
       <c r="A563" s="48"/>
       <c r="B563" s="49"/>
-      <c r="C563" s="39"/>
-      <c r="D563" s="106"/>
+      <c r="C563" s="44"/>
+      <c r="D563" s="103"/>
       <c r="E563" s="39"/>
       <c r="F563" s="39"/>
       <c r="G563" s="39"/>
       <c r="H563" s="41"/>
     </row>
-    <row r="564" spans="1:8" ht="18.75">
+    <row r="564" spans="1:8" ht="19.5">
       <c r="A564" s="48"/>
       <c r="B564" s="49"/>
-      <c r="C564" s="39"/>
-      <c r="D564" s="106"/>
+      <c r="C564" s="44"/>
+      <c r="D564" s="103"/>
       <c r="E564" s="39"/>
       <c r="F564" s="39"/>
       <c r="G564" s="39"/>
       <c r="H564" s="41"/>
     </row>
-    <row r="565" spans="1:8" ht="18.75">
+    <row r="565" spans="1:8" ht="19.5">
       <c r="A565" s="48"/>
       <c r="B565" s="49"/>
-      <c r="C565" s="39"/>
-      <c r="D565" s="106"/>
+      <c r="C565" s="44"/>
+      <c r="D565" s="103"/>
       <c r="E565" s="39"/>
       <c r="F565" s="39"/>
       <c r="G565" s="39"/>
       <c r="H565" s="41"/>
     </row>
-    <row r="566" spans="1:8" ht="18.75">
+    <row r="566" spans="1:8" ht="19.5">
       <c r="A566" s="48"/>
       <c r="B566" s="49"/>
-      <c r="C566" s="39"/>
-      <c r="D566" s="106"/>
+      <c r="C566" s="44"/>
+      <c r="D566" s="103"/>
       <c r="E566" s="39"/>
       <c r="F566" s="39"/>
       <c r="G566" s="39"/>
@@ -24929,7 +25032,7 @@
     </row>
     <row r="569" spans="1:8" ht="18.75">
       <c r="A569" s="48"/>
-      <c r="B569" s="41"/>
+      <c r="B569" s="49"/>
       <c r="C569" s="39"/>
       <c r="D569" s="106"/>
       <c r="E569" s="39"/>
@@ -24939,7 +25042,7 @@
     </row>
     <row r="570" spans="1:8" ht="18.75">
       <c r="A570" s="48"/>
-      <c r="B570" s="41"/>
+      <c r="B570" s="49"/>
       <c r="C570" s="39"/>
       <c r="D570" s="106"/>
       <c r="E570" s="39"/>
@@ -24949,7 +25052,7 @@
     </row>
     <row r="571" spans="1:8" ht="18.75">
       <c r="A571" s="48"/>
-      <c r="B571" s="41"/>
+      <c r="B571" s="49"/>
       <c r="C571" s="39"/>
       <c r="D571" s="106"/>
       <c r="E571" s="39"/>
@@ -24959,7 +25062,7 @@
     </row>
     <row r="572" spans="1:8" ht="18.75">
       <c r="A572" s="48"/>
-      <c r="B572" s="41"/>
+      <c r="B572" s="49"/>
       <c r="C572" s="39"/>
       <c r="D572" s="106"/>
       <c r="E572" s="39"/>
@@ -24969,7 +25072,7 @@
     </row>
     <row r="573" spans="1:8" ht="18.75">
       <c r="A573" s="48"/>
-      <c r="B573" s="41"/>
+      <c r="B573" s="49"/>
       <c r="C573" s="39"/>
       <c r="D573" s="106"/>
       <c r="E573" s="39"/>
@@ -24979,7 +25082,7 @@
     </row>
     <row r="574" spans="1:8" ht="18.75">
       <c r="A574" s="48"/>
-      <c r="B574" s="41"/>
+      <c r="B574" s="49"/>
       <c r="C574" s="39"/>
       <c r="D574" s="106"/>
       <c r="E574" s="39"/>
@@ -24997,11 +25100,11 @@
       <c r="G575" s="39"/>
       <c r="H575" s="41"/>
     </row>
-    <row r="576" spans="1:8" ht="19.5">
+    <row r="576" spans="1:8" ht="18.75">
       <c r="A576" s="48"/>
       <c r="B576" s="41"/>
       <c r="C576" s="39"/>
-      <c r="D576" s="104"/>
+      <c r="D576" s="106"/>
       <c r="E576" s="39"/>
       <c r="F576" s="39"/>
       <c r="G576" s="39"/>
@@ -25017,11 +25120,11 @@
       <c r="G577" s="39"/>
       <c r="H577" s="41"/>
     </row>
-    <row r="578" spans="1:8" ht="19.5">
+    <row r="578" spans="1:8" ht="18.75">
       <c r="A578" s="48"/>
       <c r="B578" s="41"/>
       <c r="C578" s="39"/>
-      <c r="D578" s="104"/>
+      <c r="D578" s="106"/>
       <c r="E578" s="39"/>
       <c r="F578" s="39"/>
       <c r="G578" s="39"/>
@@ -25037,11 +25140,11 @@
       <c r="G579" s="39"/>
       <c r="H579" s="41"/>
     </row>
-    <row r="580" spans="1:8" ht="19.5">
+    <row r="580" spans="1:8" ht="18.75">
       <c r="A580" s="48"/>
       <c r="B580" s="41"/>
       <c r="C580" s="39"/>
-      <c r="D580" s="104"/>
+      <c r="D580" s="106"/>
       <c r="E580" s="39"/>
       <c r="F580" s="39"/>
       <c r="G580" s="39"/>
@@ -25057,21 +25160,21 @@
       <c r="G581" s="39"/>
       <c r="H581" s="41"/>
     </row>
-    <row r="582" spans="1:8" ht="18.75">
+    <row r="582" spans="1:8" ht="19.5">
       <c r="A582" s="48"/>
       <c r="B582" s="41"/>
       <c r="C582" s="39"/>
-      <c r="D582" s="106"/>
+      <c r="D582" s="104"/>
       <c r="E582" s="39"/>
       <c r="F582" s="39"/>
       <c r="G582" s="39"/>
       <c r="H582" s="41"/>
     </row>
-    <row r="583" spans="1:8" ht="19.5">
+    <row r="583" spans="1:8" ht="18.75">
       <c r="A583" s="48"/>
       <c r="B583" s="41"/>
       <c r="C583" s="39"/>
-      <c r="D583" s="104"/>
+      <c r="D583" s="106"/>
       <c r="E583" s="39"/>
       <c r="F583" s="39"/>
       <c r="G583" s="39"/>
@@ -25097,11 +25200,11 @@
       <c r="G585" s="39"/>
       <c r="H585" s="41"/>
     </row>
-    <row r="586" spans="1:8" ht="18.75">
+    <row r="586" spans="1:8" ht="19.5">
       <c r="A586" s="48"/>
       <c r="B586" s="41"/>
       <c r="C586" s="39"/>
-      <c r="D586" s="106"/>
+      <c r="D586" s="104"/>
       <c r="E586" s="39"/>
       <c r="F586" s="39"/>
       <c r="G586" s="39"/>
@@ -25127,21 +25230,21 @@
       <c r="G588" s="39"/>
       <c r="H588" s="41"/>
     </row>
-    <row r="589" spans="1:8" ht="18.75">
+    <row r="589" spans="1:8" ht="19.5">
       <c r="A589" s="48"/>
       <c r="B589" s="41"/>
       <c r="C589" s="39"/>
-      <c r="D589" s="106"/>
+      <c r="D589" s="104"/>
       <c r="E589" s="39"/>
       <c r="F589" s="39"/>
       <c r="G589" s="39"/>
       <c r="H589" s="41"/>
     </row>
-    <row r="590" spans="1:8" ht="18.75">
+    <row r="590" spans="1:8" ht="19.5">
       <c r="A590" s="48"/>
       <c r="B590" s="41"/>
       <c r="C590" s="39"/>
-      <c r="D590" s="106"/>
+      <c r="D590" s="104"/>
       <c r="E590" s="39"/>
       <c r="F590" s="39"/>
       <c r="G590" s="39"/>
@@ -25159,17 +25262,17 @@
     </row>
     <row r="592" spans="1:8" ht="18.75">
       <c r="A592" s="48"/>
-      <c r="B592" s="49"/>
+      <c r="B592" s="41"/>
       <c r="C592" s="39"/>
       <c r="D592" s="106"/>
       <c r="E592" s="39"/>
-      <c r="F592" s="49"/>
+      <c r="F592" s="39"/>
       <c r="G592" s="39"/>
       <c r="H592" s="41"/>
     </row>
     <row r="593" spans="1:8" ht="18.75">
       <c r="A593" s="48"/>
-      <c r="B593" s="49"/>
+      <c r="B593" s="41"/>
       <c r="C593" s="39"/>
       <c r="D593" s="106"/>
       <c r="E593" s="39"/>
@@ -25179,7 +25282,7 @@
     </row>
     <row r="594" spans="1:8" ht="18.75">
       <c r="A594" s="48"/>
-      <c r="B594" s="49"/>
+      <c r="B594" s="41"/>
       <c r="C594" s="39"/>
       <c r="D594" s="106"/>
       <c r="E594" s="39"/>
@@ -25189,7 +25292,7 @@
     </row>
     <row r="595" spans="1:8" ht="18.75">
       <c r="A595" s="48"/>
-      <c r="B595" s="49"/>
+      <c r="B595" s="41"/>
       <c r="C595" s="39"/>
       <c r="D595" s="106"/>
       <c r="E595" s="39"/>
@@ -25199,7 +25302,7 @@
     </row>
     <row r="596" spans="1:8" ht="18.75">
       <c r="A596" s="48"/>
-      <c r="B596" s="49"/>
+      <c r="B596" s="41"/>
       <c r="C596" s="39"/>
       <c r="D596" s="106"/>
       <c r="E596" s="39"/>
@@ -25209,7 +25312,7 @@
     </row>
     <row r="597" spans="1:8" ht="18.75">
       <c r="A597" s="48"/>
-      <c r="B597" s="49"/>
+      <c r="B597" s="41"/>
       <c r="C597" s="39"/>
       <c r="D597" s="106"/>
       <c r="E597" s="39"/>
@@ -25223,7 +25326,7 @@
       <c r="C598" s="39"/>
       <c r="D598" s="106"/>
       <c r="E598" s="39"/>
-      <c r="F598" s="39"/>
+      <c r="F598" s="49"/>
       <c r="G598" s="39"/>
       <c r="H598" s="41"/>
     </row>
@@ -25290,7 +25393,7 @@
     <row r="605" spans="1:8" ht="18.75">
       <c r="A605" s="48"/>
       <c r="B605" s="49"/>
-      <c r="C605" s="56"/>
+      <c r="C605" s="39"/>
       <c r="D605" s="106"/>
       <c r="E605" s="39"/>
       <c r="F605" s="39"/>
@@ -25350,7 +25453,7 @@
     <row r="611" spans="1:8" ht="18.75">
       <c r="A611" s="48"/>
       <c r="B611" s="49"/>
-      <c r="C611" s="39"/>
+      <c r="C611" s="56"/>
       <c r="D611" s="106"/>
       <c r="E611" s="39"/>
       <c r="F611" s="39"/>
@@ -25487,19 +25590,79 @@
       <c r="G624" s="39"/>
       <c r="H624" s="41"/>
     </row>
-    <row r="625" spans="1:8" ht="19.5">
+    <row r="625" spans="1:8" ht="18.75">
       <c r="A625" s="48"/>
       <c r="B625" s="49"/>
-      <c r="C625" s="44"/>
-      <c r="D625" s="103"/>
+      <c r="C625" s="39"/>
+      <c r="D625" s="106"/>
       <c r="E625" s="39"/>
       <c r="F625" s="39"/>
       <c r="G625" s="39"/>
       <c r="H625" s="41"/>
     </row>
+    <row r="626" spans="1:8" ht="18.75">
+      <c r="A626" s="48"/>
+      <c r="B626" s="49"/>
+      <c r="C626" s="39"/>
+      <c r="D626" s="106"/>
+      <c r="E626" s="39"/>
+      <c r="F626" s="39"/>
+      <c r="G626" s="39"/>
+      <c r="H626" s="41"/>
+    </row>
+    <row r="627" spans="1:8" ht="18.75">
+      <c r="A627" s="48"/>
+      <c r="B627" s="49"/>
+      <c r="C627" s="39"/>
+      <c r="D627" s="106"/>
+      <c r="E627" s="39"/>
+      <c r="F627" s="39"/>
+      <c r="G627" s="39"/>
+      <c r="H627" s="41"/>
+    </row>
+    <row r="628" spans="1:8" ht="18.75">
+      <c r="A628" s="48"/>
+      <c r="B628" s="49"/>
+      <c r="C628" s="39"/>
+      <c r="D628" s="106"/>
+      <c r="E628" s="39"/>
+      <c r="F628" s="39"/>
+      <c r="G628" s="39"/>
+      <c r="H628" s="41"/>
+    </row>
+    <row r="629" spans="1:8" ht="18.75">
+      <c r="A629" s="48"/>
+      <c r="B629" s="49"/>
+      <c r="C629" s="39"/>
+      <c r="D629" s="106"/>
+      <c r="E629" s="39"/>
+      <c r="F629" s="39"/>
+      <c r="G629" s="39"/>
+      <c r="H629" s="41"/>
+    </row>
+    <row r="630" spans="1:8" ht="18.75">
+      <c r="A630" s="48"/>
+      <c r="B630" s="49"/>
+      <c r="C630" s="39"/>
+      <c r="D630" s="106"/>
+      <c r="E630" s="39"/>
+      <c r="F630" s="39"/>
+      <c r="G630" s="39"/>
+      <c r="H630" s="41"/>
+    </row>
+    <row r="631" spans="1:8" ht="19.5">
+      <c r="A631" s="48"/>
+      <c r="B631" s="49"/>
+      <c r="C631" s="44"/>
+      <c r="D631" s="103"/>
+      <c r="E631" s="39"/>
+      <c r="F631" s="39"/>
+      <c r="G631" s="39"/>
+      <c r="H631" s="41"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB and Documents/tblQuestion_day2.xlsx
+++ b/DB and Documents/tblQuestion_day2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-450" windowWidth="19320" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-450" windowWidth="19320" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="tbFormMain" sheetId="6" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Option1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="413">
   <si>
     <t>Qdesceng</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>frmcombobox</t>
-  </si>
-  <si>
-    <t>frmdate</t>
   </si>
   <si>
     <t>q2_0</t>
@@ -368,9 +365,6 @@
     <t>m22</t>
   </si>
   <si>
-    <t>PROMPT: Could you please show me where the ball that was delivered to your household yesterday is currently located?(</t>
-  </si>
-  <si>
     <t>MZKvj Avcbvi Lvbvq †h ‡Ljbv ejwU †`Iqv n‡qwQj eZ©gv‡b ‡mUv ‡Kvb ¯’v‡b ivLv Av‡Q AbyMÖnc~e©K Avgv‡K  †m¯’vbUv †`Lv‡Z cv‡ib wK?</t>
   </si>
   <si>
@@ -1157,9 +1151,6 @@
     <t>q3_14Other</t>
   </si>
   <si>
-    <t>2.4.K (cÖkœ Kiæb) Avcbvi g‡Z, Avcbvi ev”Pv (Uv‡M©U wkïi bvg ejyb) MZ24 N›Uvq KZ evi Avgv‡`i †`qv GB †Ljbv ej w`‡q ‡Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">cwigv‡b gvSvwi ai‡bi </t>
     </r>
@@ -1351,16 +1342,29 @@
   <si>
     <t>q2_10_77</t>
   </si>
+  <si>
+    <t>2.4.K (cÖkœ Kiæb) Avcbvi g‡Z, Avcbvi ev”Pv (Uv‡M©U wkïi bvg ejyb) MZ 24 N›Uvq KZ evi Avgv‡`i †`qv GB †Ljbv ej w`‡q ‡Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e)</t>
+  </si>
+  <si>
+    <t>PROMPT: Could you please show me where the ball that was delivered to your household yesterday is currently located?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="222"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1561,7 +1565,7 @@
       <name val="SutonnyMJ"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1571,6 +1575,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,485 +1615,671 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="126" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="126" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="126" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="126" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="126" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="126" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="126" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="126" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="126" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="126" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="126" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="330">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="126"/>
+    <cellStyle name="Normal 10 2" xfId="230"/>
+    <cellStyle name="Normal 10 3" xfId="269"/>
+    <cellStyle name="Normal 10 4" xfId="301"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
     <cellStyle name="Normal 2 2 10" xfId="86"/>
@@ -2145,18 +2347,60 @@
     <cellStyle name="Normal 5 10" xfId="24"/>
     <cellStyle name="Normal 5 10 2" xfId="85"/>
     <cellStyle name="Normal 5 10 2 2" xfId="158"/>
+    <cellStyle name="Normal 5 10 2 2 2" xfId="260"/>
+    <cellStyle name="Normal 5 10 2 2 3" xfId="297"/>
+    <cellStyle name="Normal 5 10 2 2 4" xfId="329"/>
+    <cellStyle name="Normal 5 10 2 3" xfId="209"/>
+    <cellStyle name="Normal 5 10 2 4" xfId="203"/>
+    <cellStyle name="Normal 5 10 2 5" xfId="204"/>
     <cellStyle name="Normal 5 10 3" xfId="149"/>
     <cellStyle name="Normal 5 10 4" xfId="136"/>
+    <cellStyle name="Normal 5 10 4 2" xfId="239"/>
+    <cellStyle name="Normal 5 10 4 3" xfId="277"/>
+    <cellStyle name="Normal 5 10 4 4" xfId="309"/>
     <cellStyle name="Normal 5 11" xfId="92"/>
     <cellStyle name="Normal 5 11 2" xfId="137"/>
+    <cellStyle name="Normal 5 11 2 2" xfId="240"/>
+    <cellStyle name="Normal 5 11 2 3" xfId="278"/>
+    <cellStyle name="Normal 5 11 2 4" xfId="310"/>
+    <cellStyle name="Normal 5 11 3" xfId="214"/>
+    <cellStyle name="Normal 5 11 4" xfId="228"/>
+    <cellStyle name="Normal 5 11 5" xfId="179"/>
     <cellStyle name="Normal 5 12" xfId="99"/>
     <cellStyle name="Normal 5 12 2" xfId="138"/>
+    <cellStyle name="Normal 5 12 2 2" xfId="241"/>
+    <cellStyle name="Normal 5 12 2 3" xfId="279"/>
+    <cellStyle name="Normal 5 12 2 4" xfId="311"/>
+    <cellStyle name="Normal 5 12 3" xfId="216"/>
+    <cellStyle name="Normal 5 12 4" xfId="159"/>
+    <cellStyle name="Normal 5 12 5" xfId="207"/>
     <cellStyle name="Normal 5 13" xfId="106"/>
     <cellStyle name="Normal 5 13 2" xfId="139"/>
+    <cellStyle name="Normal 5 13 2 2" xfId="242"/>
+    <cellStyle name="Normal 5 13 2 3" xfId="280"/>
+    <cellStyle name="Normal 5 13 2 4" xfId="312"/>
+    <cellStyle name="Normal 5 13 3" xfId="220"/>
+    <cellStyle name="Normal 5 13 4" xfId="262"/>
+    <cellStyle name="Normal 5 13 5" xfId="298"/>
     <cellStyle name="Normal 5 14" xfId="113"/>
     <cellStyle name="Normal 5 14 2" xfId="140"/>
+    <cellStyle name="Normal 5 14 2 2" xfId="243"/>
+    <cellStyle name="Normal 5 14 2 3" xfId="281"/>
+    <cellStyle name="Normal 5 14 2 4" xfId="313"/>
+    <cellStyle name="Normal 5 14 3" xfId="224"/>
+    <cellStyle name="Normal 5 14 4" xfId="264"/>
+    <cellStyle name="Normal 5 14 5" xfId="299"/>
     <cellStyle name="Normal 5 15" xfId="120"/>
     <cellStyle name="Normal 5 15 2" xfId="141"/>
+    <cellStyle name="Normal 5 15 2 2" xfId="244"/>
+    <cellStyle name="Normal 5 15 2 3" xfId="282"/>
+    <cellStyle name="Normal 5 15 2 4" xfId="314"/>
+    <cellStyle name="Normal 5 15 3" xfId="227"/>
+    <cellStyle name="Normal 5 15 4" xfId="267"/>
+    <cellStyle name="Normal 5 15 5" xfId="300"/>
+    <cellStyle name="Normal 5 16" xfId="160"/>
+    <cellStyle name="Normal 5 17" xfId="231"/>
+    <cellStyle name="Normal 5 18" xfId="193"/>
     <cellStyle name="Normal 5 2" xfId="7"/>
     <cellStyle name="Normal 5 2 10" xfId="95"/>
     <cellStyle name="Normal 5 2 11" xfId="102"/>
@@ -2164,9 +2408,18 @@
     <cellStyle name="Normal 5 2 13" xfId="116"/>
     <cellStyle name="Normal 5 2 14" xfId="123"/>
     <cellStyle name="Normal 5 2 15" xfId="128"/>
+    <cellStyle name="Normal 5 2 15 2" xfId="232"/>
+    <cellStyle name="Normal 5 2 15 3" xfId="270"/>
+    <cellStyle name="Normal 5 2 15 4" xfId="302"/>
     <cellStyle name="Normal 5 2 2" xfId="27"/>
     <cellStyle name="Normal 5 2 2 2" xfId="30"/>
     <cellStyle name="Normal 5 2 2 3" xfId="150"/>
+    <cellStyle name="Normal 5 2 2 3 2" xfId="253"/>
+    <cellStyle name="Normal 5 2 2 3 3" xfId="290"/>
+    <cellStyle name="Normal 5 2 2 3 4" xfId="322"/>
+    <cellStyle name="Normal 5 2 2 4" xfId="178"/>
+    <cellStyle name="Normal 5 2 2 5" xfId="184"/>
+    <cellStyle name="Normal 5 2 2 6" xfId="226"/>
     <cellStyle name="Normal 5 2 3" xfId="38"/>
     <cellStyle name="Normal 5 2 4" xfId="46"/>
     <cellStyle name="Normal 5 2 5" xfId="53"/>
@@ -2175,44 +2428,158 @@
     <cellStyle name="Normal 5 2 8" xfId="74"/>
     <cellStyle name="Normal 5 2 9" xfId="88"/>
     <cellStyle name="Normal 5 3" xfId="11"/>
+    <cellStyle name="Normal 5 3 10" xfId="165"/>
+    <cellStyle name="Normal 5 3 11" xfId="185"/>
+    <cellStyle name="Normal 5 3 12" xfId="219"/>
     <cellStyle name="Normal 5 3 2" xfId="16"/>
     <cellStyle name="Normal 5 3 2 2" xfId="142"/>
+    <cellStyle name="Normal 5 3 2 2 2" xfId="245"/>
+    <cellStyle name="Normal 5 3 2 2 3" xfId="283"/>
+    <cellStyle name="Normal 5 3 2 2 4" xfId="315"/>
+    <cellStyle name="Normal 5 3 2 3" xfId="170"/>
+    <cellStyle name="Normal 5 3 2 4" xfId="218"/>
+    <cellStyle name="Normal 5 3 2 5" xfId="263"/>
     <cellStyle name="Normal 5 3 3" xfId="18"/>
     <cellStyle name="Normal 5 3 3 2" xfId="143"/>
+    <cellStyle name="Normal 5 3 3 2 2" xfId="246"/>
+    <cellStyle name="Normal 5 3 3 2 3" xfId="284"/>
+    <cellStyle name="Normal 5 3 3 2 4" xfId="316"/>
+    <cellStyle name="Normal 5 3 3 3" xfId="172"/>
+    <cellStyle name="Normal 5 3 3 4" xfId="212"/>
+    <cellStyle name="Normal 5 3 3 5" xfId="210"/>
     <cellStyle name="Normal 5 3 4" xfId="20"/>
     <cellStyle name="Normal 5 3 4 2" xfId="145"/>
+    <cellStyle name="Normal 5 3 4 2 2" xfId="248"/>
+    <cellStyle name="Normal 5 3 4 2 3" xfId="286"/>
+    <cellStyle name="Normal 5 3 4 2 4" xfId="318"/>
+    <cellStyle name="Normal 5 3 4 3" xfId="174"/>
+    <cellStyle name="Normal 5 3 4 4" xfId="206"/>
+    <cellStyle name="Normal 5 3 4 5" xfId="194"/>
     <cellStyle name="Normal 5 3 5" xfId="21"/>
     <cellStyle name="Normal 5 3 5 2" xfId="146"/>
+    <cellStyle name="Normal 5 3 5 2 2" xfId="249"/>
+    <cellStyle name="Normal 5 3 5 2 3" xfId="287"/>
+    <cellStyle name="Normal 5 3 5 2 4" xfId="319"/>
+    <cellStyle name="Normal 5 3 5 3" xfId="175"/>
+    <cellStyle name="Normal 5 3 5 4" xfId="211"/>
+    <cellStyle name="Normal 5 3 5 5" xfId="221"/>
     <cellStyle name="Normal 5 3 6" xfId="22"/>
     <cellStyle name="Normal 5 3 6 2" xfId="147"/>
+    <cellStyle name="Normal 5 3 6 2 2" xfId="250"/>
+    <cellStyle name="Normal 5 3 6 2 3" xfId="288"/>
+    <cellStyle name="Normal 5 3 6 2 4" xfId="320"/>
+    <cellStyle name="Normal 5 3 6 3" xfId="176"/>
+    <cellStyle name="Normal 5 3 6 4" xfId="205"/>
+    <cellStyle name="Normal 5 3 6 5" xfId="191"/>
     <cellStyle name="Normal 5 3 7" xfId="23"/>
     <cellStyle name="Normal 5 3 7 2" xfId="148"/>
+    <cellStyle name="Normal 5 3 7 2 2" xfId="251"/>
+    <cellStyle name="Normal 5 3 7 2 3" xfId="289"/>
+    <cellStyle name="Normal 5 3 7 2 4" xfId="321"/>
+    <cellStyle name="Normal 5 3 7 3" xfId="177"/>
+    <cellStyle name="Normal 5 3 7 4" xfId="200"/>
+    <cellStyle name="Normal 5 3 7 5" xfId="188"/>
     <cellStyle name="Normal 5 3 8" xfId="35"/>
     <cellStyle name="Normal 5 3 8 2" xfId="151"/>
+    <cellStyle name="Normal 5 3 8 2 2" xfId="254"/>
+    <cellStyle name="Normal 5 3 8 2 3" xfId="291"/>
+    <cellStyle name="Normal 5 3 8 2 4" xfId="323"/>
+    <cellStyle name="Normal 5 3 8 3" xfId="182"/>
+    <cellStyle name="Normal 5 3 8 4" xfId="252"/>
+    <cellStyle name="Normal 5 3 8 5" xfId="201"/>
     <cellStyle name="Normal 5 3 9" xfId="129"/>
+    <cellStyle name="Normal 5 3 9 2" xfId="233"/>
+    <cellStyle name="Normal 5 3 9 3" xfId="271"/>
+    <cellStyle name="Normal 5 3 9 4" xfId="303"/>
     <cellStyle name="Normal 5 4" xfId="14"/>
     <cellStyle name="Normal 5 4 2" xfId="43"/>
     <cellStyle name="Normal 5 4 2 2" xfId="152"/>
+    <cellStyle name="Normal 5 4 2 2 2" xfId="255"/>
+    <cellStyle name="Normal 5 4 2 2 3" xfId="292"/>
+    <cellStyle name="Normal 5 4 2 2 4" xfId="324"/>
+    <cellStyle name="Normal 5 4 2 3" xfId="187"/>
+    <cellStyle name="Normal 5 4 2 4" xfId="181"/>
+    <cellStyle name="Normal 5 4 2 5" xfId="186"/>
     <cellStyle name="Normal 5 4 3" xfId="130"/>
+    <cellStyle name="Normal 5 4 3 2" xfId="234"/>
+    <cellStyle name="Normal 5 4 3 3" xfId="272"/>
+    <cellStyle name="Normal 5 4 3 4" xfId="304"/>
+    <cellStyle name="Normal 5 4 4" xfId="168"/>
+    <cellStyle name="Normal 5 4 5" xfId="225"/>
+    <cellStyle name="Normal 5 4 6" xfId="268"/>
     <cellStyle name="Normal 5 5" xfId="12"/>
     <cellStyle name="Normal 5 5 2" xfId="50"/>
     <cellStyle name="Normal 5 5 2 2" xfId="153"/>
+    <cellStyle name="Normal 5 5 2 2 2" xfId="256"/>
+    <cellStyle name="Normal 5 5 2 2 3" xfId="293"/>
+    <cellStyle name="Normal 5 5 2 2 4" xfId="325"/>
+    <cellStyle name="Normal 5 5 2 3" xfId="190"/>
+    <cellStyle name="Normal 5 5 2 4" xfId="213"/>
+    <cellStyle name="Normal 5 5 2 5" xfId="161"/>
     <cellStyle name="Normal 5 5 3" xfId="131"/>
+    <cellStyle name="Normal 5 5 3 2" xfId="235"/>
+    <cellStyle name="Normal 5 5 3 3" xfId="273"/>
+    <cellStyle name="Normal 5 5 3 4" xfId="305"/>
+    <cellStyle name="Normal 5 5 4" xfId="166"/>
+    <cellStyle name="Normal 5 5 5" xfId="180"/>
+    <cellStyle name="Normal 5 5 6" xfId="189"/>
     <cellStyle name="Normal 5 6" xfId="13"/>
     <cellStyle name="Normal 5 6 2" xfId="57"/>
     <cellStyle name="Normal 5 6 2 2" xfId="154"/>
+    <cellStyle name="Normal 5 6 2 2 2" xfId="257"/>
+    <cellStyle name="Normal 5 6 2 2 3" xfId="294"/>
+    <cellStyle name="Normal 5 6 2 2 4" xfId="326"/>
+    <cellStyle name="Normal 5 6 2 3" xfId="195"/>
+    <cellStyle name="Normal 5 6 2 4" xfId="197"/>
+    <cellStyle name="Normal 5 6 2 5" xfId="163"/>
     <cellStyle name="Normal 5 6 3" xfId="132"/>
+    <cellStyle name="Normal 5 6 3 2" xfId="236"/>
+    <cellStyle name="Normal 5 6 3 3" xfId="274"/>
+    <cellStyle name="Normal 5 6 3 4" xfId="306"/>
+    <cellStyle name="Normal 5 6 4" xfId="167"/>
+    <cellStyle name="Normal 5 6 5" xfId="229"/>
+    <cellStyle name="Normal 5 6 6" xfId="217"/>
     <cellStyle name="Normal 5 7" xfId="15"/>
     <cellStyle name="Normal 5 7 2" xfId="64"/>
     <cellStyle name="Normal 5 7 2 2" xfId="155"/>
+    <cellStyle name="Normal 5 7 2 2 2" xfId="258"/>
+    <cellStyle name="Normal 5 7 2 2 3" xfId="295"/>
+    <cellStyle name="Normal 5 7 2 2 4" xfId="327"/>
+    <cellStyle name="Normal 5 7 2 3" xfId="198"/>
+    <cellStyle name="Normal 5 7 2 4" xfId="222"/>
+    <cellStyle name="Normal 5 7 2 5" xfId="265"/>
     <cellStyle name="Normal 5 7 3" xfId="133"/>
+    <cellStyle name="Normal 5 7 3 2" xfId="237"/>
+    <cellStyle name="Normal 5 7 3 3" xfId="275"/>
+    <cellStyle name="Normal 5 7 3 4" xfId="307"/>
+    <cellStyle name="Normal 5 7 4" xfId="169"/>
+    <cellStyle name="Normal 5 7 5" xfId="223"/>
+    <cellStyle name="Normal 5 7 6" xfId="266"/>
     <cellStyle name="Normal 5 8" xfId="17"/>
     <cellStyle name="Normal 5 8 2" xfId="71"/>
     <cellStyle name="Normal 5 8 2 2" xfId="156"/>
+    <cellStyle name="Normal 5 8 2 2 2" xfId="259"/>
+    <cellStyle name="Normal 5 8 2 2 3" xfId="296"/>
+    <cellStyle name="Normal 5 8 2 2 4" xfId="328"/>
+    <cellStyle name="Normal 5 8 2 3" xfId="202"/>
+    <cellStyle name="Normal 5 8 2 4" xfId="199"/>
+    <cellStyle name="Normal 5 8 2 5" xfId="192"/>
     <cellStyle name="Normal 5 8 3" xfId="134"/>
+    <cellStyle name="Normal 5 8 3 2" xfId="238"/>
+    <cellStyle name="Normal 5 8 3 3" xfId="276"/>
+    <cellStyle name="Normal 5 8 3 4" xfId="308"/>
+    <cellStyle name="Normal 5 8 4" xfId="171"/>
+    <cellStyle name="Normal 5 8 5" xfId="215"/>
+    <cellStyle name="Normal 5 8 6" xfId="261"/>
     <cellStyle name="Normal 5 9" xfId="19"/>
     <cellStyle name="Normal 5 9 2" xfId="79"/>
     <cellStyle name="Normal 5 9 3" xfId="144"/>
+    <cellStyle name="Normal 5 9 3 2" xfId="247"/>
+    <cellStyle name="Normal 5 9 3 3" xfId="285"/>
+    <cellStyle name="Normal 5 9 3 4" xfId="317"/>
+    <cellStyle name="Normal 5 9 4" xfId="173"/>
+    <cellStyle name="Normal 5 9 5" xfId="164"/>
+    <cellStyle name="Normal 5 9 6" xfId="183"/>
     <cellStyle name="Normal 6" xfId="9"/>
     <cellStyle name="Normal 6 10" xfId="90"/>
     <cellStyle name="Normal 6 11" xfId="97"/>
@@ -2235,14 +2602,12 @@
     <cellStyle name="Normal 9" xfId="83"/>
     <cellStyle name="Normal 9 2" xfId="157"/>
     <cellStyle name="Normal 9 3" xfId="135"/>
+    <cellStyle name="Normal 9 4" xfId="208"/>
+    <cellStyle name="Normal 9 5" xfId="162"/>
+    <cellStyle name="Normal 9 6" xfId="196"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2321,7 +2686,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2356,7 +2720,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2532,12 +2895,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK143"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2:U65"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2720,7 +3083,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="68" t="s">
         <v>25</v>
@@ -2761,19 +3124,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="100" t="s">
         <v>90</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>91</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="15" t="str">
@@ -2798,7 +3161,7 @@
       <c r="T3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="1" t="str">
+      <c r="U3" s="115" t="str">
         <f t="shared" ref="U3:U65" si="1">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'q11_1','frmcombobox', 'tblMainQues','11.1. Gd Avi G  Ggcøqx AvBwW b¤^i wjLyb','11.1 Enter the FRA employee ID ','','q11_2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -2808,19 +3171,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="68" t="s">
+      <c r="F4" s="100" t="s">
         <v>93</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>94</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="15" t="str">
@@ -2845,9 +3208,9 @@
       <c r="T4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="1" t="str">
+      <c r="U4" s="115" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q11_2','frmdate', 'tblMainQues','11.2 AvR‡Ki ZvwiL (msL¨vq) wjLyb','11.2 Please enter the current day','','q11_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q11_2','frmcombobox', 'tblMainQues','11.2 AvR‡Ki ZvwiL (msL¨vq) wjLyb','11.2 Please enter the current day','','q11_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="5" spans="1:115" s="55" customFormat="1" ht="39">
@@ -2855,19 +3218,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="100" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>97</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="15" t="str">
@@ -2892,7 +3255,7 @@
       <c r="T5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="U5" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('4', 'q11_3','frmsinglechoice', 'tblMainQues','11.3 eZ©gvb gv‡mi bvg (msL¨vq) wjLyb','11.3Please enter the current month','','q11_5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -2902,19 +3265,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="100" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>100</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="15" t="str">
@@ -2939,7 +3302,7 @@
       <c r="T6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="U6" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q11_5','frmtext', 'tblMainQues','11.5 cÖavb DËi`vZvi (Uv‡M©U wkïi gv) bvg wjLyb ','11.5 Name of respondent (target child’s mother)','','q11_6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -2949,19 +3312,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="100" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>103</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="15" t="str">
@@ -2986,7 +3349,7 @@
       <c r="T7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="1" t="str">
+      <c r="U7" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'q11_6','frmtext', 'tblMainQues','11.6 Uv‡M©U wkïi bvg wjLyb','11.6 Name of target child','','m2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -2996,17 +3359,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="15" t="str">
@@ -3031,7 +3394,7 @@
       <c r="T8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="1" t="str">
+      <c r="U8" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'm2','frmmessage', '','†mKkb 2t †Ljbv ej bgybv msMÖn','SECTION 2. SENTINEL TOY SAMPLING','','m20','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -3135,17 +3498,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="51"/>
       <c r="H9" s="48" t="s">
@@ -3169,7 +3532,7 @@
       <c r="T9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="1" t="str">
+      <c r="U9" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'm20','frmmessage', '','‡bvUt GB †mKmb Ges cieZx© †mKmbwU BÛjvB‡b BB mve‡m‡U Gb‡ivjK„Z mKj Lvbvq c~iY Ki‡Z n‡e|','NOTE: This section and the next section will be filled out for all households enrolled in the endline EE subset.','','q2_1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -3279,13 +3642,13 @@
         <v>33</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="51"/>
       <c r="H10" s="15" t="str">
@@ -3310,7 +3673,7 @@
       <c r="T10" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="U10" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q2_1','frmsinglechoice', 'tblMainQues','2.1 (cÖkœ Kiæb) Avcwb MZKvj Avgv‡`i KvQ †_‡K GKwU †Ljbv ej †c‡q‡Qb wK?','2.1 (ask) Did you receive a toy ball from our team yesterday?','','m22','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -3414,17 +3777,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>113</v>
+        <v>412</v>
       </c>
       <c r="G11" s="51"/>
       <c r="H11" s="15" t="str">
@@ -3449,9 +3812,9 @@
       <c r="T11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="1" t="str">
+      <c r="U11" s="115" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'm22','frmmessage', '','MZKvj Avcbvi Lvbvq †h ‡Ljbv ejwU †`Iqv n‡qwQj eZ©gv‡b ‡mUv ‡Kvb ¯’v‡b ivLv Av‡Q AbyMÖnc~e©K Avgv‡K  †m¯’vbUv †`Lv‡Z cv‡ib wK?','PROMPT: Could you please show me where the ball that was delivered to your household yesterday is currently located?(','','q2_2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'm22','frmmessage', '','MZKvj Avcbvi Lvbvq †h ‡Ljbv ejwU †`Iqv n‡qwQj eZ©gv‡b ‡mUv ‡Kvb ¯’v‡b ivLv Av‡Q AbyMÖnc~e©K Avgv‡K  †m¯’vbUv †`Lv‡Z cv‡ib wK?','PROMPT: Could you please show me where the ball that was delivered to your household yesterday is currently located?','','q2_2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
@@ -3559,13 +3922,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" s="100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="15" t="str">
@@ -3590,7 +3953,7 @@
       <c r="T12" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="1" t="str">
+      <c r="U12" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q2_2','frmsinglechoice', 'tblMainQues','2.2 (cÖkœ Kiæb) MZKvj Avcbvi Lvbvq †h ‡Ljbv ejwU †`Iqv n‡qwQj †mUv Avwg ay‡Z cvwi wK?','2.2 (ask) May I now rinse the toy ball that was delivered to your household yesterday? ','','q2_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -3694,19 +4057,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="11" t="s">
@@ -3730,7 +4093,7 @@
       <c r="T13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U13" s="1" t="str">
+      <c r="U13" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q2_2Other','frmtext', 'tblMainQues','2.2 Ab¨‡Kvb Kvi‡b ejwU Lyu‡R cvIqv hvqwb (wbw`©ó Kiæb)','2.2 Ball was given away to another household','','sec03','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -3840,13 +4203,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="15" t="str">
@@ -3871,7 +4234,7 @@
       <c r="T14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U14" s="1" t="str">
+      <c r="U14" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q2_3','frmsinglechoice', 'tblMainQues','2.3 (ch©‡eÿY) ejwU †Kv_vq (¯’vb) cvIqv wMqv‡Q?','2.3 (obs) Where is the ball located?','','q2_4a','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -3975,23 +4338,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="51"/>
@@ -4011,7 +4374,7 @@
       <c r="T15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="1" t="str">
+      <c r="U15" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q2_3Other','frmtext', 'tblMainQues','2.3 Ab¨ RvqMvq(wbw©`ó K‡i wjLyb)','2.3 Other (specify)','','q2_4a','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -4115,19 +4478,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>361</v>
+        <v>87</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>411</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="15" t="str">
@@ -4152,9 +4515,9 @@
       <c r="T16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="1" t="str">
+      <c r="U16" s="115" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q2_4a','frmsinglechoice', 'tblMainQues','2.4.K (cÖkœ Kiæb) Avcbvi g‡Z, Avcbvi ev”Pv (Uv‡M©U wkïi bvg ejyb) MZ24 N›Uvq KZ evi Avgv‡`i †`qv GB †Ljbv ej w`‡q ‡Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e)','2.4.a (ask)In your opinion, how much did (target child’s name) play with the toy ball over the past 24 hours? (read each choice)','','q2_4b','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q2_4a','frmsinglechoice', 'tblMainQues','2.4.K (cÖkœ Kiæb) Avcbvi g‡Z, Avcbvi ev”Pv (Uv‡M©U wkïi bvg ejyb) MZ 24 N›Uvq KZ evi Avgv‡`i †`qv GB †Ljbv ej w`‡q ‡Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e)','2.4.a (ask)In your opinion, how much did (target child’s name) play with the toy ball over the past 24 hours? (read each choice)','','q2_4b','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V16" s="55"/>
       <c r="W16" s="55"/>
@@ -4256,19 +4619,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>154</v>
-      </c>
       <c r="F17" s="101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G17" s="51"/>
       <c r="H17" s="15" t="str">
@@ -4293,7 +4656,7 @@
       <c r="T17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U17" s="1" t="str">
+      <c r="U17" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q2_4b','frmyeartomin', 'tblMainQues','2.4.L Avcbvi g‡Z, MZ 24 N›Uvq me©‡gvU KZUzKz mgq Avcbvi wkï (Uv‡M©U wkïi bvg ejyb) GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q?(99=Rvwb bv)','2.4.b In your opinion, how much time total did (target child’s name) spend playing with the toy ball over the past 24 hours?','','q2_5a','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -4397,19 +4760,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F18" s="101" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G18" s="51"/>
       <c r="H18" s="15" t="str">
@@ -4434,7 +4797,7 @@
       <c r="T18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="1" t="str">
+      <c r="U18" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q2_5a','frmsinglechoice', 'tblMainQues','2.5.K (cÖkœ Kiæb) Avcbvi g‡Z, MZ 24N›Uvq KZevi Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï ev ‡h †KD †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)','2.5.a (ask) In your opinion, how much did any of the other children/ people  in the household or bari play with the toy ball in the past 24 hours? (read each choice)','','q2_5b','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -4538,19 +4901,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F19" s="101" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G19" s="51"/>
       <c r="H19" s="15" t="str">
@@ -4575,7 +4938,7 @@
       <c r="T19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U19" s="1" t="str">
+      <c r="U19" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q2_5b','frmyeartomin', 'tblMainQues','2.5.L Avcbvi g‡Z, MZ 24 N›Uvq me©‡gvU KZUzKz mgq Avcbvi Lvbvi ev evwoi Ab¨vb¨ wkï ev ‡h †KD GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q? (99=Rvwb bv)','2.5.b In your opinion, how much time total did other children/people  in the household or bari spend playing with the toy ball over the past 24 hours?','','q2_6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -4679,19 +5042,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G20" s="51"/>
       <c r="H20" s="15" t="str">
@@ -4716,7 +5079,7 @@
       <c r="T20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U20" s="1" t="str">
+      <c r="U20" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q2_6','frmsinglechoice', 'tblMainQues','2.6 (cÖkœ Kiæb) MZ 24N›Uvq (Avcbvi Lvbv ev evwo e¨ZxZ) Ab¨ evwoi wkïiv ev †h †KD GB †Ljbv ejwU w`‡q †Ljv K‡i‡Q wK? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e|)','2.6 (ask) Did children/people from other baris play with the toy ball in the past 24 hours? (read each choice)','','q2_7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -4820,19 +5183,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="15" t="str">
@@ -4857,7 +5220,7 @@
       <c r="T21" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U21" s="1" t="str">
+      <c r="U21" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q2_7','frmsinglechoice', 'tblMainQues','2.7 (cÖkœ) ev”Pviv Avgv‡`i †`qv GB ej wb‡q mvavibZ †ekxi fvM mgq †Kv_vq †Ljv K‡iwQj: N‡ii †fZ‡i,  N‡ii evB‡i  A_ev GB `yB RvqMv‡ZB mgvb mgq †Ljv K‡iwQj?','2.7 (ask)Did the children play with the ball mostly inside the home (indoors), mostly outside the home (outdoors) or equal amount inside and outside the home?','','q2_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -4961,19 +5324,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F22" s="101" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G22" s="51"/>
       <c r="H22" s="15" t="str">
@@ -4998,7 +5361,7 @@
       <c r="T22" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="1" t="str">
+      <c r="U22" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q2_8','frmsinglechoice', 'tblMainQues','2.8 (cÖkœ Kiæb) ej wb‡q wkïwU wKfv‡e †Ljv K‡iwQj? (cÖwZwU Ackb c‡o †kvbv‡Z n‡e)','2.8 (ask) Howdid the child play with the ball? (Read each choice)','','q2_9','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -5102,19 +5465,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F23" s="101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G23" s="51"/>
       <c r="H23" s="15" t="str">
@@ -5139,7 +5502,7 @@
       <c r="T23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="1" t="str">
+      <c r="U23" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'q2_9','frmsinglechoice', 'tblMainQues','2.9 (cÖkœ Kiæb) ejwU cwi¯‹vi Kivi Rb¨ Avcwb wKQz K‡i‡Qb wK?','2.9 (ask) Did you do anything to clean the ball?','','q2_10','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -5238,24 +5601,24 @@
       <c r="DJ23" s="55"/>
       <c r="DK23" s="55"/>
     </row>
-    <row r="24" spans="1:115" ht="117">
+    <row r="24" spans="1:115" ht="97.5">
       <c r="A24" s="47">
         <v>23</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G24" s="51"/>
       <c r="H24" s="15" t="str">
@@ -5280,7 +5643,7 @@
       <c r="T24" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U24" s="1" t="str">
+      <c r="U24" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'q2_10','frmmultiplechoice', 'tblMainQues','2.10 (cÖkœ Kiæb) (hw` 2.9Gi DËi 1 nq) ejwU cwi®‹vi Kivi Rb¨ Avcwb wK K‡i‡Qb? (wb‡P cÖ`Ë Ackb¸‡jv †_‡K hZ¸‡jv cÖ‡hvR¨ Zv wbev©Pb Kiæb) (cÖwZwU Ackb c‡o †kvbv‡Z n‡e)','2.10 (ask) (if 2.9 is 1) What did you do to clean the ball? Select all that apply.Read each choice.','','q2_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -5384,23 +5747,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="51"/>
@@ -5420,7 +5783,7 @@
       <c r="T25" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U25" s="1" t="str">
+      <c r="U25" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q2_10Other','frmtext', 'tblMainQues','2.10 Ab¨vb¨','2.10 Other','','q2_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -5524,19 +5887,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F26" s="101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="15" t="str">
@@ -5561,7 +5924,7 @@
       <c r="T26" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U26" s="1" t="str">
+      <c r="U26" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q2_11','frmyeartomin', 'tblMainQues','2.11 (cÖkœ Kiæb)(hw` 2.9 Gi DËi 1 nq) KZÿb Av‡M Avcwb GB ejwU cwi®‹vi K‡i‡Qb? (99= Rvwb bv)','2.11 (ask) (if 2.9 is 1) How long ago did you clean the ball? (99=DK)','','q2_12','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -5665,19 +6028,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F27" s="100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G27" s="51"/>
       <c r="H27" s="15" t="str">
@@ -5702,7 +6065,7 @@
       <c r="T27" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U27" s="1" t="str">
+      <c r="U27" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'q2_12','frmmultiplechoice', 'tblMainQues','2.12 [(ch©‡eÿb) Avcwb GB Lvbvq Avmvi ci †_‡K ev”Pviv wK ejwU w`‡q †Ljv K‡i‡Q? (wb‡P cÖ`Ë Ackb¸‡jv †_‡K hZ¸‡jv cÖ‡hvR¨ Zv wbev©Pb Kiæb)','2.12 (obs) Have children played with the ball since you arrived at the household? Select all that apply.','','m213','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -5806,17 +6169,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C28" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="68" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F28" s="101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G28" s="51"/>
       <c r="H28" s="15" t="str">
@@ -5841,7 +6204,7 @@
       <c r="T28" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U28" s="1" t="str">
+      <c r="U28" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'm213','frmmessage', '','`qvK‡i  ûBjc¨vK e¨v‡M GB µgvbymv‡i  †j‡ej emvbt wU.[Lvbv AvBwW b¤^i]. [w`b]. [gvm]','PROMPT: Please label the whirlpak with the following label: T.[PID].[DAY].[MONTH]','','q2_13','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -5945,19 +6308,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C29" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F29" s="101" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G29" s="51"/>
       <c r="H29" s="15" t="str">
@@ -5982,7 +6345,7 @@
       <c r="T29" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="1" t="str">
+      <c r="U29" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'q2_13','frmsinglechoice', 'tblMainQues','2.13 (ch©‡eÿb) ‡hAe¯’vq †LjbvwU cvIqv †M‡Q:','2.13 (obs) Toy appearance','','q2_14','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -6086,19 +6449,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F30" s="101" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G30" s="51"/>
       <c r="H30" s="15" t="str">
@@ -6123,7 +6486,7 @@
       <c r="T30" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U30" s="1" t="str">
+      <c r="U30" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'q2_14','frmsinglechoice', 'tblMainQues','2.14 (ch©‡eÿb) †Ljbvi Ae¯’v','2.14 (obs) Toy condition','','m215','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -6227,17 +6590,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F31" s="101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G31" s="51"/>
       <c r="H31" s="15" t="str">
@@ -6262,7 +6625,7 @@
       <c r="T31" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U31" s="1" t="str">
+      <c r="U31" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'm215','frmmessage', '','`qvK‡i ûBjc¨vK e¨v‡M †Ljbv ‡avqv cvwbi bgybv msMÖn Ki“b|','PROMPT: Collect a toy rinse sample by rinsing the toy in the Whirlpak bag.','','q2_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -6366,19 +6729,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C32" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F32" s="101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G32" s="51"/>
       <c r="H32" s="15" t="str">
@@ -6403,7 +6766,7 @@
       <c r="T32" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U32" s="1" t="str">
+      <c r="U32" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('31', 'q2_15','frmnumeric', 'tblMainQues','2.15 ‡h e¨v‡M bgybv msMÖn Kiv n‡q‡Q AbyMÖnc~e©K Zvi Mv‡q ‡jLv 5 msL¨vi BDwbK AvBwW b¤^iwU U¨v‡j‡U Gw›Uª Ki“bt','2.15 Please enter the 5-digit unique numerical ID into the tablet.','','q2_16','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -6507,19 +6870,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G33" s="51"/>
       <c r="H33" s="15" t="str">
@@ -6544,7 +6907,7 @@
       <c r="T33" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U33" s="1" t="str">
+      <c r="U33" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('32', 'q2_16','frmmultiplechoice', 'tblMainQues','2.16 bgybv wnmv‡e ‡Ljbv †avqv cvwb mwVKfv‡e msMÖn Kiv n‡q‡Q wK? (wb‡P cÖ`Ë Ackb¸‡jv †_‡K hZ¸‡jv cÖ‡hvR¨ Zv wbev©Pb Ki“b|)','2.16 Has a toy rinse sample been collected successfully? (Select all that apply)','','q2_17','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -6648,19 +7011,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C34" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F34" s="101" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G34" s="51"/>
       <c r="H34" s="15" t="str">
@@ -6685,7 +7048,7 @@
       <c r="T34" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U34" s="1" t="str">
+      <c r="U34" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('33', 'q2_17','frmtime', 'tblMainQues','2.17 (hw` 2.16 Gi DËi 4bv nq) bgybv msMÖ‡ni mgq wjwce× Kiæb| [24 N›Uv wnmv‡e, (N›Uvt wgwbU)','2.17 (if 2.16 is not 4) Record time that sample was collected (24H format, HH:MM).','','sec03','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -6796,10 +7159,10 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="68" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="48" t="s">
@@ -6823,7 +7186,7 @@
       <c r="T35" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U35" s="1" t="str">
+      <c r="U35" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('34', 'sec03','frmmessage', '','†mKkb 3t gvwQi NbZ¡ ','SECTION 3. FLY DENSITY','','q3_1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -6922,7 +7285,7 @@
       <c r="DJ35" s="55"/>
       <c r="DK35" s="55"/>
     </row>
-    <row r="36" spans="1:115" ht="97.5">
+    <row r="36" spans="1:115" ht="78">
       <c r="A36" s="47">
         <v>35</v>
       </c>
@@ -6933,13 +7296,13 @@
         <v>33</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F36" s="100" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="48" t="s">
@@ -6963,7 +7326,7 @@
       <c r="T36" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U36" s="1" t="str">
+      <c r="U36" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('35', 'q3_1','frmsinglechoice', 'tblMainQues','3.1 Lvevi ˆZwii ¯’v‡b gvwQi Kg©KvÛ ch©‡eÿY Kiæb| D³ ¯’v‡bi Av‡kcv‡k KZ¸‡jv gvwQ gy³fv‡e wePib Ki‡Z ‡`Lv †M‡Q Zvi AvbygvwbK wnmve w`b|','3.1 Observe fly activity in the food preparation area. Estimate the total number of flies seen.','','q3_2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -7073,13 +7436,13 @@
         <v>33</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F37" s="100" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G37" s="51"/>
       <c r="H37" s="48" t="s">
@@ -7103,7 +7466,7 @@
       <c r="T37" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U37" s="1" t="str">
+      <c r="U37" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('36', 'q3_2','frmsinglechoice', 'tblMainQues','3.2 Lvevi ˆZwii GB ¯’vbwU wK wfZ‡i bv evwn‡i?','3.2 Is the food prep area inside or outside?','','q3_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -7213,17 +7576,17 @@
         <v>33</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G38" s="51"/>
       <c r="H38" s="48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="51"/>
@@ -7243,7 +7606,7 @@
       <c r="T38" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U38" s="1" t="str">
+      <c r="U38" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('37', 'q3_3','frmsinglechoice', 'tblMainQues','3.3 (ch©‡e¶Y) (Lvevi ˆZwii ¯’v‡b evavu  d¬vB‡UcwU ¶wZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?','3.3 (obs) Was the fly tape in the food preparation area tampered with or did it fall down?','','q3_4','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -7347,23 +7710,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F39" s="100" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G39" s="51"/>
       <c r="H39" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I39" s="48"/>
       <c r="J39" s="51"/>
@@ -7383,7 +7746,7 @@
       <c r="T39" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U39" s="1" t="str">
+      <c r="U39" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'q3_4','frmsinglechoice', 'tblMainQues','3.4 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)','3.4 Was the fly tape hung under a roof (protected from rain)?','','q3_5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -7487,19 +7850,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G40" s="51"/>
       <c r="H40" s="48" t="s">
@@ -7523,7 +7886,7 @@
       <c r="T40" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U40" s="1" t="str">
+      <c r="U40" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('39', 'q3_5','frmnumeric', 'tblMainQues','3.5 (wjLyb) Lvevi ˆZwii ¯’vb †_‡K KZ K`g `y‡i (cv‡qi avc Mbbv Kiæb) d¬vB‡Uc evav n‡qwQj?','3.5 (record) How many steps are the strips hung from the food preparation area?','','q3_6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -7633,13 +7996,13 @@
         <v>31</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F41" s="100" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G41" s="51"/>
       <c r="H41" s="48" t="s">
@@ -7663,7 +8026,7 @@
       <c r="T41" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U41" s="1" t="str">
+      <c r="U41" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('40', 'q3_6','frmnumeric', 'tblMainQues','3.6 (wjLyb) d¬vB‡U‡c me wgwj‡q KZ¸‡jv gvwQ aiv c‡o‡Q Zvi msL¨v wjwce× Kiæb|','3.6 (record) What is the total number of flies counted on all strips?','','q3_7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -7773,13 +8136,13 @@
         <v>34</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F42" s="100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G42" s="51"/>
       <c r="H42" s="15" t="str">
@@ -7804,7 +8167,7 @@
       <c r="T42" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U42" s="1" t="str">
+      <c r="U42" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('41', 'q3_7','frmmultiplechoice', 'tblMainQues','3.7 (wjLyb) (hw` 3.6Gi DËi 0 bv nq) hZ cÖRvwZi gvwQ †`Lv †M‡Q Zvi msL¨v wjLybt','3.7 (record) (if 3.6 is not 0) Write the number of each species observed.','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -7908,13 +8271,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="68"/>
       <c r="F43" s="100"/>
@@ -7940,7 +8303,7 @@
       <c r="T43" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U43" s="1" t="str">
+      <c r="U43" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('42', 'q3_7_1Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -8044,13 +8407,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="68"/>
       <c r="F44" s="100"/>
@@ -8076,7 +8439,7 @@
       <c r="T44" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U44" s="1" t="str">
+      <c r="U44" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('43', 'q3_7_2Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -8180,13 +8543,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="68"/>
       <c r="F45" s="100"/>
@@ -8212,7 +8575,7 @@
       <c r="T45" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U45" s="1" t="str">
+      <c r="U45" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('44', 'q3_7_3Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -8316,13 +8679,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" s="68"/>
       <c r="F46" s="100"/>
@@ -8348,7 +8711,7 @@
       <c r="T46" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U46" s="1" t="str">
+      <c r="U46" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('45', 'q3_7_4Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -8452,13 +8815,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="68"/>
       <c r="F47" s="100"/>
@@ -8484,7 +8847,7 @@
       <c r="T47" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U47" s="1" t="str">
+      <c r="U47" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('46', 'q3_7_77Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -8588,13 +8951,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" s="68"/>
       <c r="F48" s="100"/>
@@ -8620,7 +8983,7 @@
       <c r="T48" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U48" s="1" t="str">
+      <c r="U48" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('47', 'q3_7_6Num','frmtext', 'tblMainQues','','','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -8724,19 +9087,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C49" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F49" s="100" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G49" s="51"/>
       <c r="H49" s="48" t="s">
@@ -8760,7 +9123,7 @@
       <c r="T49" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U49" s="1" t="str">
+      <c r="U49" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('48', 'q3_7Other','frmtext', 'tblMainQues','3.7 Ab¨vb¨','3.7 Other','','q3_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -8870,13 +9233,13 @@
         <v>35</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F50" s="100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="48" t="s">
@@ -8900,7 +9263,7 @@
       <c r="T50" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U50" s="1" t="str">
+      <c r="U50" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('49', 'q3_8','frmtime', 'tblMainQues','3.8 (Lvevi ˆZwii ¯’v‡b d¬vB‡U‡c AvUK gvwQ Mbbvi mgq wjwce× Kiæb: (24 N›Uv wnmv‡e, N›Uvt wgwbU)','3.8 Record the time you counted the flies on fly tape at the food preparation area (24H format, HH:MM) ','','q3_9','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9010,13 +9373,13 @@
         <v>33</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F51" s="100" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G51" s="51"/>
       <c r="H51" s="48" t="s">
@@ -9040,7 +9403,7 @@
       <c r="T51" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U51" s="1" t="str">
+      <c r="U51" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('50', 'q3_9','frmsinglechoice', 'tblMainQues','3.9 Uq‡j‡Ui g‡a¨ gvwQi Kg©KvÛ ch©‡e¶Y Kiæb| D³ ¯’v‡b KZ¸‡jv gvwQ gy³fv‡e wePib Ki‡Z ‡`Lv †M‡Q Zvi AvbygvwbK wnmve w`b|','3.9 Observe fly activity in the latrine area. Estimate the total number of flies seen. ','','q3_10','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9150,13 +9513,13 @@
         <v>33</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G52" s="51"/>
       <c r="H52" s="48" t="s">
@@ -9180,7 +9543,7 @@
       <c r="T52" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U52" s="1" t="str">
+      <c r="U52" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('51', 'q3_10','frmsinglechoice', 'tblMainQues','3.10 (ch©‡eÿY) Uq‡j‡Ui Av‡kcv‡k evavu d¬vB‡UcwU ¶wZMÖ¯’ n‡q‡Q ev wb‡P c‡o †M‡Q wK?','3.10 (obs) Was the fly tape in the latrine area tampered with or did it fall down?','','q3_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9290,13 +9653,13 @@
         <v>33</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F53" s="100" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G53" s="51"/>
       <c r="H53" s="48" t="s">
@@ -9320,7 +9683,7 @@
       <c r="T53" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U53" s="1" t="str">
+      <c r="U53" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('52', 'q3_11','frmsinglechoice', 'tblMainQues','3.11 †h ¯’v‡b d¬vB‡UcwU evavu n‡q‡Q Zvi Dc‡i wK Qv` Av‡Q? (e„wó †_‡K myiwÿZ wKbv?)','3.11 Was the fly tape hung under a roof (protected from rain)?','','q3_12','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9430,13 +9793,13 @@
         <v>31</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G54" s="51"/>
       <c r="H54" s="48" t="s">
@@ -9460,7 +9823,7 @@
       <c r="T54" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U54" s="1" t="str">
+      <c r="U54" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q3_12','frmnumeric', 'tblMainQues','3.12 (wjwce× Kiæb) Uq‡jU †_‡K KZ K`g `y‡i (cv‡qi avc MbYv Kiæb) d¬vB‡Uc evavu wQj?','3.12 (record) How many steps are the strips hung from the latrine area?','','q3_13','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9570,13 +9933,13 @@
         <v>31</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F55" s="100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G55" s="51"/>
       <c r="H55" s="15" t="str">
@@ -9601,7 +9964,7 @@
       <c r="T55" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U55" s="1" t="str">
+      <c r="U55" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q3_13','frmnumeric', 'tblMainQues','3.13 (wjwce× Kiæb) (d¬vB‡U‡c me wgwj‡q KZ¸‡jv gvwQ aiv c‡o‡Q Zvi msL¨v wjwce× Kiæb|','3.13 (record) What is the total number of flies counted on all strips?','','q3_14','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9711,13 +10074,13 @@
         <v>34</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F56" s="100" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G56" s="51"/>
       <c r="H56" s="15" t="str">
@@ -9742,7 +10105,7 @@
       <c r="T56" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U56" s="1" t="str">
+      <c r="U56" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('55', 'q3_14','frmmultiplechoice', 'tblMainQues','3.14 (wjwce× Kiæb) (hw` 3.13Gi DËi 0 bv nq) hZ cÖRvwZi gvwQ †`Lv †M‡Q Zvi msL¨v wjLybt','3.14(record) (if 3.13 is not 0) Write the number of each species observed.','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9846,13 +10209,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C57" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" s="68"/>
       <c r="F57" s="100"/>
@@ -9878,7 +10241,7 @@
       <c r="T57" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U57" s="1" t="str">
+      <c r="U57" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('56', 'q3_14_1Num','frmtext', 'tblMainQues','','','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -9982,13 +10345,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C58" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" s="68"/>
       <c r="F58" s="100"/>
@@ -10014,7 +10377,7 @@
       <c r="T58" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U58" s="1" t="str">
+      <c r="U58" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('57', 'q3_14_2Num','frmtext', 'tblMainQues','','','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -10118,13 +10481,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C59" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" s="68"/>
       <c r="F59" s="100"/>
@@ -10150,7 +10513,7 @@
       <c r="T59" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U59" s="1" t="str">
+      <c r="U59" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('58', 'q3_14_3Num','frmtext', 'tblMainQues','','','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -10254,13 +10617,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C60" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="68"/>
       <c r="F60" s="100"/>
@@ -10286,7 +10649,7 @@
       <c r="T60" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U60" s="1" t="str">
+      <c r="U60" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('59', 'q3_14_4Num','frmtext', 'tblMainQues','','','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -10390,13 +10753,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C61" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" s="68"/>
       <c r="F61" s="100"/>
@@ -10422,7 +10785,7 @@
       <c r="T61" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U61" s="1" t="str">
+      <c r="U61" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('60', 'q3_14_77Num','frmtext', 'tblMainQues','','','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -10526,13 +10889,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C62" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" s="68"/>
       <c r="F62" s="100"/>
@@ -10558,7 +10921,7 @@
       <c r="T62" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U62" s="1" t="str">
+      <c r="U62" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('61', 'q3_14_6Num','frmtext', 'tblMainQues','','','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -10662,19 +11025,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C63" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G63" s="51"/>
       <c r="H63" s="48" t="s">
@@ -10698,7 +11061,7 @@
       <c r="T63" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U63" s="1" t="str">
+      <c r="U63" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('62', 'q3_14Other','frmtext', 'tblMainQues','3.14 Ab¨vb¨','3.14 Other','','q3_15','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -10808,13 +11171,13 @@
         <v>35</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F64" s="100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G64" s="51"/>
       <c r="H64" s="15" t="str">
@@ -10839,7 +11202,7 @@
       <c r="T64" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U64" s="1" t="str">
+      <c r="U64" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('63', 'q3_15','frmtime', 'tblMainQues','3.15 (Uq‡j‡Ui Av‡kcv‡k/¯’v‡b d¬vB‡U‡c AvUK gvwQ Mbbvi mgq wjwce× Kiæb: (24 N›Uv wnmv‡e, N›Uvt wgwbU)','3.15 Record the time you counted the flies on the fly tape at the latrine area (24H format, HH:MM)','','q3_16','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -10949,13 +11312,13 @@
         <v>33</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" s="68" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F65" s="100" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G65" s="51"/>
       <c r="H65" s="15" t="s">
@@ -10979,7 +11342,7 @@
       <c r="T65" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="U65" s="1" t="str">
+      <c r="U65" s="115" t="str">
         <f t="shared" si="1"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('64', 'q3_16','frmsinglechoice', 'tblMainQues','3.16 (wRÁvmv Kiæbt) me©‡kl KLb e„wó n‡qwQj?','3.16 (ask) When was the most recent time it rained?','','END','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
@@ -17801,10 +18164,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H629"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:H122"/>
     </sheetView>
@@ -17847,7 +18210,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>57</v>
@@ -17870,7 +18233,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="65" t="s">
         <v>59</v>
@@ -17893,7 +18256,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="65" t="s">
         <v>61</v>
@@ -17916,7 +18279,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>63</v>
@@ -17939,7 +18302,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>65</v>
@@ -17962,7 +18325,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>67</v>
@@ -17985,7 +18348,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>69</v>
@@ -18008,7 +18371,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="65" t="s">
         <v>71</v>
@@ -18031,7 +18394,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>73</v>
@@ -18054,7 +18417,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>75</v>
@@ -18077,7 +18440,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>77</v>
@@ -18100,7 +18463,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>79</v>
@@ -18123,13 +18486,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>84</v>
-      </c>
       <c r="D14" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
@@ -18146,13 +18509,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8">
         <v>2</v>
@@ -18174,10 +18537,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
@@ -18197,10 +18560,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
@@ -18222,10 +18585,10 @@
         <v>27</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
@@ -18245,10 +18608,10 @@
         <v>27</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="8">
         <v>2</v>
@@ -18270,10 +18633,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="8">
         <v>3</v>
@@ -18295,10 +18658,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="8">
         <v>4</v>
@@ -18320,16 +18683,16 @@
         <v>27</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" s="8">
         <v>77</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="9" t="str">
@@ -18345,10 +18708,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
@@ -18368,10 +18731,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
@@ -18391,10 +18754,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E25" s="8">
         <v>3</v>
@@ -18414,10 +18777,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E26" s="8">
         <v>4</v>
@@ -18437,10 +18800,10 @@
         <v>28</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E27" s="8">
         <v>5</v>
@@ -18460,10 +18823,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E28" s="8">
         <v>6</v>
@@ -18483,10 +18846,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E29" s="8">
         <v>7</v>
@@ -18506,10 +18869,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="8">
         <v>8</v>
@@ -18529,10 +18892,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E31" s="8">
         <v>9</v>
@@ -18552,16 +18915,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E32" s="8">
         <v>77</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="9" t="str">
@@ -18574,13 +18937,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>142</v>
-      </c>
       <c r="D33" s="70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -18597,13 +18960,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E34" s="8">
         <v>2</v>
@@ -18620,13 +18983,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E35" s="8">
         <v>3</v>
@@ -18643,22 +19006,24 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E36" s="8">
         <v>4</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="114" t="s">
+        <v>153</v>
+      </c>
       <c r="G36" s="16"/>
       <c r="H36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('35','q2_4a', 'Never','KL‡bv bv','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('35','q2_4a', 'Never','KL‡bv bv','4','q2_5a');</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="24" customFormat="1" ht="19.5">
@@ -18666,22 +19031,24 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E37" s="8">
         <v>99</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="114" t="s">
+        <v>153</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('36','q2_4a', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('36','q2_4a', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','q2_5a');</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="24" customFormat="1" ht="39">
@@ -18689,13 +19056,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
@@ -18712,13 +19079,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E39" s="8">
         <v>2</v>
@@ -18735,13 +19102,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E40" s="8">
         <v>3</v>
@@ -18758,22 +19125,24 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E41" s="8">
         <v>4</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="116" t="s">
+        <v>155</v>
+      </c>
       <c r="G41" s="16"/>
       <c r="H41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q2_5a', 'Never','KL‡bv bv','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q2_5a', 'Never','KL‡bv bv','4','q2_6');</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="24" customFormat="1" ht="19.5">
@@ -18781,22 +19150,24 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E42" s="8">
         <v>99</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="116" t="s">
+        <v>155</v>
+      </c>
       <c r="G42" s="16"/>
       <c r="H42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('41','q2_5a', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('41','q2_5a', 'DK/Not sure','Rvwb bv/wbwðZ bv','99','q2_6');</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="24" customFormat="1" ht="39">
@@ -18804,13 +19175,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="70" t="s">
         <v>158</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>160</v>
       </c>
       <c r="E43" s="8">
         <v>1</v>
@@ -18827,13 +19198,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="D44" s="70" t="s">
         <v>159</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>161</v>
       </c>
       <c r="E44" s="8">
         <v>2</v>
@@ -18850,13 +19221,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E45" s="8">
         <v>3</v>
@@ -18873,13 +19244,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46" s="8">
         <v>4</v>
@@ -18896,13 +19267,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E47" s="8">
         <v>99</v>
@@ -18919,13 +19290,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
@@ -18942,13 +19313,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E49" s="8">
         <v>2</v>
@@ -18965,13 +19336,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="8">
         <v>3</v>
@@ -18983,18 +19354,18 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q2_7', 'Equal amounts inside/outside home','N‡ii wfZ‡i Ges evwB‡i `yB RvqMv‡ZB mgvb mgq †Ljv K‡iwQj','3','');</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="24" customFormat="1" ht="39">
+    <row r="51" spans="1:8" s="24" customFormat="1" ht="19.5">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E51" s="8">
         <v>4</v>
@@ -19011,13 +19382,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E52" s="8">
         <v>99</v>
@@ -19034,13 +19405,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E53" s="8">
         <v>1</v>
@@ -19057,13 +19428,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E54" s="8">
         <v>2</v>
@@ -19080,13 +19451,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E55" s="8">
         <v>3</v>
@@ -19098,18 +19469,18 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('54','q2_8', 'With hands and feet','nvZ Ges cv‡q †Ljv K‡iwQj','3','');</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="24" customFormat="1" ht="39">
+    <row r="56" spans="1:8" s="24" customFormat="1" ht="19.5">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E56" s="8">
         <v>4</v>
@@ -19126,13 +19497,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E57" s="8">
         <v>99</v>
@@ -19149,13 +19520,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
@@ -19172,19 +19543,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E59" s="8">
         <v>2</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="9" t="str">
@@ -19197,13 +19568,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
@@ -19220,13 +19591,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="8">
         <v>1</v>
@@ -19243,13 +19614,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E62" s="8">
         <v>1</v>
@@ -19266,13 +19637,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E63" s="8">
         <v>1</v>
@@ -19289,19 +19660,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E64" s="8">
         <v>1</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="9" t="str">
@@ -19314,13 +19685,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C65" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D65" s="70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E65" s="8">
         <v>1</v>
@@ -19332,18 +19703,18 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q2_12_1', 'Target child has played with ball','Uv‡M©U wkï ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="24" customFormat="1" ht="58.5">
+    <row r="66" spans="1:8" s="24" customFormat="1" ht="39">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D66" s="70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E66" s="8">
         <v>1</v>
@@ -19360,13 +19731,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C67" s="69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E67" s="8">
         <v>1</v>
@@ -19383,13 +19754,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E68" s="8">
         <v>1</v>
@@ -19406,13 +19777,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C69" s="69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D69" s="70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E69" s="8">
         <v>1</v>
@@ -19429,13 +19800,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D70" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E70" s="8">
         <v>2</v>
@@ -19447,18 +19818,18 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q2_13', 'Used, clean appearance','e¨eüZ Ges cwi®‹vi Ae¯’vq','2','');</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="24" customFormat="1" ht="39">
+    <row r="71" spans="1:8" s="24" customFormat="1" ht="19.5">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D71" s="70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E71" s="8">
         <v>3</v>
@@ -19475,13 +19846,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D72" s="70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E72" s="8">
         <v>4</v>
@@ -19498,13 +19869,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D73" s="70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E73" s="8">
         <v>5</v>
@@ -19521,13 +19892,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D74" s="70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E74" s="8">
         <v>1</v>
@@ -19544,13 +19915,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D75" s="70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E75" s="8">
         <v>2</v>
@@ -19567,13 +19938,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D76" s="70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E76" s="8">
         <v>3</v>
@@ -19590,13 +19961,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D77" s="70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E77" s="8">
         <v>4</v>
@@ -19613,13 +19984,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D78" s="70" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E78" s="8">
         <v>1</v>
@@ -19636,13 +20007,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C79" s="74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E79" s="8">
         <v>1</v>
@@ -19659,13 +20030,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C80" s="74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D80" s="70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E80" s="8">
         <v>1</v>
@@ -19682,13 +20053,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D81" s="70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E81" s="8">
         <v>1</v>
@@ -19708,10 +20079,10 @@
         <v>36</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D82" s="70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E82" s="8">
         <v>1</v>
@@ -19731,10 +20102,10 @@
         <v>36</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E83" s="8">
         <v>2</v>
@@ -19754,10 +20125,10 @@
         <v>36</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D84" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E84" s="8">
         <v>3</v>
@@ -19777,10 +20148,10 @@
         <v>36</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D85" s="66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E85" s="8">
         <v>4</v>
@@ -19792,7 +20163,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q3_1', 'High (&gt;10)','cwigv‡b †ewk (&gt;10)','4','');</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="24" customFormat="1" ht="39">
+    <row r="86" spans="1:8" s="24" customFormat="1" ht="19.5">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -19800,10 +20171,10 @@
         <v>37</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D86" s="70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E86" s="8">
         <v>1</v>
@@ -19823,10 +20194,10 @@
         <v>37</v>
       </c>
       <c r="C87" s="69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E87" s="8">
         <v>2</v>
@@ -19846,10 +20217,10 @@
         <v>37</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D88" s="70" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E88" s="8">
         <v>3</v>
@@ -19861,7 +20232,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('87','q3_2', 'Roof but no walls','Qv` Av‡Q wKšZz ‡`qvj bvB','3','');</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="24" customFormat="1" ht="39">
+    <row r="89" spans="1:8" s="24" customFormat="1" ht="19.5">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -19869,10 +20240,10 @@
         <v>37</v>
       </c>
       <c r="C89" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="70" t="s">
         <v>277</v>
-      </c>
-      <c r="D89" s="70" t="s">
-        <v>279</v>
       </c>
       <c r="E89" s="8">
         <v>4</v>
@@ -19892,10 +20263,10 @@
         <v>38</v>
       </c>
       <c r="C90" s="75" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D90" s="76" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E90" s="8">
         <v>1</v>
@@ -19915,10 +20286,10 @@
         <v>38</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D91" s="77" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E91" s="8">
         <v>2</v>
@@ -19938,10 +20309,10 @@
         <v>38</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D92" s="76" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E92" s="8">
         <v>3</v>
@@ -19960,13 +20331,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C93" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E93" s="8">
         <v>1</v>
@@ -19983,13 +20354,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D94" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -20006,19 +20377,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D95" s="70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
       </c>
       <c r="F95" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="9" t="str">
@@ -20031,19 +20402,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C96" s="69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D96" s="70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="F96" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="9" t="str">
@@ -20056,19 +20427,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D97" s="70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
       </c>
       <c r="F97" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="9" t="str">
@@ -20081,19 +20452,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C98" s="69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D98" s="70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E98" s="13">
         <v>1</v>
       </c>
       <c r="F98" s="54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="9" t="str">
@@ -20106,19 +20477,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C99" s="69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E99" s="13">
         <v>1</v>
       </c>
       <c r="F99" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="9" t="str">
@@ -20131,19 +20502,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C100" s="69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E100" s="8">
         <v>1</v>
       </c>
       <c r="F100" s="54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="9" t="str">
@@ -20159,10 +20530,10 @@
         <v>42</v>
       </c>
       <c r="C101" s="69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E101" s="8">
         <v>1</v>
@@ -20182,10 +20553,10 @@
         <v>42</v>
       </c>
       <c r="C102" s="69" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E102" s="8">
         <v>2</v>
@@ -20205,10 +20576,10 @@
         <v>42</v>
       </c>
       <c r="C103" s="69" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E103" s="8">
         <v>3</v>
@@ -20228,10 +20599,10 @@
         <v>42</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D104" s="66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E104" s="8">
         <v>4</v>
@@ -20251,10 +20622,10 @@
         <v>42</v>
       </c>
       <c r="C105" s="75" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D105" s="76" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E105" s="8">
         <v>99</v>
@@ -20276,10 +20647,10 @@
         <v>43</v>
       </c>
       <c r="C106" s="75" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D106" s="76" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E106" s="8">
         <v>1</v>
@@ -20299,10 +20670,10 @@
         <v>43</v>
       </c>
       <c r="C107" s="75" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D107" s="77" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E107" s="8">
         <v>2</v>
@@ -20322,10 +20693,10 @@
         <v>43</v>
       </c>
       <c r="C108" s="75" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D108" s="76" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E108" s="8">
         <v>3</v>
@@ -20347,10 +20718,10 @@
         <v>44</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D109" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E109" s="8">
         <v>1</v>
@@ -20370,10 +20741,10 @@
         <v>44</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D110" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E110" s="8">
         <v>2</v>
@@ -20390,19 +20761,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C111" s="69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D111" s="70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E111" s="13">
         <v>1</v>
       </c>
       <c r="F111" s="54" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="9" t="str">
@@ -20415,19 +20786,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D112" s="70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E112" s="13">
         <v>1</v>
       </c>
       <c r="F112" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="9" t="str">
@@ -20440,19 +20811,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C113" s="69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D113" s="70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E113" s="13">
         <v>1</v>
       </c>
       <c r="F113" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="9" t="str">
@@ -20465,19 +20836,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C114" s="69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D114" s="70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E114" s="13">
         <v>1</v>
       </c>
       <c r="F114" s="54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G114" s="16"/>
       <c r="H114" s="9" t="str">
@@ -20490,19 +20861,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D115" s="70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E115" s="13">
         <v>1</v>
       </c>
       <c r="F115" s="54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="9" t="str">
@@ -20515,19 +20886,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C116" s="69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D116" s="70" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E116" s="8">
         <v>1</v>
       </c>
       <c r="F116" s="54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G116" s="16"/>
       <c r="H116" s="9" t="str">
@@ -20543,10 +20914,10 @@
         <v>49</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D117" s="70" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E117" s="8">
         <v>1</v>
@@ -20566,10 +20937,10 @@
         <v>49</v>
       </c>
       <c r="C118" s="69" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D118" s="70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E118" s="8">
         <v>2</v>
@@ -20589,10 +20960,10 @@
         <v>49</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D119" s="70" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E119" s="13">
         <v>3</v>
@@ -20612,10 +20983,10 @@
         <v>49</v>
       </c>
       <c r="C120" s="69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D120" s="70" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E120" s="8">
         <v>4</v>
@@ -20635,10 +21006,10 @@
         <v>49</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D121" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E121" s="8">
         <v>5</v>
@@ -20658,10 +21029,10 @@
         <v>49</v>
       </c>
       <c r="C122" s="69" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D122" s="70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E122" s="8">
         <v>6</v>

--- a/DB and Documents/tblQuestion_day2.xlsx
+++ b/DB and Documents/tblQuestion_day2.xlsx
@@ -2899,8 +2899,8 @@
   <dimension ref="A1:DK143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19703,7 +19703,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q2_12_1', 'Target child has played with ball','Uv‡M©U wkï ejwU w`‡q †Ljv K‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="24" customFormat="1" ht="39">
+    <row r="66" spans="1:8" s="24" customFormat="1" ht="58.5">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q3_1', 'High (&gt;10)','cwigv‡b †ewk (&gt;10)','4','');</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="24" customFormat="1" ht="19.5">
+    <row r="86" spans="1:8" s="24" customFormat="1" ht="39">
       <c r="A86" s="6">
         <v>85</v>
       </c>
